--- a/PayrollProject/OutPutTestResult/Court order Scenarios Test result.xlsx
+++ b/PayrollProject/OutPutTestResult/Court order Scenarios Test result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\git\24-7PeopleXCDPayroll\PayrollProject\OutPutTestResult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6DFD0D-C2C3-46C4-A944-26A461C2B889}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFA7AF7-1D2E-43A5-AB0D-124A57EC3AC6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="7275" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="7275" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AEO1971civildebt" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2481" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2527" uniqueCount="183">
   <si>
     <t>ColumnHeading</t>
   </si>
@@ -578,6 +578,12 @@
   </si>
   <si>
     <t>GBP 865.28</t>
+  </si>
+  <si>
+    <t>GBP -33.72</t>
+  </si>
+  <si>
+    <t>GBP 1,038.78</t>
   </si>
 </sst>
 </file>
@@ -1843,6 +1849,9 @@
     <xf numFmtId="49" fontId="34" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="31" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1874,9 +1883,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2469,20 +2475,20 @@
         <v>23</v>
       </c>
       <c r="B9" s="34"/>
-      <c r="C9" s="288" t="s">
+      <c r="C9" s="289" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="288"/>
-      <c r="E9" s="288"/>
-      <c r="F9" s="288"/>
-      <c r="G9" s="288"/>
-      <c r="H9" s="288" t="s">
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="288"/>
-      <c r="J9" s="288"/>
-      <c r="K9" s="288"/>
-      <c r="L9" s="288"/>
+      <c r="I9" s="289"/>
+      <c r="J9" s="289"/>
+      <c r="K9" s="289"/>
+      <c r="L9" s="289"/>
       <c r="M9" s="6" t="s">
         <v>26</v>
       </c>
@@ -2953,9 +2959,9 @@
         <v>23</v>
       </c>
       <c r="B9" s="34"/>
-      <c r="C9" s="288"/>
-      <c r="D9" s="288"/>
-      <c r="E9" s="288"/>
+      <c r="C9" s="289"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
       <c r="F9" s="214"/>
       <c r="G9" s="214"/>
       <c r="H9" s="214"/>
@@ -3204,9 +3210,9 @@
         <v>37</v>
       </c>
       <c r="B18" s="34"/>
-      <c r="C18" s="288"/>
-      <c r="D18" s="288"/>
-      <c r="E18" s="288"/>
+      <c r="C18" s="289"/>
+      <c r="D18" s="289"/>
+      <c r="E18" s="289"/>
       <c r="F18" s="149"/>
       <c r="G18" s="149"/>
       <c r="H18" s="149"/>
@@ -3458,9 +3464,9 @@
         <v>49</v>
       </c>
       <c r="B27" s="34"/>
-      <c r="C27" s="288"/>
-      <c r="D27" s="288"/>
-      <c r="E27" s="288"/>
+      <c r="C27" s="289"/>
+      <c r="D27" s="289"/>
+      <c r="E27" s="289"/>
       <c r="F27" s="214"/>
       <c r="G27" s="214"/>
       <c r="H27" s="214"/>
@@ -3977,17 +3983,17 @@
         <v>23</v>
       </c>
       <c r="B9" s="34"/>
-      <c r="C9" s="288"/>
-      <c r="D9" s="288"/>
-      <c r="E9" s="288"/>
-      <c r="F9" s="288"/>
-      <c r="G9" s="288"/>
-      <c r="H9" s="288" t="s">
+      <c r="C9" s="289"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="288"/>
-      <c r="J9" s="288"/>
-      <c r="K9" s="288"/>
+      <c r="I9" s="289"/>
+      <c r="J9" s="289"/>
+      <c r="K9" s="289"/>
       <c r="L9" s="208" t="s">
         <v>51</v>
       </c>
@@ -4268,17 +4274,17 @@
         <v>37</v>
       </c>
       <c r="B18" s="34"/>
-      <c r="C18" s="288"/>
-      <c r="D18" s="288"/>
-      <c r="E18" s="288"/>
-      <c r="F18" s="288"/>
-      <c r="G18" s="288"/>
-      <c r="H18" s="288" t="s">
+      <c r="C18" s="289"/>
+      <c r="D18" s="289"/>
+      <c r="E18" s="289"/>
+      <c r="F18" s="289"/>
+      <c r="G18" s="289"/>
+      <c r="H18" s="289" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="288"/>
-      <c r="J18" s="288"/>
-      <c r="K18" s="288"/>
+      <c r="I18" s="289"/>
+      <c r="J18" s="289"/>
+      <c r="K18" s="289"/>
       <c r="L18" s="208" t="s">
         <v>51</v>
       </c>
@@ -4559,17 +4565,17 @@
         <v>49</v>
       </c>
       <c r="B27" s="34"/>
-      <c r="C27" s="288"/>
-      <c r="D27" s="288"/>
-      <c r="E27" s="288"/>
-      <c r="F27" s="288"/>
-      <c r="G27" s="288"/>
-      <c r="H27" s="288" t="s">
+      <c r="C27" s="289"/>
+      <c r="D27" s="289"/>
+      <c r="E27" s="289"/>
+      <c r="F27" s="289"/>
+      <c r="G27" s="289"/>
+      <c r="H27" s="289" t="s">
         <v>25</v>
       </c>
-      <c r="I27" s="288"/>
-      <c r="J27" s="288"/>
-      <c r="K27" s="288"/>
+      <c r="I27" s="289"/>
+      <c r="J27" s="289"/>
+      <c r="K27" s="289"/>
       <c r="L27" s="208" t="s">
         <v>51</v>
       </c>
@@ -5124,12 +5130,12 @@
       <c r="B9" s="34"/>
       <c r="C9" s="156"/>
       <c r="D9" s="156"/>
-      <c r="E9" s="288" t="s">
+      <c r="E9" s="289" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="288"/>
-      <c r="G9" s="288"/>
-      <c r="H9" s="288"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
       <c r="I9" s="157" t="s">
         <v>27</v>
       </c>
@@ -5407,12 +5413,12 @@
       <c r="B18" s="34"/>
       <c r="C18" s="156"/>
       <c r="D18" s="156"/>
-      <c r="E18" s="288" t="s">
+      <c r="E18" s="289" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="288"/>
-      <c r="G18" s="288"/>
-      <c r="H18" s="288"/>
+      <c r="F18" s="289"/>
+      <c r="G18" s="289"/>
+      <c r="H18" s="289"/>
       <c r="I18" s="157" t="s">
         <v>27</v>
       </c>
@@ -5690,12 +5696,12 @@
       <c r="B27" s="34"/>
       <c r="C27" s="156"/>
       <c r="D27" s="156"/>
-      <c r="E27" s="288" t="s">
+      <c r="E27" s="289" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="288"/>
-      <c r="G27" s="288"/>
-      <c r="H27" s="288"/>
+      <c r="F27" s="289"/>
+      <c r="G27" s="289"/>
+      <c r="H27" s="289"/>
       <c r="I27" s="157" t="s">
         <v>27</v>
       </c>
@@ -6296,25 +6302,25 @@
     <row r="7" spans="1:28" s="1" customFormat="1">
       <c r="A7" s="244"/>
       <c r="B7" s="244"/>
-      <c r="C7" s="298"/>
-      <c r="D7" s="298"/>
-      <c r="E7" s="298"/>
-      <c r="F7" s="298"/>
-      <c r="G7" s="298"/>
-      <c r="H7" s="298"/>
-      <c r="I7" s="298"/>
-      <c r="J7" s="298"/>
-      <c r="K7" s="298"/>
-      <c r="L7" s="298"/>
-      <c r="M7" s="298"/>
-      <c r="N7" s="298"/>
-      <c r="O7" s="298"/>
-      <c r="P7" s="298"/>
+      <c r="C7" s="299"/>
+      <c r="D7" s="299"/>
+      <c r="E7" s="299"/>
+      <c r="F7" s="299"/>
+      <c r="G7" s="299"/>
+      <c r="H7" s="299"/>
+      <c r="I7" s="299"/>
+      <c r="J7" s="299"/>
+      <c r="K7" s="299"/>
+      <c r="L7" s="299"/>
+      <c r="M7" s="299"/>
+      <c r="N7" s="299"/>
+      <c r="O7" s="299"/>
+      <c r="P7" s="299"/>
       <c r="Q7" s="238"/>
       <c r="R7" s="238"/>
-      <c r="S7" s="298"/>
-      <c r="T7" s="298"/>
-      <c r="U7" s="298"/>
+      <c r="S7" s="299"/>
+      <c r="T7" s="299"/>
+      <c r="U7" s="299"/>
       <c r="V7" s="235"/>
       <c r="W7" s="235"/>
       <c r="X7" s="18"/>
@@ -9252,20 +9258,20 @@
         <v>23</v>
       </c>
       <c r="B9" s="102"/>
-      <c r="C9" s="289" t="s">
+      <c r="C9" s="290" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="289"/>
-      <c r="H9" s="289" t="s">
+      <c r="D9" s="290"/>
+      <c r="E9" s="290"/>
+      <c r="F9" s="290"/>
+      <c r="G9" s="290"/>
+      <c r="H9" s="290" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="289"/>
-      <c r="J9" s="289"/>
-      <c r="K9" s="289"/>
-      <c r="L9" s="289"/>
+      <c r="I9" s="290"/>
+      <c r="J9" s="290"/>
+      <c r="K9" s="290"/>
+      <c r="L9" s="290"/>
       <c r="M9" s="52" t="s">
         <v>26</v>
       </c>
@@ -9360,7 +9366,7 @@
       <c r="J11" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="299" t="s">
+      <c r="K11" s="288" t="s">
         <v>175</v>
       </c>
       <c r="L11" s="52" t="s">
@@ -9495,8 +9501,8 @@
   </sheetPr>
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -9615,18 +9621,40 @@
       <c r="B3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K3" s="5"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
+      <c r="L3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="P3" s="13"/>
       <c r="Q3" s="13"/>
     </row>
@@ -9635,18 +9663,40 @@
         <v>22</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
+      <c r="C4" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>119</v>
+      </c>
       <c r="K4" s="5"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
+      <c r="L4" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="N4" s="23" t="s">
+        <v>126</v>
+      </c>
       <c r="P4" s="13"/>
       <c r="Q4" s="13"/>
     </row>
@@ -9729,20 +9779,20 @@
     <row r="9" spans="1:17">
       <c r="A9" s="31"/>
       <c r="B9" s="34"/>
-      <c r="C9" s="288" t="s">
+      <c r="C9" s="289" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="288"/>
-      <c r="E9" s="288"/>
-      <c r="F9" s="288"/>
-      <c r="G9" s="288"/>
-      <c r="H9" s="288" t="s">
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="288"/>
-      <c r="J9" s="288"/>
-      <c r="K9" s="288"/>
-      <c r="L9" s="288"/>
+      <c r="I9" s="289"/>
+      <c r="J9" s="289"/>
+      <c r="K9" s="289"/>
+      <c r="L9" s="289"/>
       <c r="M9" s="6" t="s">
         <v>26</v>
       </c>
@@ -9854,18 +9904,42 @@
       <c r="B12" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="O12" s="18"/>
       <c r="P12" s="13"/>
       <c r="Q12" s="13"/>
@@ -9875,18 +9949,42 @@
         <v>22</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
+      <c r="C13" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="K13" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="L13" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="M13" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="N13" s="23" t="s">
+        <v>126</v>
+      </c>
       <c r="O13" s="29"/>
       <c r="P13" s="13"/>
       <c r="Q13" s="13"/>
@@ -9920,8 +10018,8 @@
   </sheetPr>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView topLeftCell="E16" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:K19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -10017,31 +10115,31 @@
         <v>34</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>35</v>
+        <v>182</v>
       </c>
       <c r="F3" s="42" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="42" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H3" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="105" t="s">
-        <v>20</v>
+      <c r="I3" s="42" t="s">
+        <v>40</v>
       </c>
       <c r="J3" s="42" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="K3" s="42" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="27" customHeight="1">
@@ -10050,31 +10148,31 @@
       </c>
       <c r="B4" s="42"/>
       <c r="C4" s="23" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="F4" s="23" t="s">
         <v>119</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="H4" s="23" t="s">
         <v>119</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="K4" s="23" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -10134,15 +10232,15 @@
         <v>23</v>
       </c>
       <c r="B9" s="34"/>
-      <c r="C9" s="288"/>
-      <c r="D9" s="288"/>
-      <c r="E9" s="288"/>
-      <c r="F9" s="288" t="s">
+      <c r="C9" s="289"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="288"/>
-      <c r="H9" s="288"/>
-      <c r="I9" s="288"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
+      <c r="I9" s="289"/>
       <c r="J9" s="6" t="s">
         <v>26</v>
       </c>
@@ -10228,31 +10326,31 @@
         <v>34</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>35</v>
+        <v>182</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H12" s="42" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I12" s="42" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J12" s="42" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="K12" s="42" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="21.75" customHeight="1">
@@ -10261,31 +10359,31 @@
       </c>
       <c r="B13" s="42"/>
       <c r="C13" s="23" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="K13" s="23" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -10345,15 +10443,15 @@
         <v>37</v>
       </c>
       <c r="B18" s="34"/>
-      <c r="C18" s="288"/>
-      <c r="D18" s="288"/>
-      <c r="E18" s="288"/>
-      <c r="F18" s="288" t="s">
+      <c r="C18" s="289"/>
+      <c r="D18" s="289"/>
+      <c r="E18" s="289"/>
+      <c r="F18" s="289" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="288"/>
-      <c r="H18" s="288"/>
-      <c r="I18" s="288"/>
+      <c r="G18" s="289"/>
+      <c r="H18" s="289"/>
+      <c r="I18" s="289"/>
       <c r="J18" s="6" t="s">
         <v>26</v>
       </c>
@@ -10875,18 +10973,18 @@
     <row r="9" spans="1:18" ht="15.75">
       <c r="A9" s="63"/>
       <c r="B9" s="53"/>
-      <c r="C9" s="290"/>
-      <c r="D9" s="290"/>
-      <c r="E9" s="290"/>
-      <c r="F9" s="290" t="s">
+      <c r="C9" s="291"/>
+      <c r="D9" s="291"/>
+      <c r="E9" s="291"/>
+      <c r="F9" s="291" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="290"/>
-      <c r="H9" s="290"/>
-      <c r="I9" s="290"/>
-      <c r="J9" s="290"/>
-      <c r="K9" s="290"/>
-      <c r="L9" s="290"/>
+      <c r="G9" s="291"/>
+      <c r="H9" s="291"/>
+      <c r="I9" s="291"/>
+      <c r="J9" s="291"/>
+      <c r="K9" s="291"/>
+      <c r="L9" s="291"/>
       <c r="M9" s="54" t="s">
         <v>26</v>
       </c>
@@ -11181,18 +11279,18 @@
         <v>37</v>
       </c>
       <c r="B18" s="53"/>
-      <c r="C18" s="290"/>
-      <c r="D18" s="290"/>
-      <c r="E18" s="290"/>
-      <c r="F18" s="290" t="s">
+      <c r="C18" s="291"/>
+      <c r="D18" s="291"/>
+      <c r="E18" s="291"/>
+      <c r="F18" s="291" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="290"/>
-      <c r="H18" s="290"/>
-      <c r="I18" s="290"/>
-      <c r="J18" s="290"/>
-      <c r="K18" s="290"/>
-      <c r="L18" s="290"/>
+      <c r="G18" s="291"/>
+      <c r="H18" s="291"/>
+      <c r="I18" s="291"/>
+      <c r="J18" s="291"/>
+      <c r="K18" s="291"/>
+      <c r="L18" s="291"/>
       <c r="M18" s="54"/>
       <c r="N18" s="52"/>
       <c r="O18" s="169"/>
@@ -11483,18 +11581,18 @@
         <v>49</v>
       </c>
       <c r="B27" s="53"/>
-      <c r="C27" s="290"/>
-      <c r="D27" s="290"/>
-      <c r="E27" s="290"/>
-      <c r="F27" s="290" t="s">
+      <c r="C27" s="291"/>
+      <c r="D27" s="291"/>
+      <c r="E27" s="291"/>
+      <c r="F27" s="291" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="290"/>
-      <c r="H27" s="290"/>
-      <c r="I27" s="290"/>
-      <c r="J27" s="290"/>
-      <c r="K27" s="290"/>
-      <c r="L27" s="291"/>
+      <c r="G27" s="291"/>
+      <c r="H27" s="291"/>
+      <c r="I27" s="291"/>
+      <c r="J27" s="291"/>
+      <c r="K27" s="291"/>
+      <c r="L27" s="292"/>
       <c r="M27" s="171"/>
       <c r="N27" s="52"/>
       <c r="O27" s="169"/>
@@ -12108,16 +12206,16 @@
         <v>23</v>
       </c>
       <c r="B9" s="34"/>
-      <c r="C9" s="288"/>
-      <c r="D9" s="288"/>
-      <c r="E9" s="288"/>
-      <c r="F9" s="288" t="s">
+      <c r="C9" s="289"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="288"/>
-      <c r="H9" s="288"/>
-      <c r="I9" s="288"/>
-      <c r="J9" s="288"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
+      <c r="I9" s="289"/>
+      <c r="J9" s="289"/>
       <c r="K9" s="28" t="s">
         <v>51</v>
       </c>
@@ -12331,16 +12429,16 @@
         <v>37</v>
       </c>
       <c r="B18" s="34"/>
-      <c r="C18" s="288"/>
-      <c r="D18" s="288"/>
-      <c r="E18" s="288"/>
-      <c r="F18" s="288" t="s">
+      <c r="C18" s="289"/>
+      <c r="D18" s="289"/>
+      <c r="E18" s="289"/>
+      <c r="F18" s="289" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="288"/>
-      <c r="H18" s="288"/>
-      <c r="I18" s="288"/>
-      <c r="J18" s="288"/>
+      <c r="G18" s="289"/>
+      <c r="H18" s="289"/>
+      <c r="I18" s="289"/>
+      <c r="J18" s="289"/>
       <c r="K18" s="28" t="s">
         <v>51</v>
       </c>
@@ -12781,15 +12879,15 @@
         <v>23</v>
       </c>
       <c r="B9" s="34"/>
-      <c r="C9" s="288"/>
-      <c r="D9" s="288"/>
-      <c r="E9" s="288"/>
-      <c r="F9" s="288" t="s">
+      <c r="C9" s="289"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="288"/>
-      <c r="H9" s="288"/>
-      <c r="I9" s="288"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
+      <c r="I9" s="289"/>
       <c r="J9" s="6" t="s">
         <v>51</v>
       </c>
@@ -12991,15 +13089,15 @@
         <v>37</v>
       </c>
       <c r="B18" s="34"/>
-      <c r="C18" s="288"/>
-      <c r="D18" s="288"/>
-      <c r="E18" s="288"/>
-      <c r="F18" s="288" t="s">
+      <c r="C18" s="289"/>
+      <c r="D18" s="289"/>
+      <c r="E18" s="289"/>
+      <c r="F18" s="289" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="288"/>
-      <c r="H18" s="288"/>
-      <c r="I18" s="288"/>
+      <c r="G18" s="289"/>
+      <c r="H18" s="289"/>
+      <c r="I18" s="289"/>
       <c r="J18" s="6" t="s">
         <v>51</v>
       </c>
@@ -13480,15 +13578,15 @@
         <v>23</v>
       </c>
       <c r="B9" s="34"/>
-      <c r="C9" s="288"/>
-      <c r="D9" s="288"/>
-      <c r="E9" s="288"/>
-      <c r="F9" s="288" t="s">
+      <c r="C9" s="289"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="288"/>
-      <c r="H9" s="288"/>
-      <c r="I9" s="288"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
+      <c r="I9" s="289"/>
       <c r="J9" s="6" t="s">
         <v>27</v>
       </c>
@@ -13710,20 +13808,20 @@
         <v>37</v>
       </c>
       <c r="B18" s="34"/>
-      <c r="C18" s="288"/>
-      <c r="D18" s="288"/>
-      <c r="E18" s="288"/>
-      <c r="F18" s="288" t="s">
+      <c r="C18" s="289"/>
+      <c r="D18" s="289"/>
+      <c r="E18" s="289"/>
+      <c r="F18" s="289" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="288"/>
-      <c r="H18" s="288"/>
-      <c r="I18" s="288"/>
+      <c r="G18" s="289"/>
+      <c r="H18" s="289"/>
+      <c r="I18" s="289"/>
       <c r="J18" s="89"/>
-      <c r="K18" s="293" t="s">
+      <c r="K18" s="294" t="s">
         <v>73</v>
       </c>
-      <c r="L18" s="294"/>
+      <c r="L18" s="295"/>
       <c r="M18" s="218"/>
       <c r="N18" s="113"/>
       <c r="O18" s="107"/>
@@ -13965,19 +14063,19 @@
         <v>74</v>
       </c>
       <c r="B27" s="34"/>
-      <c r="C27" s="288"/>
-      <c r="D27" s="288"/>
-      <c r="E27" s="288"/>
-      <c r="F27" s="288" t="s">
+      <c r="C27" s="289"/>
+      <c r="D27" s="289"/>
+      <c r="E27" s="289"/>
+      <c r="F27" s="289" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="288"/>
-      <c r="H27" s="288"/>
-      <c r="I27" s="288"/>
-      <c r="J27" s="292" t="s">
+      <c r="G27" s="289"/>
+      <c r="H27" s="289"/>
+      <c r="I27" s="289"/>
+      <c r="J27" s="293" t="s">
         <v>73</v>
       </c>
-      <c r="K27" s="292"/>
+      <c r="K27" s="293"/>
       <c r="L27" s="86"/>
       <c r="M27" s="216"/>
       <c r="N27" s="225" t="s">
@@ -14447,13 +14545,13 @@
         <v>23</v>
       </c>
       <c r="B9" s="135"/>
-      <c r="C9" s="295"/>
-      <c r="D9" s="295"/>
-      <c r="E9" s="297" t="s">
+      <c r="C9" s="296"/>
+      <c r="D9" s="296"/>
+      <c r="E9" s="298" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="297"/>
-      <c r="G9" s="297"/>
+      <c r="F9" s="298"/>
+      <c r="G9" s="298"/>
       <c r="H9" s="206"/>
       <c r="I9" s="206"/>
       <c r="J9" s="206"/>
@@ -14744,8 +14842,8 @@
         <v>37</v>
       </c>
       <c r="B18" s="135"/>
-      <c r="C18" s="295"/>
-      <c r="D18" s="295"/>
+      <c r="C18" s="296"/>
+      <c r="D18" s="296"/>
       <c r="E18" s="141" t="s">
         <v>25</v>
       </c>
@@ -15039,20 +15137,20 @@
         <v>49</v>
       </c>
       <c r="B27" s="135"/>
-      <c r="C27" s="295"/>
-      <c r="D27" s="295"/>
-      <c r="E27" s="295" t="s">
+      <c r="C27" s="296"/>
+      <c r="D27" s="296"/>
+      <c r="E27" s="296" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="295"/>
-      <c r="G27" s="295"/>
-      <c r="H27" s="295"/>
-      <c r="I27" s="295"/>
-      <c r="J27" s="295"/>
-      <c r="K27" s="295"/>
+      <c r="F27" s="296"/>
+      <c r="G27" s="296"/>
+      <c r="H27" s="296"/>
+      <c r="I27" s="296"/>
+      <c r="J27" s="296"/>
+      <c r="K27" s="296"/>
       <c r="L27" s="201"/>
-      <c r="M27" s="296"/>
-      <c r="N27" s="296"/>
+      <c r="M27" s="297"/>
+      <c r="N27" s="297"/>
       <c r="O27" s="129"/>
       <c r="P27" s="129"/>
       <c r="Q27" s="123"/>

--- a/PayrollProject/OutPutTestResult/Court order Scenarios Test result.xlsx
+++ b/PayrollProject/OutPutTestResult/Court order Scenarios Test result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\git\24-7PeopleXCDPayroll\PayrollProject\OutPutTestResult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFA7AF7-1D2E-43A5-AB0D-124A57EC3AC6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF82BFBC-D149-4C27-BD77-3E2DD4274ACF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="7275" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="7275" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AEO1971civildebt" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2527" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2461" uniqueCount="183">
   <si>
     <t>ColumnHeading</t>
   </si>
@@ -9497,12 +9497,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
-    <tabColor rgb="FF00B050"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -9645,7 +9645,9 @@
       <c r="J3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="5"/>
+      <c r="K3" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="L3" s="5" t="s">
         <v>40</v>
       </c>
@@ -9663,38 +9665,40 @@
         <v>22</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="287" t="s">
         <v>126</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="287" t="s">
         <v>126</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="287" t="s">
         <v>126</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="287" t="s">
         <v>126</v>
       </c>
       <c r="H4" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="287" t="s">
         <v>126</v>
       </c>
       <c r="J4" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="23" t="s">
+      <c r="K4" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="L4" s="287" t="s">
         <v>126</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="287" t="s">
         <v>126</v>
       </c>
-      <c r="N4" s="23" t="s">
+      <c r="N4" s="287" t="s">
         <v>126</v>
       </c>
       <c r="P4" s="13"/>
@@ -9949,40 +9953,40 @@
         <v>22</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="287" t="s">
         <v>126</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="287" t="s">
         <v>126</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="287" t="s">
         <v>126</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="287" t="s">
         <v>126</v>
       </c>
       <c r="H13" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="I13" s="23" t="s">
+      <c r="I13" s="287" t="s">
         <v>126</v>
       </c>
       <c r="J13" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="K13" s="23" t="s">
+      <c r="K13" s="287" t="s">
         <v>126</v>
       </c>
-      <c r="L13" s="23" t="s">
+      <c r="L13" s="287" t="s">
         <v>126</v>
       </c>
-      <c r="M13" s="23" t="s">
+      <c r="M13" s="287" t="s">
         <v>126</v>
       </c>
-      <c r="N13" s="23" t="s">
+      <c r="N13" s="287" t="s">
         <v>126</v>
       </c>
       <c r="O13" s="29"/>
@@ -10014,12 +10018,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
-    <tabColor rgb="FF00B050"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -10147,31 +10151,31 @@
         <v>22</v>
       </c>
       <c r="B4" s="42"/>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="287" t="s">
         <v>126</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="287" t="s">
         <v>126</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="287" t="s">
         <v>126</v>
       </c>
       <c r="F4" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="287" t="s">
         <v>126</v>
       </c>
       <c r="H4" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="287" t="s">
         <v>126</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="287" t="s">
         <v>126</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="287" t="s">
         <v>126</v>
       </c>
     </row>
@@ -10358,31 +10362,31 @@
         <v>22</v>
       </c>
       <c r="B13" s="42"/>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="287" t="s">
         <v>126</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="287" t="s">
         <v>126</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="287" t="s">
         <v>126</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="287" t="s">
         <v>126</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="287" t="s">
         <v>126</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="287" t="s">
         <v>126</v>
       </c>
-      <c r="I13" s="23" t="s">
+      <c r="I13" s="287" t="s">
         <v>126</v>
       </c>
-      <c r="J13" s="23" t="s">
+      <c r="J13" s="287" t="s">
         <v>126</v>
       </c>
-      <c r="K13" s="23" t="s">
+      <c r="K13" s="287" t="s">
         <v>126</v>
       </c>
     </row>
@@ -10537,31 +10541,31 @@
         <v>34</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D21" s="42" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>35</v>
+        <v>182</v>
       </c>
       <c r="F21" s="42" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="G21" s="42" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H21" s="42" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="I21" s="42" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J21" s="42" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="K21" s="42" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="25.5" customHeight="1">
@@ -10569,32 +10573,32 @@
         <v>22</v>
       </c>
       <c r="B22" s="42"/>
-      <c r="C22" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="H22" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="I22" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="J22" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="K22" s="23" t="s">
-        <v>119</v>
+      <c r="C22" s="287" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" s="287" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="287" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="287" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="287" t="s">
+        <v>126</v>
+      </c>
+      <c r="H22" s="287" t="s">
+        <v>126</v>
+      </c>
+      <c r="I22" s="287" t="s">
+        <v>126</v>
+      </c>
+      <c r="J22" s="287" t="s">
+        <v>126</v>
+      </c>
+      <c r="K22" s="287" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -10668,8 +10672,8 @@
   </sheetPr>
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView topLeftCell="H7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -10800,37 +10804,37 @@
         <v>38</v>
       </c>
       <c r="C3" s="56" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D3" s="56" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E3" s="56" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F3" s="56" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="56" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H3" s="56" t="s">
         <v>30</v>
       </c>
       <c r="I3" s="56" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="J3" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="54" t="s">
-        <v>20</v>
-      </c>
       <c r="M3" s="54" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="N3" s="54" t="s">
         <v>40</v>
@@ -10848,37 +10852,37 @@
       </c>
       <c r="B4" s="57"/>
       <c r="C4" s="59" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D4" s="59" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E4" s="59" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="F4" s="59" t="s">
         <v>119</v>
       </c>
       <c r="G4" s="59" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="H4" s="59" t="s">
         <v>119</v>
       </c>
       <c r="I4" s="59" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="J4" s="59" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="K4" s="56" t="s">
         <v>126</v>
       </c>
       <c r="L4" s="170" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M4" s="170" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="N4" s="170" t="s">
         <v>126</v>
@@ -11103,42 +11107,18 @@
       <c r="B12" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="J12" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="N12" s="54" t="s">
-        <v>41</v>
-      </c>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
       <c r="O12" s="175" t="s">
         <v>100</v>
       </c>
@@ -11151,42 +11131,18 @@
         <v>22</v>
       </c>
       <c r="B13" s="57"/>
-      <c r="C13" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="D13" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="E13" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="F13" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="G13" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="H13" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="I13" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="J13" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="K13" s="56" t="s">
-        <v>126</v>
-      </c>
-      <c r="L13" s="170" t="s">
-        <v>119</v>
-      </c>
-      <c r="M13" s="170" t="s">
-        <v>119</v>
-      </c>
-      <c r="N13" s="170" t="s">
-        <v>119</v>
-      </c>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="170"/>
+      <c r="M13" s="170"/>
+      <c r="N13" s="170"/>
       <c r="O13" s="176" t="s">
         <v>100</v>
       </c>
@@ -11405,45 +11361,23 @@
       <c r="B21" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="I21" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="K21" s="56" t="s">
-        <v>15</v>
-      </c>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
       <c r="L21" s="54" t="s">
         <v>127</v>
       </c>
       <c r="M21" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="N21" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="O21" s="169" t="s">
-        <v>46</v>
-      </c>
+      <c r="N21" s="54"/>
+      <c r="O21" s="169"/>
       <c r="P21" s="49"/>
       <c r="Q21" s="49"/>
       <c r="R21" s="49"/>
@@ -11453,45 +11387,23 @@
         <v>22</v>
       </c>
       <c r="B22" s="57"/>
-      <c r="C22" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="D22" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="E22" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="F22" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="G22" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="H22" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="I22" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="J22" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="K22" s="56" t="s">
-        <v>126</v>
-      </c>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="56"/>
       <c r="L22" s="54" t="s">
         <v>127</v>
       </c>
       <c r="M22" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="N22" s="170" t="s">
-        <v>119</v>
-      </c>
-      <c r="O22" s="169" t="s">
-        <v>126</v>
-      </c>
+      <c r="N22" s="170"/>
+      <c r="O22" s="169"/>
       <c r="P22" s="49"/>
       <c r="Q22" s="49"/>
       <c r="R22" s="49"/>
@@ -11707,45 +11619,23 @@
       <c r="B30" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="F30" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="H30" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="I30" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="J30" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="K30" s="56" t="s">
-        <v>15</v>
-      </c>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
       <c r="L30" s="54" t="s">
         <v>127</v>
       </c>
       <c r="M30" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="N30" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="O30" s="169" t="s">
-        <v>36</v>
-      </c>
+      <c r="N30" s="54"/>
+      <c r="O30" s="169"/>
       <c r="P30" s="49"/>
       <c r="Q30" s="49"/>
       <c r="R30" s="49"/>
@@ -11755,45 +11645,23 @@
         <v>22</v>
       </c>
       <c r="B31" s="57"/>
-      <c r="C31" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="D31" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="E31" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="F31" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="G31" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="H31" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="I31" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="J31" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="K31" s="59" t="s">
-        <v>119</v>
-      </c>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
       <c r="L31" s="54" t="s">
         <v>127</v>
       </c>
       <c r="M31" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="N31" s="170" t="s">
-        <v>119</v>
-      </c>
-      <c r="O31" s="169" t="s">
-        <v>126</v>
-      </c>
+      <c r="N31" s="170"/>
+      <c r="O31" s="169"/>
       <c r="P31" s="49"/>
       <c r="Q31" s="49" t="s">
         <v>119</v>

--- a/PayrollProject/OutPutTestResult/Court order Scenarios Test result.xlsx
+++ b/PayrollProject/OutPutTestResult/Court order Scenarios Test result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\git\24-7PeopleXCDPayroll\PayrollProject\OutPutTestResult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF82BFBC-D149-4C27-BD77-3E2DD4274ACF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAACC9CB-9524-4816-88AE-9FF4C95E6BA2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="7275" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3780" windowWidth="19095" windowHeight="7275" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AEO1971civildebt" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2461" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2465" uniqueCount="184">
   <si>
     <t>ColumnHeading</t>
   </si>
@@ -584,6 +584,9 @@
   </si>
   <si>
     <t>GBP 1,038.78</t>
+  </si>
+  <si>
+    <t>GBP 2,650.00</t>
   </si>
 </sst>
 </file>
@@ -1124,7 +1127,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="300">
+  <cellXfs count="303">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1547,7 +1550,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="42" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1852,6 +1854,10 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="31" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2232,7 +2238,7 @@
       <c r="M1" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="181" t="s">
+      <c r="N1" s="180" t="s">
         <v>12</v>
       </c>
       <c r="O1" s="18"/>
@@ -2281,10 +2287,10 @@
       <c r="M2" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="182" t="s">
+      <c r="N2" s="181" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="180"/>
+      <c r="O2" s="179"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="36"/>
       <c r="R2" s="36"/>
@@ -2330,10 +2336,10 @@
       <c r="M3" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="182" t="s">
+      <c r="N3" s="181" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="180"/>
+      <c r="O3" s="179"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="36"/>
       <c r="R3" s="36"/>
@@ -2377,10 +2383,10 @@
       <c r="M4" s="98" t="s">
         <v>119</v>
       </c>
-      <c r="N4" s="183" t="s">
-        <v>119</v>
-      </c>
-      <c r="O4" s="180"/>
+      <c r="N4" s="182" t="s">
+        <v>119</v>
+      </c>
+      <c r="O4" s="179"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="36"/>
       <c r="R4" s="36"/>
@@ -2475,20 +2481,20 @@
         <v>23</v>
       </c>
       <c r="B9" s="34"/>
-      <c r="C9" s="289" t="s">
+      <c r="C9" s="292" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="289"/>
-      <c r="H9" s="289" t="s">
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="292"/>
+      <c r="H9" s="292" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="289"/>
-      <c r="J9" s="289"/>
-      <c r="K9" s="289"/>
-      <c r="L9" s="289"/>
+      <c r="I9" s="292"/>
+      <c r="J9" s="292"/>
+      <c r="K9" s="292"/>
+      <c r="L9" s="292"/>
       <c r="M9" s="6" t="s">
         <v>26</v>
       </c>
@@ -2581,7 +2587,7 @@
       <c r="J11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="185" t="s">
+      <c r="K11" s="184" t="s">
         <v>175</v>
       </c>
       <c r="L11" s="5" t="s">
@@ -2590,7 +2596,7 @@
       <c r="M11" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="N11" s="184" t="s">
+      <c r="N11" s="183" t="s">
         <v>29</v>
       </c>
       <c r="O11" s="18"/>
@@ -2649,7 +2655,7 @@
     <row r="13" spans="1:19" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="287" t="s">
+      <c r="C13" s="286" t="s">
         <v>126</v>
       </c>
       <c r="D13" s="23" t="s">
@@ -2661,13 +2667,13 @@
       <c r="F13" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="G13" s="287" t="s">
+      <c r="G13" s="286" t="s">
         <v>126</v>
       </c>
       <c r="H13" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="I13" s="287" t="s">
+      <c r="I13" s="286" t="s">
         <v>126</v>
       </c>
       <c r="J13" s="23" t="s">
@@ -2959,12 +2965,12 @@
         <v>23</v>
       </c>
       <c r="B9" s="34"/>
-      <c r="C9" s="289"/>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="214"/>
-      <c r="G9" s="214"/>
-      <c r="H9" s="214"/>
+      <c r="C9" s="292"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="213"/>
+      <c r="G9" s="213"/>
+      <c r="H9" s="213"/>
       <c r="I9" s="150" t="s">
         <v>27</v>
       </c>
@@ -3210,9 +3216,9 @@
         <v>37</v>
       </c>
       <c r="B18" s="34"/>
-      <c r="C18" s="289"/>
-      <c r="D18" s="289"/>
-      <c r="E18" s="289"/>
+      <c r="C18" s="292"/>
+      <c r="D18" s="292"/>
+      <c r="E18" s="292"/>
       <c r="F18" s="149"/>
       <c r="G18" s="149"/>
       <c r="H18" s="149"/>
@@ -3464,12 +3470,12 @@
         <v>49</v>
       </c>
       <c r="B27" s="34"/>
-      <c r="C27" s="289"/>
-      <c r="D27" s="289"/>
-      <c r="E27" s="289"/>
-      <c r="F27" s="214"/>
-      <c r="G27" s="214"/>
-      <c r="H27" s="214"/>
+      <c r="C27" s="292"/>
+      <c r="D27" s="292"/>
+      <c r="E27" s="292"/>
+      <c r="F27" s="213"/>
+      <c r="G27" s="213"/>
+      <c r="H27" s="213"/>
       <c r="I27" s="150" t="s">
         <v>27</v>
       </c>
@@ -3715,7 +3721,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" ht="48" customHeight="1">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="209" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="118" t="s">
@@ -3724,13 +3730,13 @@
       <c r="C1" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="209" t="s">
+      <c r="D1" s="208" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="207" t="s">
+      <c r="E1" s="206" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="207" t="s">
+      <c r="F1" s="206" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="7" t="s">
@@ -3760,40 +3766,40 @@
       <c r="S1" s="3"/>
     </row>
     <row r="2" spans="1:20" s="1" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A2" s="210" t="s">
+      <c r="A2" s="209" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="211" t="s">
+      <c r="C2" s="210" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="211" t="s">
+      <c r="D2" s="210" t="s">
         <v>131</v>
       </c>
-      <c r="E2" s="211" t="s">
+      <c r="E2" s="210" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="211" t="s">
+      <c r="F2" s="210" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="211" t="s">
+      <c r="G2" s="210" t="s">
         <v>86</v>
       </c>
-      <c r="H2" s="211" t="s">
+      <c r="H2" s="210" t="s">
         <v>130</v>
       </c>
-      <c r="I2" s="211" t="s">
+      <c r="I2" s="210" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="212" t="s">
+      <c r="J2" s="211" t="s">
         <v>136</v>
       </c>
-      <c r="K2" s="211" t="s">
+      <c r="K2" s="210" t="s">
         <v>130</v>
       </c>
-      <c r="L2" s="211" t="s">
+      <c r="L2" s="210" t="s">
         <v>130</v>
       </c>
       <c r="M2" s="3"/>
@@ -3805,40 +3811,40 @@
       <c r="S2" s="3"/>
     </row>
     <row r="3" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="210" t="s">
+      <c r="A3" s="209" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="211" t="s">
+      <c r="C3" s="210" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="211" t="s">
+      <c r="D3" s="210" t="s">
         <v>131</v>
       </c>
-      <c r="E3" s="211" t="s">
+      <c r="E3" s="210" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="211" t="s">
+      <c r="F3" s="210" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="211" t="s">
+      <c r="G3" s="210" t="s">
         <v>86</v>
       </c>
-      <c r="H3" s="211" t="s">
+      <c r="H3" s="210" t="s">
         <v>130</v>
       </c>
-      <c r="I3" s="211" t="s">
+      <c r="I3" s="210" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="212" t="s">
+      <c r="J3" s="211" t="s">
         <v>138</v>
       </c>
-      <c r="K3" s="211" t="s">
+      <c r="K3" s="210" t="s">
         <v>130</v>
       </c>
-      <c r="L3" s="211" t="s">
+      <c r="L3" s="210" t="s">
         <v>130</v>
       </c>
       <c r="M3" s="3"/>
@@ -3851,38 +3857,38 @@
       <c r="T3" s="19"/>
     </row>
     <row r="4" spans="1:20" s="1" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A4" s="210" t="s">
+      <c r="A4" s="209" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="210"/>
-      <c r="C4" s="211" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" s="211" t="s">
+      <c r="B4" s="209"/>
+      <c r="C4" s="210" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="210" t="s">
         <v>119</v>
       </c>
       <c r="E4" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="F4" s="211" t="s">
+      <c r="F4" s="210" t="s">
         <v>119</v>
       </c>
       <c r="G4" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="H4" s="211" t="s">
-        <v>119</v>
-      </c>
-      <c r="I4" s="211" t="s">
-        <v>119</v>
-      </c>
-      <c r="J4" s="211" t="s">
+      <c r="H4" s="210" t="s">
+        <v>119</v>
+      </c>
+      <c r="I4" s="210" t="s">
+        <v>119</v>
+      </c>
+      <c r="J4" s="210" t="s">
         <v>126</v>
       </c>
-      <c r="K4" s="211" t="s">
-        <v>119</v>
-      </c>
-      <c r="L4" s="211" t="s">
+      <c r="K4" s="210" t="s">
+        <v>119</v>
+      </c>
+      <c r="L4" s="210" t="s">
         <v>119</v>
       </c>
       <c r="M4" s="3"/>
@@ -3983,18 +3989,18 @@
         <v>23</v>
       </c>
       <c r="B9" s="34"/>
-      <c r="C9" s="289"/>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="289"/>
-      <c r="H9" s="289" t="s">
+      <c r="C9" s="292"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="292"/>
+      <c r="H9" s="292" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="289"/>
-      <c r="J9" s="289"/>
-      <c r="K9" s="289"/>
-      <c r="L9" s="208" t="s">
+      <c r="I9" s="292"/>
+      <c r="J9" s="292"/>
+      <c r="K9" s="292"/>
+      <c r="L9" s="207" t="s">
         <v>51</v>
       </c>
       <c r="M9" s="3"/>
@@ -4006,7 +4012,7 @@
       <c r="S9" s="3"/>
     </row>
     <row r="10" spans="1:20" s="1" customFormat="1" ht="48" customHeight="1">
-      <c r="A10" s="210" t="s">
+      <c r="A10" s="209" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="118" t="s">
@@ -4015,13 +4021,13 @@
       <c r="C10" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="209" t="s">
+      <c r="D10" s="208" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="207" t="s">
+      <c r="E10" s="206" t="s">
         <v>112</v>
       </c>
-      <c r="F10" s="207" t="s">
+      <c r="F10" s="206" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="7" t="s">
@@ -4051,40 +4057,40 @@
       <c r="S10" s="3"/>
     </row>
     <row r="11" spans="1:20" s="1" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A11" s="210" t="s">
+      <c r="A11" s="209" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="211" t="s">
+      <c r="C11" s="210" t="s">
         <v>132</v>
       </c>
-      <c r="D11" s="211" t="s">
+      <c r="D11" s="210" t="s">
         <v>134</v>
       </c>
-      <c r="E11" s="211" t="s">
+      <c r="E11" s="210" t="s">
         <v>114</v>
       </c>
-      <c r="F11" s="211" t="s">
+      <c r="F11" s="210" t="s">
         <v>133</v>
       </c>
-      <c r="G11" s="211" t="s">
+      <c r="G11" s="210" t="s">
         <v>86</v>
       </c>
-      <c r="H11" s="211" t="s">
+      <c r="H11" s="210" t="s">
         <v>132</v>
       </c>
-      <c r="I11" s="211" t="s">
+      <c r="I11" s="210" t="s">
         <v>135</v>
       </c>
-      <c r="J11" s="212" t="s">
+      <c r="J11" s="211" t="s">
         <v>137</v>
       </c>
-      <c r="K11" s="211" t="s">
+      <c r="K11" s="210" t="s">
         <v>132</v>
       </c>
-      <c r="L11" s="211" t="s">
+      <c r="L11" s="210" t="s">
         <v>132</v>
       </c>
       <c r="M11" s="3"/>
@@ -4096,40 +4102,40 @@
       <c r="S11" s="3"/>
     </row>
     <row r="12" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A12" s="210" t="s">
+      <c r="A12" s="209" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="211" t="s">
+      <c r="C12" s="210" t="s">
         <v>132</v>
       </c>
-      <c r="D12" s="211" t="s">
+      <c r="D12" s="210" t="s">
         <v>134</v>
       </c>
-      <c r="E12" s="211" t="s">
+      <c r="E12" s="210" t="s">
         <v>114</v>
       </c>
-      <c r="F12" s="211" t="s">
+      <c r="F12" s="210" t="s">
         <v>133</v>
       </c>
-      <c r="G12" s="211" t="s">
+      <c r="G12" s="210" t="s">
         <v>86</v>
       </c>
-      <c r="H12" s="211" t="s">
+      <c r="H12" s="210" t="s">
         <v>132</v>
       </c>
-      <c r="I12" s="211" t="s">
+      <c r="I12" s="210" t="s">
         <v>135</v>
       </c>
-      <c r="J12" s="213" t="s">
+      <c r="J12" s="212" t="s">
         <v>142</v>
       </c>
-      <c r="K12" s="211" t="s">
+      <c r="K12" s="210" t="s">
         <v>132</v>
       </c>
-      <c r="L12" s="211" t="s">
+      <c r="L12" s="210" t="s">
         <v>132</v>
       </c>
       <c r="M12" s="3"/>
@@ -4142,38 +4148,38 @@
       <c r="T12" s="19"/>
     </row>
     <row r="13" spans="1:20" s="1" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A13" s="210" t="s">
+      <c r="A13" s="209" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="210"/>
-      <c r="C13" s="211" t="s">
-        <v>119</v>
-      </c>
-      <c r="D13" s="211" t="s">
-        <v>119</v>
-      </c>
-      <c r="E13" s="211" t="s">
-        <v>119</v>
-      </c>
-      <c r="F13" s="211" t="s">
-        <v>119</v>
-      </c>
-      <c r="G13" s="211" t="s">
-        <v>119</v>
-      </c>
-      <c r="H13" s="211" t="s">
-        <v>119</v>
-      </c>
-      <c r="I13" s="211" t="s">
-        <v>119</v>
-      </c>
-      <c r="J13" s="211" t="s">
+      <c r="B13" s="209"/>
+      <c r="C13" s="210" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="210" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" s="210" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" s="210" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" s="210" t="s">
+        <v>119</v>
+      </c>
+      <c r="H13" s="210" t="s">
+        <v>119</v>
+      </c>
+      <c r="I13" s="210" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" s="210" t="s">
         <v>126</v>
       </c>
-      <c r="K13" s="211" t="s">
-        <v>119</v>
-      </c>
-      <c r="L13" s="211" t="s">
+      <c r="K13" s="210" t="s">
+        <v>119</v>
+      </c>
+      <c r="L13" s="210" t="s">
         <v>119</v>
       </c>
       <c r="M13" s="3"/>
@@ -4274,18 +4280,18 @@
         <v>37</v>
       </c>
       <c r="B18" s="34"/>
-      <c r="C18" s="289"/>
-      <c r="D18" s="289"/>
-      <c r="E18" s="289"/>
-      <c r="F18" s="289"/>
-      <c r="G18" s="289"/>
-      <c r="H18" s="289" t="s">
+      <c r="C18" s="292"/>
+      <c r="D18" s="292"/>
+      <c r="E18" s="292"/>
+      <c r="F18" s="292"/>
+      <c r="G18" s="292"/>
+      <c r="H18" s="292" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="289"/>
-      <c r="J18" s="289"/>
-      <c r="K18" s="289"/>
-      <c r="L18" s="208" t="s">
+      <c r="I18" s="292"/>
+      <c r="J18" s="292"/>
+      <c r="K18" s="292"/>
+      <c r="L18" s="207" t="s">
         <v>51</v>
       </c>
       <c r="M18" s="3"/>
@@ -4297,7 +4303,7 @@
       <c r="S18" s="3"/>
     </row>
     <row r="19" spans="1:20" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A19" s="210" t="s">
+      <c r="A19" s="209" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="118" t="s">
@@ -4306,13 +4312,13 @@
       <c r="C19" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="209" t="s">
+      <c r="D19" s="208" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="207" t="s">
+      <c r="E19" s="206" t="s">
         <v>112</v>
       </c>
-      <c r="F19" s="207" t="s">
+      <c r="F19" s="206" t="s">
         <v>3</v>
       </c>
       <c r="G19" s="7" t="s">
@@ -4342,40 +4348,40 @@
       <c r="S19" s="3"/>
     </row>
     <row r="20" spans="1:20" s="1" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A20" s="210" t="s">
+      <c r="A20" s="209" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="C20" s="211" t="s">
+      <c r="C20" s="210" t="s">
         <v>115</v>
       </c>
-      <c r="D20" s="211" t="s">
+      <c r="D20" s="210" t="s">
         <v>116</v>
       </c>
-      <c r="E20" s="211" t="s">
+      <c r="E20" s="210" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="211" t="s">
+      <c r="F20" s="210" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="211" t="s">
+      <c r="G20" s="210" t="s">
         <v>86</v>
       </c>
-      <c r="H20" s="211" t="s">
+      <c r="H20" s="210" t="s">
         <v>115</v>
       </c>
-      <c r="I20" s="211" t="s">
+      <c r="I20" s="210" t="s">
         <v>117</v>
       </c>
-      <c r="J20" s="212" t="s">
+      <c r="J20" s="211" t="s">
         <v>118</v>
       </c>
-      <c r="K20" s="211" t="s">
+      <c r="K20" s="210" t="s">
         <v>115</v>
       </c>
-      <c r="L20" s="211" t="s">
+      <c r="L20" s="210" t="s">
         <v>115</v>
       </c>
       <c r="M20" s="3"/>
@@ -4387,40 +4393,40 @@
       <c r="S20" s="3"/>
     </row>
     <row r="21" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A21" s="210" t="s">
+      <c r="A21" s="209" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="C21" s="211" t="s">
+      <c r="C21" s="210" t="s">
         <v>115</v>
       </c>
-      <c r="D21" s="211" t="s">
+      <c r="D21" s="210" t="s">
         <v>116</v>
       </c>
-      <c r="E21" s="211" t="s">
+      <c r="E21" s="210" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="211" t="s">
+      <c r="F21" s="210" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="211" t="s">
+      <c r="G21" s="210" t="s">
         <v>86</v>
       </c>
-      <c r="H21" s="211" t="s">
+      <c r="H21" s="210" t="s">
         <v>115</v>
       </c>
-      <c r="I21" s="211" t="s">
+      <c r="I21" s="210" t="s">
         <v>117</v>
       </c>
       <c r="J21" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="K21" s="211" t="s">
+      <c r="K21" s="210" t="s">
         <v>115</v>
       </c>
-      <c r="L21" s="211" t="s">
+      <c r="L21" s="210" t="s">
         <v>115</v>
       </c>
       <c r="M21" s="3"/>
@@ -4433,38 +4439,38 @@
       <c r="T21" s="19"/>
     </row>
     <row r="22" spans="1:20" s="1" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A22" s="210" t="s">
+      <c r="A22" s="209" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="210"/>
-      <c r="C22" s="211" t="s">
-        <v>119</v>
-      </c>
-      <c r="D22" s="211" t="s">
-        <v>119</v>
-      </c>
-      <c r="E22" s="211" t="s">
-        <v>119</v>
-      </c>
-      <c r="F22" s="211" t="s">
-        <v>119</v>
-      </c>
-      <c r="G22" s="211" t="s">
-        <v>119</v>
-      </c>
-      <c r="H22" s="211" t="s">
-        <v>119</v>
-      </c>
-      <c r="I22" s="211" t="s">
-        <v>119</v>
-      </c>
-      <c r="J22" s="211" t="s">
+      <c r="B22" s="209"/>
+      <c r="C22" s="210" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="210" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="210" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22" s="210" t="s">
+        <v>119</v>
+      </c>
+      <c r="G22" s="210" t="s">
+        <v>119</v>
+      </c>
+      <c r="H22" s="210" t="s">
+        <v>119</v>
+      </c>
+      <c r="I22" s="210" t="s">
+        <v>119</v>
+      </c>
+      <c r="J22" s="210" t="s">
         <v>126</v>
       </c>
-      <c r="K22" s="211" t="s">
-        <v>119</v>
-      </c>
-      <c r="L22" s="211" t="s">
+      <c r="K22" s="210" t="s">
+        <v>119</v>
+      </c>
+      <c r="L22" s="210" t="s">
         <v>119</v>
       </c>
       <c r="M22" s="3"/>
@@ -4565,18 +4571,18 @@
         <v>49</v>
       </c>
       <c r="B27" s="34"/>
-      <c r="C27" s="289"/>
-      <c r="D27" s="289"/>
-      <c r="E27" s="289"/>
-      <c r="F27" s="289"/>
-      <c r="G27" s="289"/>
-      <c r="H27" s="289" t="s">
+      <c r="C27" s="292"/>
+      <c r="D27" s="292"/>
+      <c r="E27" s="292"/>
+      <c r="F27" s="292"/>
+      <c r="G27" s="292"/>
+      <c r="H27" s="292" t="s">
         <v>25</v>
       </c>
-      <c r="I27" s="289"/>
-      <c r="J27" s="289"/>
-      <c r="K27" s="289"/>
-      <c r="L27" s="208" t="s">
+      <c r="I27" s="292"/>
+      <c r="J27" s="292"/>
+      <c r="K27" s="292"/>
+      <c r="L27" s="207" t="s">
         <v>51</v>
       </c>
       <c r="M27" s="3"/>
@@ -4588,7 +4594,7 @@
       <c r="S27" s="3"/>
     </row>
     <row r="28" spans="1:20" s="1" customFormat="1" ht="48" customHeight="1">
-      <c r="A28" s="210" t="s">
+      <c r="A28" s="209" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="118" t="s">
@@ -4597,13 +4603,13 @@
       <c r="C28" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="209" t="s">
+      <c r="D28" s="208" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="207" t="s">
+      <c r="E28" s="206" t="s">
         <v>112</v>
       </c>
-      <c r="F28" s="207" t="s">
+      <c r="F28" s="206" t="s">
         <v>3</v>
       </c>
       <c r="G28" s="7" t="s">
@@ -4633,40 +4639,40 @@
       <c r="S28" s="3"/>
     </row>
     <row r="29" spans="1:20" s="1" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A29" s="210" t="s">
+      <c r="A29" s="209" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="C29" s="211" t="s">
+      <c r="C29" s="210" t="s">
         <v>130</v>
       </c>
-      <c r="D29" s="211" t="s">
+      <c r="D29" s="210" t="s">
         <v>131</v>
       </c>
-      <c r="E29" s="211" t="s">
+      <c r="E29" s="210" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="211" t="s">
+      <c r="F29" s="210" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="211" t="s">
+      <c r="G29" s="210" t="s">
         <v>86</v>
       </c>
-      <c r="H29" s="211" t="s">
+      <c r="H29" s="210" t="s">
         <v>130</v>
       </c>
-      <c r="I29" s="211" t="s">
+      <c r="I29" s="210" t="s">
         <v>19</v>
       </c>
-      <c r="J29" s="212" t="s">
+      <c r="J29" s="211" t="s">
         <v>136</v>
       </c>
-      <c r="K29" s="211" t="s">
+      <c r="K29" s="210" t="s">
         <v>130</v>
       </c>
-      <c r="L29" s="211" t="s">
+      <c r="L29" s="210" t="s">
         <v>130</v>
       </c>
       <c r="M29" s="3"/>
@@ -4678,40 +4684,40 @@
       <c r="S29" s="3"/>
     </row>
     <row r="30" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A30" s="210" t="s">
+      <c r="A30" s="209" t="s">
         <v>21</v>
       </c>
       <c r="B30" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="C30" s="211" t="s">
+      <c r="C30" s="210" t="s">
         <v>130</v>
       </c>
-      <c r="D30" s="211" t="s">
+      <c r="D30" s="210" t="s">
         <v>131</v>
       </c>
-      <c r="E30" s="211" t="s">
+      <c r="E30" s="210" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="211" t="s">
+      <c r="F30" s="210" t="s">
         <v>16</v>
       </c>
-      <c r="G30" s="211" t="s">
+      <c r="G30" s="210" t="s">
         <v>86</v>
       </c>
-      <c r="H30" s="211" t="s">
+      <c r="H30" s="210" t="s">
         <v>130</v>
       </c>
-      <c r="I30" s="211" t="s">
+      <c r="I30" s="210" t="s">
         <v>19</v>
       </c>
       <c r="J30" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="K30" s="211" t="s">
+      <c r="K30" s="210" t="s">
         <v>130</v>
       </c>
-      <c r="L30" s="211" t="s">
+      <c r="L30" s="210" t="s">
         <v>130</v>
       </c>
       <c r="M30" s="3"/>
@@ -4724,38 +4730,38 @@
       <c r="T30" s="19"/>
     </row>
     <row r="31" spans="1:20" s="1" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A31" s="210" t="s">
+      <c r="A31" s="209" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="210"/>
-      <c r="C31" s="211" t="s">
-        <v>119</v>
-      </c>
-      <c r="D31" s="211" t="s">
-        <v>119</v>
-      </c>
-      <c r="E31" s="211" t="s">
-        <v>119</v>
-      </c>
-      <c r="F31" s="211" t="s">
-        <v>119</v>
-      </c>
-      <c r="G31" s="211" t="s">
-        <v>119</v>
-      </c>
-      <c r="H31" s="211" t="s">
-        <v>119</v>
-      </c>
-      <c r="I31" s="211" t="s">
-        <v>119</v>
-      </c>
-      <c r="J31" s="211" t="s">
+      <c r="B31" s="209"/>
+      <c r="C31" s="210" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" s="210" t="s">
+        <v>119</v>
+      </c>
+      <c r="E31" s="210" t="s">
+        <v>119</v>
+      </c>
+      <c r="F31" s="210" t="s">
+        <v>119</v>
+      </c>
+      <c r="G31" s="210" t="s">
+        <v>119</v>
+      </c>
+      <c r="H31" s="210" t="s">
+        <v>119</v>
+      </c>
+      <c r="I31" s="210" t="s">
+        <v>119</v>
+      </c>
+      <c r="J31" s="210" t="s">
         <v>126</v>
       </c>
-      <c r="K31" s="211" t="s">
-        <v>119</v>
-      </c>
-      <c r="L31" s="211" t="s">
+      <c r="K31" s="210" t="s">
+        <v>119</v>
+      </c>
+      <c r="L31" s="210" t="s">
         <v>119</v>
       </c>
       <c r="M31" s="3"/>
@@ -5130,12 +5136,12 @@
       <c r="B9" s="34"/>
       <c r="C9" s="156"/>
       <c r="D9" s="156"/>
-      <c r="E9" s="289" t="s">
+      <c r="E9" s="292" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="289"/>
-      <c r="G9" s="289"/>
-      <c r="H9" s="289"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="292"/>
+      <c r="H9" s="292"/>
       <c r="I9" s="157" t="s">
         <v>27</v>
       </c>
@@ -5413,12 +5419,12 @@
       <c r="B18" s="34"/>
       <c r="C18" s="156"/>
       <c r="D18" s="156"/>
-      <c r="E18" s="289" t="s">
+      <c r="E18" s="292" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="289"/>
-      <c r="G18" s="289"/>
-      <c r="H18" s="289"/>
+      <c r="F18" s="292"/>
+      <c r="G18" s="292"/>
+      <c r="H18" s="292"/>
       <c r="I18" s="157" t="s">
         <v>27</v>
       </c>
@@ -5696,12 +5702,12 @@
       <c r="B27" s="34"/>
       <c r="C27" s="156"/>
       <c r="D27" s="156"/>
-      <c r="E27" s="289" t="s">
+      <c r="E27" s="292" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="289"/>
-      <c r="G27" s="289"/>
-      <c r="H27" s="289"/>
+      <c r="F27" s="292"/>
+      <c r="G27" s="292"/>
+      <c r="H27" s="292"/>
       <c r="I27" s="157" t="s">
         <v>27</v>
       </c>
@@ -5976,7 +5982,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="40.15" customHeight="1">
-      <c r="A1" s="242" t="s">
+      <c r="A1" s="241" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="54" t="s">
@@ -5985,25 +5991,25 @@
       <c r="C1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="229" t="s">
+      <c r="D1" s="228" t="s">
         <v>146</v>
       </c>
-      <c r="E1" s="230" t="s">
+      <c r="E1" s="229" t="s">
         <v>145</v>
       </c>
-      <c r="F1" s="229" t="s">
+      <c r="F1" s="228" t="s">
         <v>149</v>
       </c>
-      <c r="G1" s="230" t="s">
+      <c r="G1" s="229" t="s">
         <v>147</v>
       </c>
-      <c r="H1" s="230" t="s">
+      <c r="H1" s="229" t="s">
         <v>148</v>
       </c>
-      <c r="I1" s="229" t="s">
+      <c r="I1" s="228" t="s">
         <v>157</v>
       </c>
-      <c r="J1" s="230" t="s">
+      <c r="J1" s="229" t="s">
         <v>150</v>
       </c>
       <c r="K1" s="54" t="s">
@@ -6024,7 +6030,7 @@
       <c r="P1" s="107" t="s">
         <v>152</v>
       </c>
-      <c r="Q1" s="230" t="s">
+      <c r="Q1" s="229" t="s">
         <v>10</v>
       </c>
       <c r="R1" s="62" t="s">
@@ -6039,13 +6045,13 @@
       <c r="U1" t="s">
         <v>164</v>
       </c>
-      <c r="V1" s="180"/>
-      <c r="W1" s="180"/>
+      <c r="V1" s="179"/>
+      <c r="W1" s="179"/>
       <c r="X1" s="18"/>
-      <c r="Y1" s="180"/>
-      <c r="Z1" s="180"/>
-      <c r="AA1" s="180"/>
-      <c r="AB1" s="180"/>
+      <c r="Y1" s="179"/>
+      <c r="Z1" s="179"/>
+      <c r="AA1" s="179"/>
+      <c r="AB1" s="179"/>
     </row>
     <row r="2" spans="1:28" s="1" customFormat="1" ht="28.15" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -6054,19 +6060,19 @@
       <c r="B2" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="232" t="s">
+      <c r="C2" s="231" t="s">
         <v>41</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="232" t="s">
+      <c r="E2" s="231" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="232" t="s">
+      <c r="F2" s="231" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="232" t="s">
+      <c r="G2" s="231" t="s">
         <v>18</v>
       </c>
       <c r="H2" s="5" t="s">
@@ -6090,10 +6096,10 @@
       <c r="N2" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="O2" s="232" t="s">
+      <c r="O2" s="231" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="232" t="s">
+      <c r="P2" s="231" t="s">
         <v>17</v>
       </c>
       <c r="Q2" s="5" t="s">
@@ -6105,18 +6111,18 @@
       <c r="S2" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="180"/>
-      <c r="U2" s="180"/>
-      <c r="V2" s="180"/>
-      <c r="W2" s="180"/>
+      <c r="T2" s="179"/>
+      <c r="U2" s="179"/>
+      <c r="V2" s="179"/>
+      <c r="W2" s="179"/>
       <c r="X2" s="18"/>
-      <c r="Y2" s="180"/>
-      <c r="Z2" s="180"/>
-      <c r="AA2" s="180"/>
-      <c r="AB2" s="180"/>
+      <c r="Y2" s="179"/>
+      <c r="Z2" s="179"/>
+      <c r="AA2" s="179"/>
+      <c r="AB2" s="179"/>
     </row>
     <row r="3" spans="1:28">
-      <c r="A3" s="233" t="s">
+      <c r="A3" s="232" t="s">
         <v>155</v>
       </c>
       <c r="B3" s="22" t="s">
@@ -6170,7 +6176,7 @@
       <c r="R3" s="151" t="s">
         <v>29</v>
       </c>
-      <c r="S3" s="240" t="s">
+      <c r="S3" s="239" t="s">
         <v>29</v>
       </c>
       <c r="T3" s="17" t="s">
@@ -6184,7 +6190,7 @@
       <c r="X3" s="17"/>
     </row>
     <row r="4" spans="1:28" s="26" customFormat="1" ht="15.75">
-      <c r="A4" s="233" t="s">
+      <c r="A4" s="232" t="s">
         <v>156</v>
       </c>
       <c r="B4" s="151"/>
@@ -6194,28 +6200,28 @@
       <c r="D4" s="151" t="s">
         <v>119</v>
       </c>
-      <c r="E4" s="231" t="s">
+      <c r="E4" s="230" t="s">
         <v>119</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G4" s="232" t="s">
-        <v>119</v>
-      </c>
-      <c r="H4" s="232" t="s">
-        <v>119</v>
-      </c>
-      <c r="I4" s="232" t="s">
-        <v>119</v>
-      </c>
-      <c r="J4" s="232" t="s">
+      <c r="G4" s="231" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4" s="231" t="s">
+        <v>119</v>
+      </c>
+      <c r="I4" s="231" t="s">
+        <v>119</v>
+      </c>
+      <c r="J4" s="231" t="s">
         <v>119</v>
       </c>
       <c r="K4" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="L4" s="264" t="s">
+      <c r="L4" s="263" t="s">
         <v>126</v>
       </c>
       <c r="M4" s="54" t="s">
@@ -6247,7 +6253,7 @@
     </row>
     <row r="5" spans="1:28">
       <c r="A5" s="13"/>
-      <c r="B5" s="234"/>
+      <c r="B5" s="233"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -6272,65 +6278,65 @@
       <c r="X5" s="17"/>
     </row>
     <row r="6" spans="1:28">
-      <c r="A6" s="241"/>
-      <c r="B6" s="241"/>
-      <c r="C6" s="241"/>
-      <c r="D6" s="241"/>
-      <c r="E6" s="241"/>
-      <c r="F6" s="241"/>
-      <c r="G6" s="241"/>
-      <c r="H6" s="241"/>
-      <c r="I6" s="241"/>
-      <c r="J6" s="241"/>
-      <c r="K6" s="241"/>
-      <c r="L6" s="265" t="s">
+      <c r="A6" s="240"/>
+      <c r="B6" s="240"/>
+      <c r="C6" s="240"/>
+      <c r="D6" s="240"/>
+      <c r="E6" s="240"/>
+      <c r="F6" s="240"/>
+      <c r="G6" s="240"/>
+      <c r="H6" s="240"/>
+      <c r="I6" s="240"/>
+      <c r="J6" s="240"/>
+      <c r="K6" s="240"/>
+      <c r="L6" s="264" t="s">
         <v>165</v>
       </c>
-      <c r="M6" s="241"/>
-      <c r="N6" s="241"/>
-      <c r="O6" s="241"/>
-      <c r="P6" s="241"/>
-      <c r="Q6" s="241"/>
-      <c r="R6" s="241"/>
-      <c r="S6" s="241"/>
-      <c r="T6" s="241"/>
-      <c r="U6" s="241"/>
+      <c r="M6" s="240"/>
+      <c r="N6" s="240"/>
+      <c r="O6" s="240"/>
+      <c r="P6" s="240"/>
+      <c r="Q6" s="240"/>
+      <c r="R6" s="240"/>
+      <c r="S6" s="240"/>
+      <c r="T6" s="240"/>
+      <c r="U6" s="240"/>
       <c r="V6" s="17"/>
       <c r="W6" s="17"/>
       <c r="X6" s="17"/>
     </row>
     <row r="7" spans="1:28" s="1" customFormat="1">
-      <c r="A7" s="244"/>
-      <c r="B7" s="244"/>
-      <c r="C7" s="299"/>
-      <c r="D7" s="299"/>
-      <c r="E7" s="299"/>
-      <c r="F7" s="299"/>
-      <c r="G7" s="299"/>
-      <c r="H7" s="299"/>
-      <c r="I7" s="299"/>
-      <c r="J7" s="299"/>
-      <c r="K7" s="299"/>
-      <c r="L7" s="299"/>
-      <c r="M7" s="299"/>
-      <c r="N7" s="299"/>
-      <c r="O7" s="299"/>
-      <c r="P7" s="299"/>
-      <c r="Q7" s="238"/>
-      <c r="R7" s="238"/>
-      <c r="S7" s="299"/>
-      <c r="T7" s="299"/>
-      <c r="U7" s="299"/>
-      <c r="V7" s="235"/>
-      <c r="W7" s="235"/>
+      <c r="A7" s="243"/>
+      <c r="B7" s="243"/>
+      <c r="C7" s="302"/>
+      <c r="D7" s="302"/>
+      <c r="E7" s="302"/>
+      <c r="F7" s="302"/>
+      <c r="G7" s="302"/>
+      <c r="H7" s="302"/>
+      <c r="I7" s="302"/>
+      <c r="J7" s="302"/>
+      <c r="K7" s="302"/>
+      <c r="L7" s="302"/>
+      <c r="M7" s="302"/>
+      <c r="N7" s="302"/>
+      <c r="O7" s="302"/>
+      <c r="P7" s="302"/>
+      <c r="Q7" s="237"/>
+      <c r="R7" s="237"/>
+      <c r="S7" s="302"/>
+      <c r="T7" s="302"/>
+      <c r="U7" s="302"/>
+      <c r="V7" s="234"/>
+      <c r="W7" s="234"/>
       <c r="X7" s="18"/>
-      <c r="Y7" s="180"/>
-      <c r="Z7" s="180"/>
-      <c r="AA7" s="180"/>
-      <c r="AB7" s="180"/>
+      <c r="Y7" s="179"/>
+      <c r="Z7" s="179"/>
+      <c r="AA7" s="179"/>
+      <c r="AB7" s="179"/>
     </row>
     <row r="8" spans="1:28" s="1" customFormat="1" ht="40.15" customHeight="1">
-      <c r="A8" s="242" t="s">
+      <c r="A8" s="241" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="54" t="s">
@@ -6339,25 +6345,25 @@
       <c r="C8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="236" t="s">
+      <c r="D8" s="235" t="s">
         <v>146</v>
       </c>
-      <c r="E8" s="237" t="s">
+      <c r="E8" s="236" t="s">
         <v>145</v>
       </c>
-      <c r="F8" s="236" t="s">
+      <c r="F8" s="235" t="s">
         <v>149</v>
       </c>
-      <c r="G8" s="237" t="s">
+      <c r="G8" s="236" t="s">
         <v>147</v>
       </c>
-      <c r="H8" s="237" t="s">
+      <c r="H8" s="236" t="s">
         <v>148</v>
       </c>
-      <c r="I8" s="236" t="s">
+      <c r="I8" s="235" t="s">
         <v>157</v>
       </c>
-      <c r="J8" s="237" t="s">
+      <c r="J8" s="236" t="s">
         <v>150</v>
       </c>
       <c r="K8" s="54" t="s">
@@ -6366,10 +6372,10 @@
       <c r="L8" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="M8" s="237" t="s">
+      <c r="M8" s="236" t="s">
         <v>80</v>
       </c>
-      <c r="N8" s="237" t="s">
+      <c r="N8" s="236" t="s">
         <v>81</v>
       </c>
       <c r="O8" s="52" t="s">
@@ -6378,7 +6384,7 @@
       <c r="P8" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="Q8" s="237" t="s">
+      <c r="Q8" s="236" t="s">
         <v>10</v>
       </c>
       <c r="R8" s="52" t="s">
@@ -6387,51 +6393,51 @@
       <c r="S8" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="T8" s="243"/>
-      <c r="U8" s="243"/>
-      <c r="V8" s="180"/>
-      <c r="W8" s="180"/>
+      <c r="T8" s="242"/>
+      <c r="U8" s="242"/>
+      <c r="V8" s="179"/>
+      <c r="W8" s="179"/>
       <c r="X8" s="18"/>
-      <c r="Y8" s="180"/>
-      <c r="Z8" s="180"/>
-      <c r="AA8" s="180"/>
-      <c r="AB8" s="180"/>
+      <c r="Y8" s="179"/>
+      <c r="Z8" s="179"/>
+      <c r="AA8" s="179"/>
+      <c r="AB8" s="179"/>
     </row>
     <row r="9" spans="1:28" s="1" customFormat="1" ht="28.15" customHeight="1">
-      <c r="A9" s="242" t="s">
+      <c r="A9" s="241" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="237" t="s">
+      <c r="C9" s="236" t="s">
         <v>97</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="237" t="s">
+      <c r="E9" s="236" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="237" t="s">
+      <c r="F9" s="236" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="237" t="s">
+      <c r="G9" s="236" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="242" t="s">
+      <c r="H9" s="241" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="242" t="s">
+      <c r="I9" s="241" t="s">
         <v>99</v>
       </c>
       <c r="J9" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="K9" s="242" t="s">
+      <c r="K9" s="241" t="s">
         <v>100</v>
       </c>
-      <c r="L9" s="242" t="s">
+      <c r="L9" s="241" t="s">
         <v>100</v>
       </c>
       <c r="M9" s="24" t="s">
@@ -6440,33 +6446,33 @@
       <c r="N9" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="O9" s="237" t="s">
+      <c r="O9" s="236" t="s">
         <v>17</v>
       </c>
-      <c r="P9" s="237" t="s">
+      <c r="P9" s="236" t="s">
         <v>17</v>
       </c>
-      <c r="Q9" s="242" t="s">
+      <c r="Q9" s="241" t="s">
         <v>20</v>
       </c>
-      <c r="R9" s="242" t="s">
+      <c r="R9" s="241" t="s">
         <v>47</v>
       </c>
-      <c r="S9" s="242" t="s">
+      <c r="S9" s="241" t="s">
         <v>47</v>
       </c>
-      <c r="T9" s="243"/>
-      <c r="U9" s="243"/>
-      <c r="V9" s="180"/>
-      <c r="W9" s="180"/>
+      <c r="T9" s="242"/>
+      <c r="U9" s="242"/>
+      <c r="V9" s="179"/>
+      <c r="W9" s="179"/>
       <c r="X9" s="18"/>
-      <c r="Y9" s="180"/>
-      <c r="Z9" s="180"/>
-      <c r="AA9" s="180"/>
-      <c r="AB9" s="180"/>
+      <c r="Y9" s="179"/>
+      <c r="Z9" s="179"/>
+      <c r="AA9" s="179"/>
+      <c r="AB9" s="179"/>
     </row>
     <row r="10" spans="1:28" ht="22.5" customHeight="1">
-      <c r="A10" s="233" t="s">
+      <c r="A10" s="232" t="s">
         <v>155</v>
       </c>
       <c r="B10" s="22" t="s">
@@ -6496,10 +6502,10 @@
       <c r="J10" s="151" t="s">
         <v>95</v>
       </c>
-      <c r="K10" s="242" t="s">
+      <c r="K10" s="241" t="s">
         <v>100</v>
       </c>
-      <c r="L10" s="242" t="s">
+      <c r="L10" s="241" t="s">
         <v>100</v>
       </c>
       <c r="M10" s="151" t="s">
@@ -6558,10 +6564,10 @@
       <c r="J11" s="151" t="s">
         <v>119</v>
       </c>
-      <c r="K11" s="242" t="s">
+      <c r="K11" s="241" t="s">
         <v>100</v>
       </c>
-      <c r="L11" s="242" t="s">
+      <c r="L11" s="241" t="s">
         <v>100</v>
       </c>
       <c r="M11" s="151" t="s">
@@ -6582,7 +6588,7 @@
       <c r="R11" s="151" t="s">
         <v>119</v>
       </c>
-      <c r="S11" s="240" t="s">
+      <c r="S11" s="239" t="s">
         <v>119</v>
       </c>
       <c r="T11" s="17"/>
@@ -6692,7 +6698,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="1" customFormat="1" ht="40.15" customHeight="1">
-      <c r="A1" s="250" t="s">
+      <c r="A1" s="249" t="s">
         <v>37</v>
       </c>
       <c r="B1" s="54" t="s">
@@ -6701,25 +6707,25 @@
       <c r="C1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="245" t="s">
+      <c r="D1" s="244" t="s">
         <v>146</v>
       </c>
-      <c r="E1" s="246" t="s">
+      <c r="E1" s="245" t="s">
         <v>145</v>
       </c>
-      <c r="F1" s="245" t="s">
+      <c r="F1" s="244" t="s">
         <v>149</v>
       </c>
-      <c r="G1" s="246" t="s">
+      <c r="G1" s="245" t="s">
         <v>147</v>
       </c>
-      <c r="H1" s="246" t="s">
+      <c r="H1" s="245" t="s">
         <v>148</v>
       </c>
-      <c r="I1" s="245" t="s">
+      <c r="I1" s="244" t="s">
         <v>157</v>
       </c>
-      <c r="J1" s="246" t="s">
+      <c r="J1" s="245" t="s">
         <v>150</v>
       </c>
       <c r="K1" s="54" t="s">
@@ -6734,10 +6740,10 @@
       <c r="N1" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="O1" s="230" t="s">
+      <c r="O1" s="229" t="s">
         <v>80</v>
       </c>
-      <c r="P1" s="230" t="s">
+      <c r="P1" s="229" t="s">
         <v>81</v>
       </c>
       <c r="Q1" s="52" t="s">
@@ -6749,14 +6755,14 @@
       <c r="S1" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="T1" s="239"/>
-      <c r="U1" s="239"/>
-      <c r="V1" s="239"/>
+      <c r="T1" s="238"/>
+      <c r="U1" s="238"/>
+      <c r="V1" s="238"/>
       <c r="W1" s="18"/>
       <c r="X1" s="27"/>
-      <c r="Y1" s="180"/>
-      <c r="Z1" s="180"/>
-      <c r="AA1" s="180"/>
+      <c r="Y1" s="179"/>
+      <c r="Z1" s="179"/>
+      <c r="AA1" s="179"/>
     </row>
     <row r="2" spans="1:27" s="1" customFormat="1" ht="28.15" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -6765,19 +6771,19 @@
       <c r="B2" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="230" t="s">
+      <c r="C2" s="229" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="230" t="s">
+      <c r="E2" s="229" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="230" t="s">
+      <c r="F2" s="229" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="230" t="s">
+      <c r="G2" s="229" t="s">
         <v>18</v>
       </c>
       <c r="H2" s="5" t="s">
@@ -6798,7 +6804,7 @@
       <c r="M2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="247" t="s">
+      <c r="N2" s="246" t="s">
         <v>56</v>
       </c>
       <c r="O2" s="24" t="s">
@@ -6813,17 +6819,17 @@
       <c r="R2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="S2" s="261" t="s">
+      <c r="S2" s="260" t="s">
         <v>100</v>
       </c>
-      <c r="T2" s="180"/>
+      <c r="T2" s="179"/>
       <c r="U2" s="18"/>
       <c r="V2" s="18"/>
       <c r="W2" s="18"/>
       <c r="X2" s="27"/>
-      <c r="Y2" s="180"/>
-      <c r="Z2" s="180"/>
-      <c r="AA2" s="180"/>
+      <c r="Y2" s="179"/>
+      <c r="Z2" s="179"/>
+      <c r="AA2" s="179"/>
     </row>
     <row r="3" spans="1:27" s="1" customFormat="1" ht="25.15" customHeight="1">
       <c r="A3" s="5" t="s">
@@ -6880,17 +6886,17 @@
       <c r="R3" s="151" t="s">
         <v>40</v>
       </c>
-      <c r="S3" s="261" t="s">
+      <c r="S3" s="260" t="s">
         <v>100</v>
       </c>
-      <c r="T3" s="180"/>
+      <c r="T3" s="179"/>
       <c r="U3" s="18"/>
       <c r="V3" s="18"/>
       <c r="W3" s="18"/>
       <c r="X3" s="27"/>
-      <c r="Y3" s="180"/>
-      <c r="Z3" s="180"/>
-      <c r="AA3" s="180"/>
+      <c r="Y3" s="179"/>
+      <c r="Z3" s="179"/>
+      <c r="AA3" s="179"/>
     </row>
     <row r="4" spans="1:27" s="1" customFormat="1" ht="19.149999999999999" customHeight="1">
       <c r="A4" s="5" t="s">
@@ -6945,17 +6951,17 @@
       <c r="R4" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="S4" s="261" t="s">
+      <c r="S4" s="260" t="s">
         <v>100</v>
       </c>
-      <c r="T4" s="180"/>
+      <c r="T4" s="179"/>
       <c r="U4" s="29"/>
       <c r="V4" s="29"/>
       <c r="W4" s="18"/>
       <c r="X4" s="27"/>
-      <c r="Y4" s="180"/>
-      <c r="Z4" s="180"/>
-      <c r="AA4" s="180"/>
+      <c r="Y4" s="179"/>
+      <c r="Z4" s="179"/>
+      <c r="AA4" s="179"/>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="13"/>
@@ -7027,7 +7033,7 @@
       <c r="AA7" s="26"/>
     </row>
     <row r="8" spans="1:27" s="1" customFormat="1" ht="40.15" customHeight="1">
-      <c r="A8" s="244" t="s">
+      <c r="A8" s="243" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="54" t="s">
@@ -7036,25 +7042,25 @@
       <c r="C8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="248" t="s">
+      <c r="D8" s="247" t="s">
         <v>146</v>
       </c>
-      <c r="E8" s="249" t="s">
+      <c r="E8" s="248" t="s">
         <v>145</v>
       </c>
-      <c r="F8" s="248" t="s">
+      <c r="F8" s="247" t="s">
         <v>149</v>
       </c>
-      <c r="G8" s="249" t="s">
+      <c r="G8" s="248" t="s">
         <v>147</v>
       </c>
-      <c r="H8" s="249" t="s">
+      <c r="H8" s="248" t="s">
         <v>148</v>
       </c>
-      <c r="I8" s="248" t="s">
+      <c r="I8" s="247" t="s">
         <v>157</v>
       </c>
-      <c r="J8" s="249" t="s">
+      <c r="J8" s="248" t="s">
         <v>150</v>
       </c>
       <c r="K8" s="54" t="s">
@@ -7069,10 +7075,10 @@
       <c r="N8" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="O8" s="249" t="s">
+      <c r="O8" s="248" t="s">
         <v>80</v>
       </c>
-      <c r="P8" s="249" t="s">
+      <c r="P8" s="248" t="s">
         <v>81</v>
       </c>
       <c r="Q8" s="52" t="s">
@@ -7086,79 +7092,79 @@
       </c>
       <c r="T8" s="62"/>
       <c r="U8" s="107"/>
-      <c r="V8" s="239"/>
+      <c r="V8" s="238"/>
       <c r="W8" s="27"/>
       <c r="X8" s="27"/>
-      <c r="Y8" s="180"/>
-      <c r="Z8" s="180"/>
-      <c r="AA8" s="180"/>
-    </row>
-    <row r="9" spans="1:27" s="260" customFormat="1" ht="28.15" customHeight="1">
-      <c r="A9" s="252" t="s">
+      <c r="Y8" s="179"/>
+      <c r="Z8" s="179"/>
+      <c r="AA8" s="179"/>
+    </row>
+    <row r="9" spans="1:27" s="259" customFormat="1" ht="28.15" customHeight="1">
+      <c r="A9" s="251" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="253" t="s">
+      <c r="B9" s="252" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="195" t="s">
+      <c r="C9" s="194" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="254" t="s">
+      <c r="D9" s="253" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="251" t="s">
+      <c r="E9" s="250" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="251" t="s">
+      <c r="F9" s="250" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="251" t="s">
+      <c r="G9" s="250" t="s">
         <v>101</v>
       </c>
-      <c r="H9" s="252" t="s">
+      <c r="H9" s="251" t="s">
         <v>76</v>
       </c>
-      <c r="I9" s="252" t="s">
+      <c r="I9" s="251" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="254" t="s">
+      <c r="J9" s="253" t="s">
         <v>95</v>
       </c>
-      <c r="K9" s="254" t="s">
+      <c r="K9" s="253" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="254" t="s">
+      <c r="L9" s="253" t="s">
         <v>102</v>
       </c>
-      <c r="M9" s="254" t="s">
+      <c r="M9" s="253" t="s">
         <v>100</v>
       </c>
-      <c r="N9" s="254" t="s">
+      <c r="N9" s="253" t="s">
         <v>100</v>
       </c>
-      <c r="O9" s="255" t="s">
+      <c r="O9" s="254" t="s">
         <v>158</v>
       </c>
-      <c r="P9" s="255" t="s">
+      <c r="P9" s="254" t="s">
         <v>159</v>
       </c>
-      <c r="Q9" s="256" t="s">
+      <c r="Q9" s="255" t="s">
         <v>40</v>
       </c>
-      <c r="R9" s="252" t="s">
+      <c r="R9" s="251" t="s">
         <v>41</v>
       </c>
-      <c r="S9" s="252" t="s">
+      <c r="S9" s="251" t="s">
         <v>41</v>
       </c>
-      <c r="T9" s="257"/>
-      <c r="U9" s="257"/>
-      <c r="V9" s="258"/>
-      <c r="W9" s="259"/>
-      <c r="X9" s="259"/>
-      <c r="Y9" s="257"/>
-      <c r="Z9" s="257"/>
-      <c r="AA9" s="257"/>
+      <c r="T9" s="256"/>
+      <c r="U9" s="256"/>
+      <c r="V9" s="257"/>
+      <c r="W9" s="258"/>
+      <c r="X9" s="258"/>
+      <c r="Y9" s="256"/>
+      <c r="Z9" s="256"/>
+      <c r="AA9" s="256"/>
     </row>
     <row r="10" spans="1:27" s="1" customFormat="1" ht="25.15" customHeight="1">
       <c r="A10" s="5" t="s">
@@ -7197,10 +7203,10 @@
       <c r="L10" s="151" t="s">
         <v>102</v>
       </c>
-      <c r="M10" s="254" t="s">
+      <c r="M10" s="253" t="s">
         <v>100</v>
       </c>
-      <c r="N10" s="254" t="s">
+      <c r="N10" s="253" t="s">
         <v>100</v>
       </c>
       <c r="O10" s="151" t="s">
@@ -7209,7 +7215,7 @@
       <c r="P10" s="151" t="s">
         <v>159</v>
       </c>
-      <c r="Q10" s="240" t="s">
+      <c r="Q10" s="239" t="s">
         <v>40</v>
       </c>
       <c r="R10" s="31" t="s">
@@ -7223,9 +7229,9 @@
       <c r="V10" s="18"/>
       <c r="W10" s="27"/>
       <c r="X10" s="27"/>
-      <c r="Y10" s="180"/>
-      <c r="Z10" s="180"/>
-      <c r="AA10" s="180"/>
+      <c r="Y10" s="179"/>
+      <c r="Z10" s="179"/>
+      <c r="AA10" s="179"/>
     </row>
     <row r="11" spans="1:27" s="1" customFormat="1" ht="19.149999999999999" customHeight="1">
       <c r="A11" s="5" t="s">
@@ -7262,10 +7268,10 @@
       <c r="L11" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="M11" s="254" t="s">
+      <c r="M11" s="253" t="s">
         <v>100</v>
       </c>
-      <c r="N11" s="254" t="s">
+      <c r="N11" s="253" t="s">
         <v>100</v>
       </c>
       <c r="O11" s="72" t="s">
@@ -7274,7 +7280,7 @@
       <c r="P11" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="Q11" s="188" t="s">
+      <c r="Q11" s="187" t="s">
         <v>119</v>
       </c>
       <c r="R11" s="31" t="s">
@@ -7288,9 +7294,9 @@
       <c r="V11" s="29"/>
       <c r="W11" s="27"/>
       <c r="X11" s="27"/>
-      <c r="Y11" s="180"/>
-      <c r="Z11" s="180"/>
-      <c r="AA11" s="180"/>
+      <c r="Y11" s="179"/>
+      <c r="Z11" s="179"/>
+      <c r="AA11" s="179"/>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="13"/>
@@ -7404,28 +7410,28 @@
       <c r="C1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="262" t="s">
+      <c r="D1" s="261" t="s">
         <v>146</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="263" t="s">
+      <c r="F1" s="262" t="s">
         <v>145</v>
       </c>
-      <c r="G1" s="262" t="s">
+      <c r="G1" s="261" t="s">
         <v>149</v>
       </c>
-      <c r="H1" s="263" t="s">
+      <c r="H1" s="262" t="s">
         <v>147</v>
       </c>
-      <c r="I1" s="263" t="s">
+      <c r="I1" s="262" t="s">
         <v>148</v>
       </c>
-      <c r="J1" s="262" t="s">
+      <c r="J1" s="261" t="s">
         <v>157</v>
       </c>
-      <c r="K1" s="263" t="s">
+      <c r="K1" s="262" t="s">
         <v>150</v>
       </c>
       <c r="L1" s="6" t="s">
@@ -7459,7 +7465,7 @@
       <c r="B2" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="270" t="s">
+      <c r="C2" s="269" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="23" t="s">
@@ -7468,13 +7474,13 @@
       <c r="E2" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="270" t="s">
+      <c r="F2" s="269" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="270" t="s">
+      <c r="G2" s="269" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="270" t="s">
+      <c r="H2" s="269" t="s">
         <v>70</v>
       </c>
       <c r="I2" s="5" t="s">
@@ -7486,19 +7492,19 @@
       <c r="K2" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="L2" s="270" t="s">
+      <c r="L2" s="269" t="s">
         <v>166</v>
       </c>
-      <c r="M2" s="270" t="s">
+      <c r="M2" s="269" t="s">
         <v>167</v>
       </c>
-      <c r="N2" s="270" t="s">
+      <c r="N2" s="269" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="270" t="s">
+      <c r="O2" s="269" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="268" t="s">
+      <c r="P2" s="267" t="s">
         <v>40</v>
       </c>
       <c r="Q2" s="5" t="s">
@@ -7685,7 +7691,7 @@
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
-      <c r="Q7" s="269" t="s">
+      <c r="Q7" s="268" t="s">
         <v>168</v>
       </c>
       <c r="R7" s="13"/>
@@ -7724,34 +7730,34 @@
       <c r="C9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="266" t="s">
+      <c r="D9" s="265" t="s">
         <v>146</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="267" t="s">
+      <c r="F9" s="266" t="s">
         <v>145</v>
       </c>
-      <c r="G9" s="266" t="s">
+      <c r="G9" s="265" t="s">
         <v>149</v>
       </c>
-      <c r="H9" s="267" t="s">
+      <c r="H9" s="266" t="s">
         <v>147</v>
       </c>
-      <c r="I9" s="267" t="s">
+      <c r="I9" s="266" t="s">
         <v>148</v>
       </c>
-      <c r="J9" s="266" t="s">
+      <c r="J9" s="265" t="s">
         <v>157</v>
       </c>
-      <c r="K9" s="267" t="s">
+      <c r="K9" s="266" t="s">
         <v>150</v>
       </c>
-      <c r="L9" s="267" t="s">
+      <c r="L9" s="266" t="s">
         <v>80</v>
       </c>
-      <c r="M9" s="267" t="s">
+      <c r="M9" s="266" t="s">
         <v>81</v>
       </c>
       <c r="N9" s="52" t="s">
@@ -7788,13 +7794,13 @@
       <c r="E10" s="151" t="s">
         <v>83</v>
       </c>
-      <c r="F10" s="270" t="s">
+      <c r="F10" s="269" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="270" t="s">
+      <c r="H10" s="269" t="s">
         <v>70</v>
       </c>
       <c r="I10" s="5" t="s">
@@ -7806,25 +7812,25 @@
       <c r="K10" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="L10" s="270" t="s">
+      <c r="L10" s="269" t="s">
         <v>166</v>
       </c>
-      <c r="M10" s="270" t="s">
+      <c r="M10" s="269" t="s">
         <v>167</v>
       </c>
-      <c r="N10" s="270" t="s">
+      <c r="N10" s="269" t="s">
         <v>15</v>
       </c>
-      <c r="O10" s="270" t="s">
+      <c r="O10" s="269" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="270" t="s">
+      <c r="P10" s="269" t="s">
         <v>17</v>
       </c>
-      <c r="Q10" s="270" t="s">
+      <c r="Q10" s="269" t="s">
         <v>17</v>
       </c>
-      <c r="R10" s="270" t="s">
+      <c r="R10" s="269" t="s">
         <v>20</v>
       </c>
       <c r="S10" s="3"/>
@@ -8042,34 +8048,34 @@
       <c r="C17" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="266" t="s">
+      <c r="D17" s="265" t="s">
         <v>146</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="267" t="s">
+      <c r="F17" s="266" t="s">
         <v>145</v>
       </c>
-      <c r="G17" s="266" t="s">
+      <c r="G17" s="265" t="s">
         <v>149</v>
       </c>
-      <c r="H17" s="267" t="s">
+      <c r="H17" s="266" t="s">
         <v>147</v>
       </c>
-      <c r="I17" s="267" t="s">
+      <c r="I17" s="266" t="s">
         <v>148</v>
       </c>
-      <c r="J17" s="266" t="s">
+      <c r="J17" s="265" t="s">
         <v>157</v>
       </c>
-      <c r="K17" s="267" t="s">
+      <c r="K17" s="266" t="s">
         <v>150</v>
       </c>
-      <c r="L17" s="267" t="s">
+      <c r="L17" s="266" t="s">
         <v>80</v>
       </c>
-      <c r="M17" s="267" t="s">
+      <c r="M17" s="266" t="s">
         <v>81</v>
       </c>
       <c r="N17" s="52" t="s">
@@ -8097,7 +8103,7 @@
       <c r="B18" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="270" t="s">
+      <c r="C18" s="269" t="s">
         <v>40</v>
       </c>
       <c r="D18" s="23" t="s">
@@ -8106,13 +8112,13 @@
       <c r="E18" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="270" t="s">
+      <c r="F18" s="269" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="270" t="s">
+      <c r="G18" s="269" t="s">
         <v>46</v>
       </c>
-      <c r="H18" s="270" t="s">
+      <c r="H18" s="269" t="s">
         <v>70</v>
       </c>
       <c r="I18" s="5" t="s">
@@ -8124,19 +8130,19 @@
       <c r="K18" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="L18" s="270" t="s">
+      <c r="L18" s="269" t="s">
         <v>166</v>
       </c>
-      <c r="M18" s="270" t="s">
+      <c r="M18" s="269" t="s">
         <v>167</v>
       </c>
-      <c r="N18" s="270" t="s">
+      <c r="N18" s="269" t="s">
         <v>40</v>
       </c>
-      <c r="O18" s="270" t="s">
+      <c r="O18" s="269" t="s">
         <v>100</v>
       </c>
-      <c r="P18" s="270" t="s">
+      <c r="P18" s="269" t="s">
         <v>40</v>
       </c>
       <c r="Q18" s="5" t="s">
@@ -8191,16 +8197,16 @@
       <c r="N19" s="151" t="s">
         <v>40</v>
       </c>
-      <c r="O19" s="272" t="s">
+      <c r="O19" s="271" t="s">
         <v>100</v>
       </c>
       <c r="P19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="Q19" s="272" t="s">
+      <c r="Q19" s="271" t="s">
         <v>100</v>
       </c>
-      <c r="R19" s="272" t="s">
+      <c r="R19" s="271" t="s">
         <v>100</v>
       </c>
       <c r="S19" s="3"/>
@@ -8247,16 +8253,16 @@
       <c r="N20" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="O20" s="272" t="s">
+      <c r="O20" s="271" t="s">
         <v>100</v>
       </c>
       <c r="P20" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="Q20" s="272" t="s">
+      <c r="Q20" s="271" t="s">
         <v>100</v>
       </c>
-      <c r="R20" s="272" t="s">
+      <c r="R20" s="271" t="s">
         <v>100</v>
       </c>
       <c r="S20" s="3"/>
@@ -8374,37 +8380,37 @@
       <c r="C1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="271" t="s">
+      <c r="D1" s="270" t="s">
         <v>146</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="272" t="s">
+      <c r="F1" s="271" t="s">
         <v>145</v>
       </c>
-      <c r="G1" s="271" t="s">
+      <c r="G1" s="270" t="s">
         <v>149</v>
       </c>
-      <c r="H1" s="272" t="s">
+      <c r="H1" s="271" t="s">
         <v>147</v>
       </c>
-      <c r="I1" s="272" t="s">
+      <c r="I1" s="271" t="s">
         <v>148</v>
       </c>
-      <c r="J1" s="271" t="s">
+      <c r="J1" s="270" t="s">
         <v>157</v>
       </c>
-      <c r="K1" s="272" t="s">
+      <c r="K1" s="271" t="s">
         <v>150</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="M1" s="272" t="s">
+      <c r="M1" s="271" t="s">
         <v>80</v>
       </c>
-      <c r="N1" s="272" t="s">
+      <c r="N1" s="271" t="s">
         <v>81</v>
       </c>
       <c r="O1" s="52" t="s">
@@ -8426,7 +8432,7 @@
       <c r="U1" s="3"/>
     </row>
     <row r="2" spans="1:21" s="1" customFormat="1" ht="28.15" customHeight="1">
-      <c r="A2" s="273" t="s">
+      <c r="A2" s="272" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -8468,7 +8474,7 @@
       <c r="N2" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="O2" s="272" t="s">
+      <c r="O2" s="271" t="s">
         <v>76</v>
       </c>
       <c r="P2" s="6" t="s">
@@ -8480,24 +8486,24 @@
       <c r="R2" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="S2" s="277" t="s">
+      <c r="S2" s="276" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="1" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A3" s="274" t="s">
+      <c r="A3" s="273" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="275" t="s">
+      <c r="C3" s="274" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="275" t="s">
+      <c r="D3" s="274" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="275" t="s">
+      <c r="E3" s="274" t="s">
         <v>46</v>
       </c>
       <c r="F3" s="151" t="s">
@@ -8533,28 +8539,28 @@
       <c r="P3" s="151" t="s">
         <v>76</v>
       </c>
-      <c r="Q3" s="276" t="s">
+      <c r="Q3" s="275" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="272" t="s">
+      <c r="R3" s="271" t="s">
         <v>100</v>
       </c>
-      <c r="S3" s="277" t="s">
+      <c r="S3" s="276" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1" ht="19.149999999999999" customHeight="1">
-      <c r="A4" s="274" t="s">
+      <c r="A4" s="273" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="30"/>
-      <c r="C4" s="275" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" s="275" t="s">
-        <v>119</v>
-      </c>
-      <c r="E4" s="275" t="s">
+      <c r="C4" s="274" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="274" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="274" t="s">
         <v>119</v>
       </c>
       <c r="F4" s="72" t="s">
@@ -8593,10 +8599,10 @@
       <c r="Q4" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="R4" s="272" t="s">
+      <c r="R4" s="271" t="s">
         <v>100</v>
       </c>
-      <c r="S4" s="277" t="s">
+      <c r="S4" s="276" t="s">
         <v>100</v>
       </c>
     </row>
@@ -8662,37 +8668,37 @@
       <c r="C9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="271" t="s">
+      <c r="D9" s="270" t="s">
         <v>146</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="272" t="s">
+      <c r="F9" s="271" t="s">
         <v>145</v>
       </c>
-      <c r="G9" s="271" t="s">
+      <c r="G9" s="270" t="s">
         <v>149</v>
       </c>
-      <c r="H9" s="272" t="s">
+      <c r="H9" s="271" t="s">
         <v>147</v>
       </c>
-      <c r="I9" s="272" t="s">
+      <c r="I9" s="271" t="s">
         <v>148</v>
       </c>
-      <c r="J9" s="271" t="s">
+      <c r="J9" s="270" t="s">
         <v>157</v>
       </c>
-      <c r="K9" s="272" t="s">
+      <c r="K9" s="271" t="s">
         <v>150</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="M9" s="272" t="s">
+      <c r="M9" s="271" t="s">
         <v>80</v>
       </c>
-      <c r="N9" s="272" t="s">
+      <c r="N9" s="271" t="s">
         <v>81</v>
       </c>
       <c r="O9" s="52" t="s">
@@ -8712,13 +8718,13 @@
       </c>
     </row>
     <row r="10" spans="1:21" s="1" customFormat="1" ht="28.15" customHeight="1">
-      <c r="A10" s="273" t="s">
+      <c r="A10" s="272" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="272" t="s">
+      <c r="C10" s="271" t="s">
         <v>88</v>
       </c>
       <c r="D10" s="23" t="s">
@@ -8748,13 +8754,13 @@
       <c r="L10" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="M10" s="278" t="s">
+      <c r="M10" s="277" t="s">
         <v>169</v>
       </c>
-      <c r="N10" s="278" t="s">
+      <c r="N10" s="277" t="s">
         <v>170</v>
       </c>
-      <c r="O10" s="278" t="s">
+      <c r="O10" s="277" t="s">
         <v>47</v>
       </c>
       <c r="P10" s="6" t="s">
@@ -8766,24 +8772,24 @@
       <c r="R10" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S10" s="277" t="s">
+      <c r="S10" s="276" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:21" s="1" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A11" s="274" t="s">
+      <c r="A11" s="273" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="279" t="s">
+      <c r="C11" s="278" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="279" t="s">
+      <c r="D11" s="278" t="s">
         <v>89</v>
       </c>
-      <c r="E11" s="279" t="s">
+      <c r="E11" s="278" t="s">
         <v>89</v>
       </c>
       <c r="F11" s="151" t="s">
@@ -8819,21 +8825,21 @@
       <c r="P11" s="151" t="s">
         <v>47</v>
       </c>
-      <c r="Q11" s="275" t="s">
+      <c r="Q11" s="274" t="s">
         <v>90</v>
       </c>
-      <c r="R11" s="280" t="s">
+      <c r="R11" s="279" t="s">
         <v>47</v>
       </c>
-      <c r="S11" s="277" t="s">
+      <c r="S11" s="276" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:21" s="1" customFormat="1" ht="19.149999999999999" customHeight="1">
-      <c r="A12" s="274" t="s">
+      <c r="A12" s="273" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="274"/>
+      <c r="B12" s="273"/>
       <c r="C12" s="72" t="s">
         <v>119</v>
       </c>
@@ -8882,7 +8888,7 @@
       <c r="R12" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="S12" s="277" t="s">
+      <c r="S12" s="276" t="s">
         <v>100</v>
       </c>
     </row>
@@ -9120,7 +9126,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="100"/>
-      <c r="C4" s="283" t="s">
+      <c r="C4" s="282" t="s">
         <v>126</v>
       </c>
       <c r="D4" s="98" t="s">
@@ -9132,13 +9138,13 @@
       <c r="F4" s="100" t="s">
         <v>119</v>
       </c>
-      <c r="G4" s="284" t="s">
+      <c r="G4" s="283" t="s">
         <v>126</v>
       </c>
       <c r="H4" s="98" t="s">
         <v>119</v>
       </c>
-      <c r="I4" s="283" t="s">
+      <c r="I4" s="282" t="s">
         <v>126</v>
       </c>
       <c r="J4" s="98" t="s">
@@ -9188,7 +9194,7 @@
     <row r="6" spans="1:20">
       <c r="A6" s="101"/>
       <c r="B6" s="101"/>
-      <c r="C6" s="286" t="s">
+      <c r="C6" s="285" t="s">
         <v>179</v>
       </c>
       <c r="D6" s="101"/>
@@ -9258,20 +9264,20 @@
         <v>23</v>
       </c>
       <c r="B9" s="102"/>
-      <c r="C9" s="290" t="s">
+      <c r="C9" s="293" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="290"/>
-      <c r="E9" s="290"/>
-      <c r="F9" s="290"/>
-      <c r="G9" s="290"/>
-      <c r="H9" s="290" t="s">
+      <c r="D9" s="293"/>
+      <c r="E9" s="293"/>
+      <c r="F9" s="293"/>
+      <c r="G9" s="293"/>
+      <c r="H9" s="293" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="290"/>
-      <c r="J9" s="290"/>
-      <c r="K9" s="290"/>
-      <c r="L9" s="290"/>
+      <c r="I9" s="293"/>
+      <c r="J9" s="293"/>
+      <c r="K9" s="293"/>
+      <c r="L9" s="293"/>
       <c r="M9" s="52" t="s">
         <v>26</v>
       </c>
@@ -9366,7 +9372,7 @@
       <c r="J11" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="288" t="s">
+      <c r="K11" s="287" t="s">
         <v>175</v>
       </c>
       <c r="L11" s="52" t="s">
@@ -9390,40 +9396,40 @@
       <c r="B12" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="281" t="s">
+      <c r="C12" s="280" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="281" t="s">
+      <c r="D12" s="280" t="s">
         <v>171</v>
       </c>
-      <c r="E12" s="281" t="s">
+      <c r="E12" s="280" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="281" t="s">
+      <c r="F12" s="280" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="281" t="s">
+      <c r="G12" s="280" t="s">
         <v>177</v>
       </c>
-      <c r="H12" s="281" t="s">
+      <c r="H12" s="280" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="281" t="s">
+      <c r="I12" s="280" t="s">
         <v>40</v>
       </c>
-      <c r="J12" s="282" t="s">
+      <c r="J12" s="281" t="s">
         <v>56</v>
       </c>
-      <c r="K12" s="282" t="s">
+      <c r="K12" s="281" t="s">
         <v>56</v>
       </c>
-      <c r="L12" s="282" t="s">
+      <c r="L12" s="281" t="s">
         <v>56</v>
       </c>
-      <c r="M12" s="282" t="s">
+      <c r="M12" s="281" t="s">
         <v>56</v>
       </c>
-      <c r="N12" s="282" t="s">
+      <c r="N12" s="281" t="s">
         <v>56</v>
       </c>
       <c r="O12" s="13"/>
@@ -9436,40 +9442,40 @@
     <row r="13" spans="1:20" ht="24.75" customHeight="1">
       <c r="A13" s="100"/>
       <c r="B13" s="100"/>
-      <c r="C13" s="283" t="s">
+      <c r="C13" s="282" t="s">
         <v>126</v>
       </c>
       <c r="D13" s="98" t="s">
         <v>119</v>
       </c>
-      <c r="E13" s="283" t="s">
+      <c r="E13" s="282" t="s">
         <v>126</v>
       </c>
-      <c r="F13" s="283" t="s">
+      <c r="F13" s="282" t="s">
         <v>126</v>
       </c>
-      <c r="G13" s="283" t="s">
+      <c r="G13" s="282" t="s">
         <v>126</v>
       </c>
-      <c r="H13" s="283" t="s">
+      <c r="H13" s="282" t="s">
         <v>126</v>
       </c>
-      <c r="I13" s="283" t="s">
+      <c r="I13" s="282" t="s">
         <v>126</v>
       </c>
-      <c r="J13" s="283" t="s">
+      <c r="J13" s="282" t="s">
         <v>126</v>
       </c>
-      <c r="K13" s="283" t="s">
+      <c r="K13" s="282" t="s">
         <v>126</v>
       </c>
-      <c r="L13" s="283" t="s">
+      <c r="L13" s="282" t="s">
         <v>126</v>
       </c>
-      <c r="M13" s="283" t="s">
+      <c r="M13" s="282" t="s">
         <v>126</v>
       </c>
-      <c r="N13" s="283" t="s">
+      <c r="N13" s="282" t="s">
         <v>126</v>
       </c>
       <c r="O13" s="13"/>
@@ -9480,7 +9486,7 @@
       <c r="T13" s="13"/>
     </row>
     <row r="16" spans="1:20">
-      <c r="C16" s="285" t="s">
+      <c r="C16" s="284" t="s">
         <v>178</v>
       </c>
     </row>
@@ -9556,7 +9562,7 @@
       <c r="K1" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="L1" s="179" t="s">
+      <c r="L1" s="178" t="s">
         <v>10</v>
       </c>
       <c r="M1" s="6" t="s">
@@ -9665,25 +9671,25 @@
         <v>22</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="287" t="s">
+      <c r="C4" s="286" t="s">
         <v>126</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="E4" s="287" t="s">
+      <c r="E4" s="286" t="s">
         <v>126</v>
       </c>
-      <c r="F4" s="287" t="s">
+      <c r="F4" s="286" t="s">
         <v>126</v>
       </c>
-      <c r="G4" s="287" t="s">
+      <c r="G4" s="286" t="s">
         <v>126</v>
       </c>
       <c r="H4" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="I4" s="287" t="s">
+      <c r="I4" s="286" t="s">
         <v>126</v>
       </c>
       <c r="J4" s="23" t="s">
@@ -9692,13 +9698,13 @@
       <c r="K4" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="L4" s="287" t="s">
+      <c r="L4" s="286" t="s">
         <v>126</v>
       </c>
-      <c r="M4" s="287" t="s">
+      <c r="M4" s="286" t="s">
         <v>126</v>
       </c>
-      <c r="N4" s="287" t="s">
+      <c r="N4" s="286" t="s">
         <v>126</v>
       </c>
       <c r="P4" s="13"/>
@@ -9783,24 +9789,24 @@
     <row r="9" spans="1:17">
       <c r="A9" s="31"/>
       <c r="B9" s="34"/>
-      <c r="C9" s="289" t="s">
+      <c r="C9" s="292" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="289"/>
-      <c r="H9" s="289" t="s">
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="292"/>
+      <c r="H9" s="292" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="289"/>
-      <c r="J9" s="289"/>
-      <c r="K9" s="289"/>
-      <c r="L9" s="289"/>
+      <c r="I9" s="292"/>
+      <c r="J9" s="292"/>
+      <c r="K9" s="292"/>
+      <c r="L9" s="292"/>
       <c r="M9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="178" t="s">
+      <c r="N9" s="177" t="s">
         <v>27</v>
       </c>
       <c r="O9" s="18"/>
@@ -9841,13 +9847,13 @@
       <c r="K10" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="L10" s="179" t="s">
+      <c r="L10" s="178" t="s">
         <v>10</v>
       </c>
       <c r="M10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N10" s="178" t="s">
+      <c r="N10" s="177" t="s">
         <v>12</v>
       </c>
       <c r="O10" s="26"/>
@@ -9894,7 +9900,7 @@
       <c r="M11" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="N11" s="178" t="s">
+      <c r="N11" s="177" t="s">
         <v>29</v>
       </c>
       <c r="O11" s="26"/>
@@ -9953,40 +9959,40 @@
         <v>22</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="287" t="s">
+      <c r="C13" s="286" t="s">
         <v>126</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="E13" s="287" t="s">
+      <c r="E13" s="286" t="s">
         <v>126</v>
       </c>
-      <c r="F13" s="287" t="s">
+      <c r="F13" s="286" t="s">
         <v>126</v>
       </c>
-      <c r="G13" s="287" t="s">
+      <c r="G13" s="286" t="s">
         <v>126</v>
       </c>
       <c r="H13" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="I13" s="287" t="s">
+      <c r="I13" s="286" t="s">
         <v>126</v>
       </c>
       <c r="J13" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="K13" s="287" t="s">
+      <c r="K13" s="286" t="s">
         <v>126</v>
       </c>
-      <c r="L13" s="287" t="s">
+      <c r="L13" s="286" t="s">
         <v>126</v>
       </c>
-      <c r="M13" s="287" t="s">
+      <c r="M13" s="286" t="s">
         <v>126</v>
       </c>
-      <c r="N13" s="287" t="s">
+      <c r="N13" s="286" t="s">
         <v>126</v>
       </c>
       <c r="O13" s="29"/>
@@ -10151,31 +10157,31 @@
         <v>22</v>
       </c>
       <c r="B4" s="42"/>
-      <c r="C4" s="287" t="s">
+      <c r="C4" s="286" t="s">
         <v>126</v>
       </c>
-      <c r="D4" s="287" t="s">
+      <c r="D4" s="286" t="s">
         <v>126</v>
       </c>
-      <c r="E4" s="287" t="s">
+      <c r="E4" s="286" t="s">
         <v>126</v>
       </c>
       <c r="F4" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="G4" s="287" t="s">
+      <c r="G4" s="286" t="s">
         <v>126</v>
       </c>
       <c r="H4" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="I4" s="287" t="s">
+      <c r="I4" s="286" t="s">
         <v>126</v>
       </c>
-      <c r="J4" s="287" t="s">
+      <c r="J4" s="286" t="s">
         <v>126</v>
       </c>
-      <c r="K4" s="287" t="s">
+      <c r="K4" s="286" t="s">
         <v>126</v>
       </c>
     </row>
@@ -10236,15 +10242,15 @@
         <v>23</v>
       </c>
       <c r="B9" s="34"/>
-      <c r="C9" s="289"/>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="289" t="s">
+      <c r="C9" s="292"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="289"/>
-      <c r="H9" s="289"/>
-      <c r="I9" s="289"/>
+      <c r="G9" s="292"/>
+      <c r="H9" s="292"/>
+      <c r="I9" s="292"/>
       <c r="J9" s="6" t="s">
         <v>26</v>
       </c>
@@ -10362,31 +10368,31 @@
         <v>22</v>
       </c>
       <c r="B13" s="42"/>
-      <c r="C13" s="287" t="s">
+      <c r="C13" s="286" t="s">
         <v>126</v>
       </c>
-      <c r="D13" s="287" t="s">
+      <c r="D13" s="286" t="s">
         <v>126</v>
       </c>
-      <c r="E13" s="287" t="s">
+      <c r="E13" s="286" t="s">
         <v>126</v>
       </c>
-      <c r="F13" s="287" t="s">
+      <c r="F13" s="286" t="s">
         <v>126</v>
       </c>
-      <c r="G13" s="287" t="s">
+      <c r="G13" s="286" t="s">
         <v>126</v>
       </c>
-      <c r="H13" s="287" t="s">
+      <c r="H13" s="286" t="s">
         <v>126</v>
       </c>
-      <c r="I13" s="287" t="s">
+      <c r="I13" s="286" t="s">
         <v>126</v>
       </c>
-      <c r="J13" s="287" t="s">
+      <c r="J13" s="286" t="s">
         <v>126</v>
       </c>
-      <c r="K13" s="287" t="s">
+      <c r="K13" s="286" t="s">
         <v>126</v>
       </c>
     </row>
@@ -10447,15 +10453,15 @@
         <v>37</v>
       </c>
       <c r="B18" s="34"/>
-      <c r="C18" s="289"/>
-      <c r="D18" s="289"/>
-      <c r="E18" s="289"/>
-      <c r="F18" s="289" t="s">
+      <c r="C18" s="292"/>
+      <c r="D18" s="292"/>
+      <c r="E18" s="292"/>
+      <c r="F18" s="292" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="289"/>
-      <c r="H18" s="289"/>
-      <c r="I18" s="289"/>
+      <c r="G18" s="292"/>
+      <c r="H18" s="292"/>
+      <c r="I18" s="292"/>
       <c r="J18" s="6" t="s">
         <v>26</v>
       </c>
@@ -10573,31 +10579,31 @@
         <v>22</v>
       </c>
       <c r="B22" s="42"/>
-      <c r="C22" s="287" t="s">
+      <c r="C22" s="286" t="s">
         <v>126</v>
       </c>
-      <c r="D22" s="287" t="s">
+      <c r="D22" s="286" t="s">
         <v>126</v>
       </c>
-      <c r="E22" s="287" t="s">
+      <c r="E22" s="286" t="s">
         <v>126</v>
       </c>
-      <c r="F22" s="287" t="s">
+      <c r="F22" s="286" t="s">
         <v>126</v>
       </c>
-      <c r="G22" s="287" t="s">
+      <c r="G22" s="286" t="s">
         <v>126</v>
       </c>
-      <c r="H22" s="287" t="s">
+      <c r="H22" s="286" t="s">
         <v>126</v>
       </c>
-      <c r="I22" s="287" t="s">
+      <c r="I22" s="286" t="s">
         <v>126</v>
       </c>
-      <c r="J22" s="287" t="s">
+      <c r="J22" s="286" t="s">
         <v>126</v>
       </c>
-      <c r="K22" s="287" t="s">
+      <c r="K22" s="286" t="s">
         <v>126</v>
       </c>
     </row>
@@ -10668,12 +10674,12 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
-    <tabColor rgb="FF00B050"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView topLeftCell="I22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -10740,7 +10746,7 @@
       <c r="N1" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="177" t="s">
+      <c r="O1" s="176" t="s">
         <v>123</v>
       </c>
       <c r="P1" s="108"/>
@@ -10780,16 +10786,16 @@
       <c r="K2" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="171" t="s">
+      <c r="L2" s="170" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="173" t="s">
+      <c r="M2" s="172" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="174" t="s">
+      <c r="N2" s="173" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="172" t="s">
+      <c r="O2" s="171" t="s">
         <v>100</v>
       </c>
       <c r="P2" s="108"/>
@@ -10839,7 +10845,7 @@
       <c r="N3" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="O3" s="175" t="s">
+      <c r="O3" s="174" t="s">
         <v>100</v>
       </c>
       <c r="P3" s="50"/>
@@ -10851,43 +10857,43 @@
         <v>22</v>
       </c>
       <c r="B4" s="57"/>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="288" t="s">
         <v>126</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="288" t="s">
         <v>126</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="288" t="s">
         <v>126</v>
       </c>
       <c r="F4" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="G4" s="59" t="s">
+      <c r="G4" s="288" t="s">
         <v>126</v>
       </c>
       <c r="H4" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="I4" s="59" t="s">
+      <c r="I4" s="288" t="s">
         <v>126</v>
       </c>
-      <c r="J4" s="59" t="s">
+      <c r="J4" s="288" t="s">
         <v>126</v>
       </c>
-      <c r="K4" s="56" t="s">
+      <c r="K4" s="289" t="s">
         <v>126</v>
       </c>
-      <c r="L4" s="170" t="s">
+      <c r="L4" s="290" t="s">
         <v>126</v>
       </c>
-      <c r="M4" s="170" t="s">
+      <c r="M4" s="290" t="s">
         <v>126</v>
       </c>
-      <c r="N4" s="170" t="s">
+      <c r="N4" s="290" t="s">
         <v>126</v>
       </c>
-      <c r="O4" s="176" t="s">
+      <c r="O4" s="175" t="s">
         <v>100</v>
       </c>
       <c r="P4" s="49"/>
@@ -10977,18 +10983,18 @@
     <row r="9" spans="1:18" ht="15.75">
       <c r="A9" s="63"/>
       <c r="B9" s="53"/>
-      <c r="C9" s="291"/>
-      <c r="D9" s="291"/>
-      <c r="E9" s="291"/>
-      <c r="F9" s="291" t="s">
+      <c r="C9" s="294"/>
+      <c r="D9" s="294"/>
+      <c r="E9" s="294"/>
+      <c r="F9" s="294" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="291"/>
-      <c r="H9" s="291"/>
-      <c r="I9" s="291"/>
-      <c r="J9" s="291"/>
-      <c r="K9" s="291"/>
-      <c r="L9" s="291"/>
+      <c r="G9" s="294"/>
+      <c r="H9" s="294"/>
+      <c r="I9" s="294"/>
+      <c r="J9" s="294"/>
+      <c r="K9" s="294"/>
+      <c r="L9" s="294"/>
       <c r="M9" s="54" t="s">
         <v>26</v>
       </c>
@@ -11043,7 +11049,7 @@
       <c r="N10" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="177" t="s">
+      <c r="O10" s="176" t="s">
         <v>123</v>
       </c>
       <c r="P10" s="49"/>
@@ -11093,7 +11099,7 @@
       <c r="N11" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="O11" s="186" t="s">
+      <c r="O11" s="185" t="s">
         <v>100</v>
       </c>
       <c r="P11" s="49"/>
@@ -11107,19 +11113,43 @@
       <c r="B12" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="175" t="s">
+      <c r="C12" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="O12" s="174" t="s">
         <v>100</v>
       </c>
       <c r="P12" s="51"/>
@@ -11131,19 +11161,43 @@
         <v>22</v>
       </c>
       <c r="B13" s="57"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="170"/>
-      <c r="M13" s="170"/>
-      <c r="N13" s="170"/>
-      <c r="O13" s="176" t="s">
+      <c r="C13" s="288" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="288" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" s="288" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" s="288" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" s="288" t="s">
+        <v>126</v>
+      </c>
+      <c r="H13" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="I13" s="288" t="s">
+        <v>126</v>
+      </c>
+      <c r="J13" s="288" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" s="289" t="s">
+        <v>126</v>
+      </c>
+      <c r="L13" s="290" t="s">
+        <v>126</v>
+      </c>
+      <c r="M13" s="290" t="s">
+        <v>126</v>
+      </c>
+      <c r="N13" s="290" t="s">
+        <v>126</v>
+      </c>
+      <c r="O13" s="175" t="s">
         <v>100</v>
       </c>
       <c r="P13" s="49"/>
@@ -11235,18 +11289,18 @@
         <v>37</v>
       </c>
       <c r="B18" s="53"/>
-      <c r="C18" s="291"/>
-      <c r="D18" s="291"/>
-      <c r="E18" s="291"/>
-      <c r="F18" s="291" t="s">
+      <c r="C18" s="294"/>
+      <c r="D18" s="294"/>
+      <c r="E18" s="294"/>
+      <c r="F18" s="294" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="291"/>
-      <c r="H18" s="291"/>
-      <c r="I18" s="291"/>
-      <c r="J18" s="291"/>
-      <c r="K18" s="291"/>
-      <c r="L18" s="291"/>
+      <c r="G18" s="294"/>
+      <c r="H18" s="294"/>
+      <c r="I18" s="294"/>
+      <c r="J18" s="294"/>
+      <c r="K18" s="294"/>
+      <c r="L18" s="294"/>
       <c r="M18" s="54"/>
       <c r="N18" s="52"/>
       <c r="O18" s="169"/>
@@ -11289,10 +11343,10 @@
         <v>124</v>
       </c>
       <c r="L19" s="54" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="M19" s="54" t="s">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="N19" s="54" t="s">
         <v>12</v>
@@ -11361,23 +11415,45 @@
       <c r="B21" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
+      <c r="C21" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="56" t="s">
+        <v>48</v>
+      </c>
       <c r="L21" s="54" t="s">
         <v>127</v>
       </c>
       <c r="M21" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="N21" s="54"/>
-      <c r="O21" s="169"/>
+      <c r="N21" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="O21" s="169" t="s">
+        <v>183</v>
+      </c>
       <c r="P21" s="49"/>
       <c r="Q21" s="49"/>
       <c r="R21" s="49"/>
@@ -11387,23 +11463,45 @@
         <v>22</v>
       </c>
       <c r="B22" s="57"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="56"/>
+      <c r="C22" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="288" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="288" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="G22" s="288" t="s">
+        <v>126</v>
+      </c>
+      <c r="H22" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="I22" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="J22" s="288" t="s">
+        <v>126</v>
+      </c>
+      <c r="K22" s="289" t="s">
+        <v>126</v>
+      </c>
       <c r="L22" s="54" t="s">
         <v>127</v>
       </c>
       <c r="M22" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="N22" s="170"/>
-      <c r="O22" s="169"/>
+      <c r="N22" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="O22" s="291" t="s">
+        <v>126</v>
+      </c>
       <c r="P22" s="49"/>
       <c r="Q22" s="49"/>
       <c r="R22" s="49"/>
@@ -11493,19 +11591,19 @@
         <v>49</v>
       </c>
       <c r="B27" s="53"/>
-      <c r="C27" s="291"/>
-      <c r="D27" s="291"/>
-      <c r="E27" s="291"/>
-      <c r="F27" s="291" t="s">
+      <c r="C27" s="294"/>
+      <c r="D27" s="294"/>
+      <c r="E27" s="294"/>
+      <c r="F27" s="294" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="291"/>
-      <c r="H27" s="291"/>
-      <c r="I27" s="291"/>
-      <c r="J27" s="291"/>
-      <c r="K27" s="291"/>
-      <c r="L27" s="292"/>
-      <c r="M27" s="171"/>
+      <c r="G27" s="294"/>
+      <c r="H27" s="294"/>
+      <c r="I27" s="294"/>
+      <c r="J27" s="294"/>
+      <c r="K27" s="294"/>
+      <c r="L27" s="295"/>
+      <c r="M27" s="170"/>
       <c r="N27" s="52"/>
       <c r="O27" s="169"/>
       <c r="P27" s="49"/>
@@ -11547,10 +11645,10 @@
         <v>124</v>
       </c>
       <c r="L28" s="54" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="M28" s="54" t="s">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="N28" s="54" t="s">
         <v>12</v>
@@ -11634,7 +11732,9 @@
       <c r="M30" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="N30" s="54"/>
+      <c r="N30" s="54" t="s">
+        <v>40</v>
+      </c>
       <c r="O30" s="169"/>
       <c r="P30" s="49"/>
       <c r="Q30" s="49"/>
@@ -11645,23 +11745,45 @@
         <v>22</v>
       </c>
       <c r="B31" s="57"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
+      <c r="C31" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" s="288" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" s="288" t="s">
+        <v>126</v>
+      </c>
+      <c r="F31" s="288" t="s">
+        <v>126</v>
+      </c>
+      <c r="G31" s="288" t="s">
+        <v>126</v>
+      </c>
+      <c r="H31" s="288" t="s">
+        <v>126</v>
+      </c>
+      <c r="I31" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="J31" s="288" t="s">
+        <v>126</v>
+      </c>
+      <c r="K31" s="288" t="s">
+        <v>126</v>
+      </c>
       <c r="L31" s="54" t="s">
         <v>127</v>
       </c>
       <c r="M31" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="N31" s="170"/>
-      <c r="O31" s="169"/>
+      <c r="N31" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="O31" s="291" t="s">
+        <v>126</v>
+      </c>
       <c r="P31" s="49"/>
       <c r="Q31" s="49" t="s">
         <v>119</v>
@@ -11843,8 +11965,8 @@
   </sheetPr>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:E11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -11934,7 +12056,7 @@
       <c r="K2" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="189"/>
+      <c r="L2" s="188"/>
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="23.25" customHeight="1">
@@ -11944,34 +12066,16 @@
       <c r="B3" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="71" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="71" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="71" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="71" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="71" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="J3" s="71" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" s="187" t="s">
-        <v>53</v>
-      </c>
-      <c r="L3" s="189"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="186"/>
+      <c r="L3" s="188"/>
       <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="21.75" customHeight="1">
@@ -11979,34 +12083,16 @@
         <v>22</v>
       </c>
       <c r="B4" s="68"/>
-      <c r="C4" s="72" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" s="72" t="s">
-        <v>119</v>
-      </c>
-      <c r="E4" s="72" t="s">
-        <v>119</v>
-      </c>
-      <c r="F4" s="72" t="s">
-        <v>119</v>
-      </c>
-      <c r="G4" s="72" t="s">
-        <v>119</v>
-      </c>
-      <c r="H4" s="72" t="s">
-        <v>119</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="J4" s="72" t="s">
-        <v>119</v>
-      </c>
-      <c r="K4" s="188" t="s">
-        <v>119</v>
-      </c>
-      <c r="L4" s="189"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="187"/>
+      <c r="L4" s="188"/>
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:13">
@@ -12021,7 +12107,7 @@
       <c r="I5" s="70"/>
       <c r="J5" s="70"/>
       <c r="K5" s="69"/>
-      <c r="L5" s="189"/>
+      <c r="L5" s="188"/>
       <c r="M5" s="13"/>
     </row>
     <row r="6" spans="1:13">
@@ -12036,7 +12122,7 @@
       <c r="I6" s="69"/>
       <c r="J6" s="69"/>
       <c r="K6" s="66"/>
-      <c r="L6" s="189"/>
+      <c r="L6" s="188"/>
       <c r="M6" s="13"/>
     </row>
     <row r="7" spans="1:13">
@@ -12051,7 +12137,7 @@
       <c r="I7" s="66"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
-      <c r="L7" s="189"/>
+      <c r="L7" s="188"/>
       <c r="M7" s="13"/>
     </row>
     <row r="8" spans="1:13">
@@ -12066,7 +12152,7 @@
       <c r="I8" s="66"/>
       <c r="J8" s="66"/>
       <c r="K8" s="66"/>
-      <c r="L8" s="189"/>
+      <c r="L8" s="188"/>
       <c r="M8" s="13"/>
     </row>
     <row r="9" spans="1:13">
@@ -12074,20 +12160,20 @@
         <v>23</v>
       </c>
       <c r="B9" s="34"/>
-      <c r="C9" s="289"/>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="289" t="s">
+      <c r="C9" s="292"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="289"/>
-      <c r="H9" s="289"/>
-      <c r="I9" s="289"/>
-      <c r="J9" s="289"/>
+      <c r="G9" s="292"/>
+      <c r="H9" s="292"/>
+      <c r="I9" s="292"/>
+      <c r="J9" s="292"/>
       <c r="K9" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="L9" s="189"/>
+      <c r="L9" s="188"/>
       <c r="M9" s="13"/>
     </row>
     <row r="10" spans="1:13" ht="24" customHeight="1">
@@ -12124,7 +12210,7 @@
       <c r="K10" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="189"/>
+      <c r="L10" s="188"/>
       <c r="M10" s="13"/>
     </row>
     <row r="11" spans="1:13" ht="22.5" customHeight="1">
@@ -12161,7 +12247,7 @@
       <c r="K11" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="L11" s="189"/>
+      <c r="L11" s="188"/>
       <c r="M11" s="13"/>
     </row>
     <row r="12" spans="1:13" ht="21" customHeight="1">
@@ -12169,67 +12255,31 @@
       <c r="B12" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="71" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="J12" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="K12" s="187" t="s">
-        <v>57</v>
-      </c>
-      <c r="L12" s="189"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="186"/>
+      <c r="L12" s="188"/>
       <c r="M12" s="13"/>
     </row>
     <row r="13" spans="1:13" ht="20.25" customHeight="1">
       <c r="A13" s="68"/>
       <c r="B13" s="68"/>
-      <c r="C13" s="72" t="s">
-        <v>119</v>
-      </c>
-      <c r="D13" s="72" t="s">
-        <v>119</v>
-      </c>
-      <c r="E13" s="72" t="s">
-        <v>119</v>
-      </c>
-      <c r="F13" s="72" t="s">
-        <v>119</v>
-      </c>
-      <c r="G13" s="72" t="s">
-        <v>119</v>
-      </c>
-      <c r="H13" s="72" t="s">
-        <v>119</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="J13" s="72" t="s">
-        <v>119</v>
-      </c>
-      <c r="K13" s="188" t="s">
-        <v>119</v>
-      </c>
-      <c r="L13" s="189"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="187"/>
+      <c r="L13" s="188"/>
       <c r="M13" s="13"/>
     </row>
     <row r="14" spans="1:13">
@@ -12244,7 +12294,7 @@
       <c r="I14" s="66"/>
       <c r="J14" s="66"/>
       <c r="K14" s="66"/>
-      <c r="L14" s="189"/>
+      <c r="L14" s="188"/>
       <c r="M14" s="13"/>
     </row>
     <row r="15" spans="1:13">
@@ -12259,7 +12309,7 @@
       <c r="I15" s="66"/>
       <c r="J15" s="66"/>
       <c r="K15" s="66"/>
-      <c r="L15" s="189"/>
+      <c r="L15" s="188"/>
       <c r="M15" s="13"/>
     </row>
     <row r="16" spans="1:13">
@@ -12274,7 +12324,7 @@
       <c r="I16" s="66"/>
       <c r="J16" s="66"/>
       <c r="K16" s="66"/>
-      <c r="L16" s="189"/>
+      <c r="L16" s="188"/>
       <c r="M16" s="13"/>
     </row>
     <row r="17" spans="1:13">
@@ -12289,7 +12339,7 @@
       <c r="I17" s="66"/>
       <c r="J17" s="66"/>
       <c r="K17" s="66"/>
-      <c r="L17" s="189"/>
+      <c r="L17" s="188"/>
       <c r="M17" s="13"/>
     </row>
     <row r="18" spans="1:13">
@@ -12297,20 +12347,20 @@
         <v>37</v>
       </c>
       <c r="B18" s="34"/>
-      <c r="C18" s="289"/>
-      <c r="D18" s="289"/>
-      <c r="E18" s="289"/>
-      <c r="F18" s="289" t="s">
+      <c r="C18" s="292"/>
+      <c r="D18" s="292"/>
+      <c r="E18" s="292"/>
+      <c r="F18" s="292" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="289"/>
-      <c r="H18" s="289"/>
-      <c r="I18" s="289"/>
-      <c r="J18" s="289"/>
+      <c r="G18" s="292"/>
+      <c r="H18" s="292"/>
+      <c r="I18" s="292"/>
+      <c r="J18" s="292"/>
       <c r="K18" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="L18" s="189"/>
+      <c r="L18" s="188"/>
       <c r="M18" s="13"/>
     </row>
     <row r="19" spans="1:13" ht="30">
@@ -12392,34 +12442,16 @@
       <c r="B21" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="71" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="H21" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="I21" s="71" t="s">
-        <v>62</v>
-      </c>
-      <c r="J21" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="K21" s="187" t="s">
-        <v>57</v>
-      </c>
-      <c r="L21" s="190"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="186"/>
+      <c r="L21" s="189"/>
       <c r="M21" s="13"/>
     </row>
     <row r="22" spans="1:13" ht="22.5" customHeight="1">
@@ -12427,34 +12459,16 @@
         <v>22</v>
       </c>
       <c r="B22" s="68"/>
-      <c r="C22" s="71" t="s">
-        <v>126</v>
-      </c>
-      <c r="D22" s="71" t="s">
-        <v>126</v>
-      </c>
-      <c r="E22" s="72" t="s">
-        <v>119</v>
-      </c>
-      <c r="F22" s="72" t="s">
-        <v>126</v>
-      </c>
-      <c r="G22" s="72" t="s">
-        <v>126</v>
-      </c>
-      <c r="H22" s="72" t="s">
-        <v>119</v>
-      </c>
-      <c r="I22" s="72" t="s">
-        <v>119</v>
-      </c>
-      <c r="J22" s="71" t="s">
-        <v>126</v>
-      </c>
-      <c r="K22" s="187" t="s">
-        <v>126</v>
-      </c>
-      <c r="L22" s="190"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="186"/>
+      <c r="L22" s="189"/>
       <c r="M22" s="13"/>
     </row>
     <row r="23" spans="1:13">
@@ -12469,7 +12483,7 @@
       <c r="I23" s="66"/>
       <c r="J23" s="66"/>
       <c r="K23" s="66"/>
-      <c r="L23" s="189"/>
+      <c r="L23" s="188"/>
       <c r="M23" s="13"/>
     </row>
     <row r="24" spans="1:13">
@@ -12484,7 +12498,7 @@
       <c r="I24" s="66"/>
       <c r="J24" s="66"/>
       <c r="K24" s="66"/>
-      <c r="L24" s="189"/>
+      <c r="L24" s="188"/>
       <c r="M24" s="13"/>
     </row>
     <row r="25" spans="1:13">
@@ -12499,7 +12513,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="180"/>
+      <c r="L25" s="179"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1"/>
@@ -12513,7 +12527,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="180"/>
+      <c r="L26" s="179"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -12747,15 +12761,15 @@
         <v>23</v>
       </c>
       <c r="B9" s="34"/>
-      <c r="C9" s="289"/>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="289" t="s">
+      <c r="C9" s="292"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="289"/>
-      <c r="H9" s="289"/>
-      <c r="I9" s="289"/>
+      <c r="G9" s="292"/>
+      <c r="H9" s="292"/>
+      <c r="I9" s="292"/>
       <c r="J9" s="6" t="s">
         <v>51</v>
       </c>
@@ -12957,15 +12971,15 @@
         <v>37</v>
       </c>
       <c r="B18" s="34"/>
-      <c r="C18" s="289"/>
-      <c r="D18" s="289"/>
-      <c r="E18" s="289"/>
-      <c r="F18" s="289" t="s">
+      <c r="C18" s="292"/>
+      <c r="D18" s="292"/>
+      <c r="E18" s="292"/>
+      <c r="F18" s="292" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="289"/>
-      <c r="H18" s="289"/>
-      <c r="I18" s="289"/>
+      <c r="G18" s="292"/>
+      <c r="H18" s="292"/>
+      <c r="I18" s="292"/>
       <c r="J18" s="6" t="s">
         <v>51</v>
       </c>
@@ -13199,7 +13213,7 @@
       <c r="C1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="191" t="s">
+      <c r="D1" s="190" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="55" t="s">
@@ -13214,16 +13228,16 @@
       <c r="H1" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="177" t="s">
+      <c r="I1" s="176" t="s">
         <v>121</v>
       </c>
-      <c r="J1" s="177" t="s">
+      <c r="J1" s="176" t="s">
         <v>122</v>
       </c>
-      <c r="K1" s="177" t="s">
+      <c r="K1" s="176" t="s">
         <v>124</v>
       </c>
-      <c r="L1" s="177" t="s">
+      <c r="L1" s="176" t="s">
         <v>123</v>
       </c>
       <c r="M1" s="118" t="s">
@@ -13232,16 +13246,16 @@
       <c r="N1" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="222"/>
+      <c r="O1" s="221"/>
     </row>
     <row r="2" spans="1:17" s="85" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="193" t="s">
+      <c r="A2" s="192" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="192" t="s">
+      <c r="C2" s="191" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="23" t="s">
@@ -13250,85 +13264,85 @@
       <c r="E2" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="192" t="s">
+      <c r="F2" s="191" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="192" t="s">
+      <c r="G2" s="191" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="192" t="s">
+      <c r="H2" s="191" t="s">
         <v>71</v>
       </c>
-      <c r="I2" s="192" t="s">
+      <c r="I2" s="191" t="s">
         <v>100</v>
       </c>
-      <c r="J2" s="192" t="s">
+      <c r="J2" s="191" t="s">
         <v>100</v>
       </c>
-      <c r="K2" s="192" t="s">
+      <c r="K2" s="191" t="s">
         <v>100</v>
       </c>
-      <c r="L2" s="192" t="s">
+      <c r="L2" s="191" t="s">
         <v>100</v>
       </c>
-      <c r="M2" s="192" t="s">
+      <c r="M2" s="191" t="s">
         <v>15</v>
       </c>
       <c r="N2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="222"/>
+      <c r="O2" s="221"/>
       <c r="P2" s="88"/>
       <c r="Q2" s="88"/>
     </row>
     <row r="3" spans="1:17" s="85" customFormat="1" ht="32.450000000000003" customHeight="1">
-      <c r="A3" s="193" t="s">
+      <c r="A3" s="192" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="193" t="s">
+      <c r="C3" s="192" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="193" t="s">
+      <c r="D3" s="192" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="193" t="s">
+      <c r="E3" s="192" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="193" t="s">
+      <c r="F3" s="192" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="193" t="s">
+      <c r="G3" s="192" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="193" t="s">
+      <c r="H3" s="192" t="s">
         <v>71</v>
       </c>
-      <c r="I3" s="228" t="s">
+      <c r="I3" s="227" t="s">
         <v>100</v>
       </c>
-      <c r="J3" s="228" t="s">
+      <c r="J3" s="227" t="s">
         <v>100</v>
       </c>
-      <c r="K3" s="228" t="s">
+      <c r="K3" s="227" t="s">
         <v>100</v>
       </c>
-      <c r="L3" s="228" t="s">
+      <c r="L3" s="227" t="s">
         <v>100</v>
       </c>
-      <c r="M3" s="215"/>
-      <c r="N3" s="221"/>
-      <c r="O3" s="223"/>
+      <c r="M3" s="214"/>
+      <c r="N3" s="220"/>
+      <c r="O3" s="222"/>
       <c r="P3" s="88"/>
       <c r="Q3" s="88"/>
     </row>
     <row r="4" spans="1:17" s="85" customFormat="1" ht="28.9" customHeight="1">
-      <c r="A4" s="193" t="s">
+      <c r="A4" s="192" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="193"/>
+      <c r="B4" s="192"/>
       <c r="C4" s="23" t="s">
         <v>119</v>
       </c>
@@ -13347,21 +13361,21 @@
       <c r="H4" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="I4" s="228" t="s">
+      <c r="I4" s="227" t="s">
         <v>100</v>
       </c>
-      <c r="J4" s="228" t="s">
+      <c r="J4" s="227" t="s">
         <v>100</v>
       </c>
-      <c r="K4" s="228" t="s">
+      <c r="K4" s="227" t="s">
         <v>100</v>
       </c>
-      <c r="L4" s="228" t="s">
+      <c r="L4" s="227" t="s">
         <v>100</v>
       </c>
-      <c r="M4" s="215"/>
-      <c r="N4" s="221"/>
-      <c r="O4" s="223"/>
+      <c r="M4" s="214"/>
+      <c r="N4" s="220"/>
+      <c r="O4" s="222"/>
       <c r="P4" s="88"/>
       <c r="Q4" s="88"/>
     </row>
@@ -13380,7 +13394,7 @@
       <c r="L5" s="87"/>
       <c r="M5" s="87"/>
       <c r="N5" s="87"/>
-      <c r="O5" s="223"/>
+      <c r="O5" s="222"/>
       <c r="P5" s="88"/>
       <c r="Q5" s="88"/>
     </row>
@@ -13399,7 +13413,7 @@
       <c r="L6" s="87"/>
       <c r="M6" s="87"/>
       <c r="N6" s="87"/>
-      <c r="O6" s="223"/>
+      <c r="O6" s="222"/>
       <c r="P6" s="88"/>
       <c r="Q6" s="88"/>
     </row>
@@ -13418,7 +13432,7 @@
       <c r="L7" s="87"/>
       <c r="M7" s="87"/>
       <c r="N7" s="87"/>
-      <c r="O7" s="223"/>
+      <c r="O7" s="222"/>
       <c r="P7" s="88"/>
       <c r="Q7" s="88"/>
     </row>
@@ -13437,7 +13451,7 @@
       <c r="L8" s="87"/>
       <c r="M8" s="87"/>
       <c r="N8" s="87"/>
-      <c r="O8" s="223"/>
+      <c r="O8" s="222"/>
       <c r="P8" s="88"/>
       <c r="Q8" s="88"/>
     </row>
@@ -13446,15 +13460,15 @@
         <v>23</v>
       </c>
       <c r="B9" s="34"/>
-      <c r="C9" s="289"/>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="289" t="s">
+      <c r="C9" s="292"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="289"/>
-      <c r="H9" s="289"/>
-      <c r="I9" s="289"/>
+      <c r="G9" s="292"/>
+      <c r="H9" s="292"/>
+      <c r="I9" s="292"/>
       <c r="J9" s="6" t="s">
         <v>27</v>
       </c>
@@ -13462,7 +13476,7 @@
       <c r="L9" s="87"/>
       <c r="M9" s="87"/>
       <c r="N9" s="87"/>
-      <c r="O9" s="223"/>
+      <c r="O9" s="222"/>
       <c r="P9" s="88"/>
       <c r="Q9" s="88"/>
     </row>
@@ -13491,16 +13505,16 @@
       <c r="H10" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="194" t="s">
+      <c r="I10" s="193" t="s">
         <v>121</v>
       </c>
-      <c r="J10" s="194" t="s">
+      <c r="J10" s="193" t="s">
         <v>122</v>
       </c>
-      <c r="K10" s="194" t="s">
+      <c r="K10" s="193" t="s">
         <v>124</v>
       </c>
-      <c r="L10" s="194" t="s">
+      <c r="L10" s="193" t="s">
         <v>123</v>
       </c>
       <c r="M10" s="118" t="s">
@@ -13509,7 +13523,7 @@
       <c r="N10" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="222"/>
+      <c r="O10" s="221"/>
       <c r="P10" s="88"/>
       <c r="Q10" s="88"/>
     </row>
@@ -13538,16 +13552,16 @@
       <c r="H11" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="I11" s="195" t="s">
+      <c r="I11" s="194" t="s">
         <v>100</v>
       </c>
-      <c r="J11" s="195" t="s">
+      <c r="J11" s="194" t="s">
         <v>100</v>
       </c>
-      <c r="K11" s="195" t="s">
+      <c r="K11" s="194" t="s">
         <v>100</v>
       </c>
-      <c r="L11" s="195" t="s">
+      <c r="L11" s="194" t="s">
         <v>100</v>
       </c>
       <c r="M11" s="6" t="s">
@@ -13556,7 +13570,7 @@
       <c r="N11" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="O11" s="222"/>
+      <c r="O11" s="221"/>
       <c r="Q11" s="88"/>
     </row>
     <row r="12" spans="1:17" s="85" customFormat="1" ht="23.25" customHeight="1">
@@ -13572,13 +13586,13 @@
       <c r="F12" s="86"/>
       <c r="G12" s="86"/>
       <c r="H12" s="86"/>
-      <c r="I12" s="195"/>
-      <c r="J12" s="195"/>
-      <c r="K12" s="195"/>
-      <c r="L12" s="195"/>
+      <c r="I12" s="194"/>
+      <c r="J12" s="194"/>
+      <c r="K12" s="194"/>
+      <c r="L12" s="194"/>
       <c r="M12" s="86"/>
-      <c r="N12" s="221"/>
-      <c r="O12" s="222"/>
+      <c r="N12" s="220"/>
+      <c r="O12" s="221"/>
       <c r="Q12" s="88"/>
     </row>
     <row r="13" spans="1:17" s="85" customFormat="1" ht="30" customHeight="1">
@@ -13592,13 +13606,13 @@
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
       <c r="H13" s="23"/>
-      <c r="I13" s="195"/>
-      <c r="J13" s="195"/>
-      <c r="K13" s="195"/>
-      <c r="L13" s="195"/>
+      <c r="I13" s="194"/>
+      <c r="J13" s="194"/>
+      <c r="K13" s="194"/>
+      <c r="L13" s="194"/>
       <c r="M13" s="23"/>
       <c r="N13" s="115"/>
-      <c r="O13" s="222"/>
+      <c r="O13" s="221"/>
       <c r="Q13" s="88"/>
     </row>
     <row r="14" spans="1:17" s="85" customFormat="1">
@@ -13613,7 +13627,7 @@
       <c r="I14" s="87"/>
       <c r="J14" s="87"/>
       <c r="K14" s="87"/>
-      <c r="O14" s="222"/>
+      <c r="O14" s="221"/>
       <c r="Q14" s="88"/>
     </row>
     <row r="15" spans="1:17" s="85" customFormat="1">
@@ -13631,7 +13645,7 @@
       <c r="L15" s="87"/>
       <c r="M15" s="87"/>
       <c r="N15" s="87"/>
-      <c r="O15" s="223"/>
+      <c r="O15" s="222"/>
       <c r="P15" s="88"/>
       <c r="Q15" s="88"/>
     </row>
@@ -13648,7 +13662,7 @@
       <c r="L16" s="87"/>
       <c r="M16" s="87"/>
       <c r="N16" s="87"/>
-      <c r="O16" s="223"/>
+      <c r="O16" s="222"/>
       <c r="P16" s="88"/>
       <c r="Q16" s="88"/>
     </row>
@@ -13667,7 +13681,7 @@
       <c r="L17" s="87"/>
       <c r="M17" s="87"/>
       <c r="N17" s="87"/>
-      <c r="O17" s="223"/>
+      <c r="O17" s="222"/>
       <c r="P17" s="88"/>
       <c r="Q17" s="88"/>
     </row>
@@ -13676,21 +13690,21 @@
         <v>37</v>
       </c>
       <c r="B18" s="34"/>
-      <c r="C18" s="289"/>
-      <c r="D18" s="289"/>
-      <c r="E18" s="289"/>
-      <c r="F18" s="289" t="s">
+      <c r="C18" s="292"/>
+      <c r="D18" s="292"/>
+      <c r="E18" s="292"/>
+      <c r="F18" s="292" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="289"/>
-      <c r="H18" s="289"/>
-      <c r="I18" s="289"/>
+      <c r="G18" s="292"/>
+      <c r="H18" s="292"/>
+      <c r="I18" s="292"/>
       <c r="J18" s="89"/>
-      <c r="K18" s="294" t="s">
+      <c r="K18" s="297" t="s">
         <v>73</v>
       </c>
-      <c r="L18" s="295"/>
-      <c r="M18" s="218"/>
+      <c r="L18" s="298"/>
+      <c r="M18" s="217"/>
       <c r="N18" s="113"/>
       <c r="O18" s="107"/>
       <c r="P18" s="116"/>
@@ -13739,7 +13753,7 @@
       <c r="N19" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="O19" s="222"/>
+      <c r="O19" s="221"/>
       <c r="Q19" s="88"/>
     </row>
     <row r="20" spans="1:17" s="85" customFormat="1" ht="22.5" customHeight="1">
@@ -13776,10 +13790,10 @@
       <c r="K20" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="L20" s="220"/>
-      <c r="M20" s="220"/>
-      <c r="N20" s="227"/>
-      <c r="O20" s="222"/>
+      <c r="L20" s="219"/>
+      <c r="M20" s="219"/>
+      <c r="N20" s="226"/>
+      <c r="O20" s="221"/>
       <c r="P20" s="116"/>
       <c r="Q20" s="88"/>
     </row>
@@ -13815,8 +13829,8 @@
         <v>128</v>
       </c>
       <c r="M21" s="112"/>
-      <c r="N21" s="227"/>
-      <c r="O21" s="222"/>
+      <c r="N21" s="226"/>
+      <c r="O21" s="221"/>
       <c r="P21" s="116"/>
       <c r="Q21" s="88"/>
     </row>
@@ -13845,8 +13859,8 @@
       </c>
       <c r="L22" s="23"/>
       <c r="M22" s="23"/>
-      <c r="N22" s="227"/>
-      <c r="O22" s="222"/>
+      <c r="N22" s="226"/>
+      <c r="O22" s="221"/>
       <c r="P22" s="116"/>
       <c r="Q22" s="88"/>
     </row>
@@ -13864,8 +13878,8 @@
       <c r="K23" s="112"/>
       <c r="L23" s="112"/>
       <c r="M23" s="112"/>
-      <c r="N23" s="227"/>
-      <c r="O23" s="222"/>
+      <c r="N23" s="226"/>
+      <c r="O23" s="221"/>
       <c r="P23" s="88"/>
       <c r="Q23" s="88"/>
     </row>
@@ -13884,7 +13898,7 @@
       <c r="L24" s="87"/>
       <c r="M24" s="87"/>
       <c r="N24" s="87"/>
-      <c r="O24" s="223"/>
+      <c r="O24" s="222"/>
       <c r="P24" s="88"/>
       <c r="Q24" s="88"/>
     </row>
@@ -13903,7 +13917,7 @@
       <c r="L25" s="87"/>
       <c r="M25" s="87"/>
       <c r="N25" s="87"/>
-      <c r="O25" s="223"/>
+      <c r="O25" s="222"/>
       <c r="P25" s="87"/>
       <c r="Q25" s="88"/>
     </row>
@@ -13922,7 +13936,7 @@
       <c r="L26" s="87"/>
       <c r="M26" s="87"/>
       <c r="N26" s="87"/>
-      <c r="O26" s="223"/>
+      <c r="O26" s="222"/>
       <c r="P26" s="87"/>
       <c r="Q26" s="88"/>
     </row>
@@ -13931,25 +13945,25 @@
         <v>74</v>
       </c>
       <c r="B27" s="34"/>
-      <c r="C27" s="289"/>
-      <c r="D27" s="289"/>
-      <c r="E27" s="289"/>
-      <c r="F27" s="289" t="s">
+      <c r="C27" s="292"/>
+      <c r="D27" s="292"/>
+      <c r="E27" s="292"/>
+      <c r="F27" s="292" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="289"/>
-      <c r="H27" s="289"/>
-      <c r="I27" s="289"/>
-      <c r="J27" s="293" t="s">
+      <c r="G27" s="292"/>
+      <c r="H27" s="292"/>
+      <c r="I27" s="292"/>
+      <c r="J27" s="296" t="s">
         <v>73</v>
       </c>
-      <c r="K27" s="293"/>
+      <c r="K27" s="296"/>
       <c r="L27" s="86"/>
-      <c r="M27" s="216"/>
-      <c r="N27" s="225" t="s">
+      <c r="M27" s="215"/>
+      <c r="N27" s="224" t="s">
         <v>75</v>
       </c>
-      <c r="O27" s="226"/>
+      <c r="O27" s="225"/>
       <c r="P27" s="87"/>
       <c r="Q27" s="88"/>
     </row>
@@ -13996,7 +14010,7 @@
       <c r="N28" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="O28" s="222"/>
+      <c r="O28" s="221"/>
       <c r="P28" s="87"/>
       <c r="Q28" s="88"/>
     </row>
@@ -14043,7 +14057,7 @@
       <c r="N29" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="O29" s="222"/>
+      <c r="O29" s="221"/>
       <c r="P29" s="87"/>
       <c r="Q29" s="88"/>
     </row>
@@ -14065,8 +14079,8 @@
       <c r="K30" s="86"/>
       <c r="L30" s="86"/>
       <c r="M30" s="86"/>
-      <c r="N30" s="221"/>
-      <c r="O30" s="222"/>
+      <c r="N30" s="220"/>
+      <c r="O30" s="221"/>
       <c r="P30" s="87"/>
       <c r="Q30" s="88"/>
     </row>
@@ -14106,7 +14120,7 @@
       <c r="L32" s="84"/>
       <c r="M32" s="84"/>
       <c r="N32" s="84"/>
-      <c r="O32" s="224"/>
+      <c r="O32" s="223"/>
       <c r="P32" s="84"/>
     </row>
     <row r="33" spans="1:16" s="85" customFormat="1">
@@ -14124,7 +14138,7 @@
       <c r="L33" s="84"/>
       <c r="M33" s="84"/>
       <c r="N33" s="84"/>
-      <c r="O33" s="224"/>
+      <c r="O33" s="223"/>
       <c r="P33" s="84"/>
     </row>
     <row r="34" spans="1:16" s="85" customFormat="1">
@@ -14137,7 +14151,7 @@
       <c r="G34" s="84"/>
       <c r="H34" s="84"/>
       <c r="N34" s="84"/>
-      <c r="O34" s="224"/>
+      <c r="O34" s="223"/>
       <c r="P34" s="84"/>
     </row>
     <row r="35" spans="1:16" s="85" customFormat="1">
@@ -14150,7 +14164,7 @@
       <c r="G35" s="84"/>
       <c r="H35" s="84"/>
       <c r="N35" s="84"/>
-      <c r="O35" s="224"/>
+      <c r="O35" s="223"/>
       <c r="P35" s="84"/>
     </row>
   </sheetData>
@@ -14208,7 +14222,7 @@
       <c r="C1" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="217" t="s">
+      <c r="D1" s="216" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="118" t="s">
@@ -14232,9 +14246,9 @@
       <c r="K1" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="200"/>
-      <c r="M1" s="200"/>
-      <c r="N1" s="200"/>
+      <c r="L1" s="199"/>
+      <c r="M1" s="199"/>
+      <c r="N1" s="199"/>
       <c r="O1" s="123"/>
       <c r="P1" s="123"/>
       <c r="Q1" s="123"/>
@@ -14271,12 +14285,12 @@
       <c r="J2" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="217" t="s">
+      <c r="K2" s="216" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="200"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="200"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="199"/>
+      <c r="N2" s="199"/>
       <c r="O2" s="123"/>
       <c r="P2" s="123"/>
       <c r="Q2" s="123"/>
@@ -14299,8 +14313,8 @@
       <c r="J3" s="130"/>
       <c r="K3" s="130"/>
       <c r="L3" s="129"/>
-      <c r="M3" s="200"/>
-      <c r="N3" s="200"/>
+      <c r="M3" s="199"/>
+      <c r="N3" s="199"/>
       <c r="O3" s="123"/>
       <c r="P3" s="123"/>
       <c r="Q3" s="123"/>
@@ -14320,9 +14334,9 @@
       <c r="I4" s="130"/>
       <c r="J4" s="130"/>
       <c r="K4" s="137"/>
-      <c r="L4" s="219"/>
-      <c r="M4" s="200"/>
-      <c r="N4" s="200"/>
+      <c r="L4" s="218"/>
+      <c r="M4" s="199"/>
+      <c r="N4" s="199"/>
       <c r="O4" s="123"/>
       <c r="P4" s="123"/>
       <c r="Q4" s="123"/>
@@ -14413,18 +14427,18 @@
         <v>23</v>
       </c>
       <c r="B9" s="135"/>
-      <c r="C9" s="296"/>
-      <c r="D9" s="296"/>
-      <c r="E9" s="298" t="s">
+      <c r="C9" s="299"/>
+      <c r="D9" s="299"/>
+      <c r="E9" s="301" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="298"/>
-      <c r="G9" s="298"/>
-      <c r="H9" s="206"/>
-      <c r="I9" s="206"/>
-      <c r="J9" s="206"/>
-      <c r="K9" s="206"/>
-      <c r="L9" s="201"/>
+      <c r="F9" s="301"/>
+      <c r="G9" s="301"/>
+      <c r="H9" s="205"/>
+      <c r="I9" s="205"/>
+      <c r="J9" s="205"/>
+      <c r="K9" s="205"/>
+      <c r="L9" s="200"/>
       <c r="M9" s="129"/>
       <c r="N9" s="129"/>
       <c r="O9" s="123"/>
@@ -14469,7 +14483,7 @@
       <c r="K10" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="202"/>
+      <c r="L10" s="201"/>
       <c r="M10" s="62"/>
       <c r="N10" s="62"/>
       <c r="O10" s="123"/>
@@ -14511,10 +14525,10 @@
       <c r="J11" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="196" t="s">
+      <c r="K11" s="195" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="202"/>
+      <c r="L11" s="201"/>
       <c r="M11" s="129"/>
       <c r="N11" s="129"/>
       <c r="O11" s="123"/>
@@ -14602,7 +14616,7 @@
       <c r="K13" s="132" t="s">
         <v>119</v>
       </c>
-      <c r="L13" s="205"/>
+      <c r="L13" s="204"/>
       <c r="M13" s="129"/>
       <c r="N13" s="129"/>
       <c r="O13" s="123"/>
@@ -14710,8 +14724,8 @@
         <v>37</v>
       </c>
       <c r="B18" s="135"/>
-      <c r="C18" s="296"/>
-      <c r="D18" s="296"/>
+      <c r="C18" s="299"/>
+      <c r="D18" s="299"/>
       <c r="E18" s="141" t="s">
         <v>25</v>
       </c>
@@ -14720,10 +14734,10 @@
       <c r="H18" s="141"/>
       <c r="I18" s="141"/>
       <c r="J18" s="141"/>
-      <c r="K18" s="203"/>
-      <c r="L18" s="201"/>
-      <c r="M18" s="201"/>
-      <c r="N18" s="201"/>
+      <c r="K18" s="202"/>
+      <c r="L18" s="200"/>
+      <c r="M18" s="200"/>
+      <c r="N18" s="200"/>
       <c r="P18" s="138"/>
       <c r="Q18" s="138"/>
       <c r="R18" s="138"/>
@@ -14806,7 +14820,7 @@
       <c r="J20" s="130" t="s">
         <v>139</v>
       </c>
-      <c r="K20" s="196" t="s">
+      <c r="K20" s="195" t="s">
         <v>40</v>
       </c>
       <c r="L20" s="144"/>
@@ -15005,20 +15019,20 @@
         <v>49</v>
       </c>
       <c r="B27" s="135"/>
-      <c r="C27" s="296"/>
-      <c r="D27" s="296"/>
-      <c r="E27" s="296" t="s">
+      <c r="C27" s="299"/>
+      <c r="D27" s="299"/>
+      <c r="E27" s="299" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="296"/>
-      <c r="G27" s="296"/>
-      <c r="H27" s="296"/>
-      <c r="I27" s="296"/>
-      <c r="J27" s="296"/>
-      <c r="K27" s="296"/>
-      <c r="L27" s="201"/>
-      <c r="M27" s="297"/>
-      <c r="N27" s="297"/>
+      <c r="F27" s="299"/>
+      <c r="G27" s="299"/>
+      <c r="H27" s="299"/>
+      <c r="I27" s="299"/>
+      <c r="J27" s="299"/>
+      <c r="K27" s="299"/>
+      <c r="L27" s="200"/>
+      <c r="M27" s="300"/>
+      <c r="N27" s="300"/>
       <c r="O27" s="129"/>
       <c r="P27" s="129"/>
       <c r="Q27" s="123"/>
@@ -15055,15 +15069,15 @@
       <c r="I28" s="142" t="s">
         <v>123</v>
       </c>
-      <c r="J28" s="197" t="s">
+      <c r="J28" s="196" t="s">
         <v>11</v>
       </c>
       <c r="K28" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="L28" s="202"/>
-      <c r="M28" s="202"/>
-      <c r="N28" s="202"/>
+      <c r="L28" s="201"/>
+      <c r="M28" s="201"/>
+      <c r="N28" s="201"/>
       <c r="O28" s="129"/>
       <c r="P28" s="129"/>
       <c r="Q28" s="123"/>
@@ -15100,15 +15114,15 @@
       <c r="I29" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="J29" s="199" t="s">
+      <c r="J29" s="198" t="s">
         <v>48</v>
       </c>
-      <c r="K29" s="196" t="s">
+      <c r="K29" s="195" t="s">
         <v>48</v>
       </c>
-      <c r="L29" s="202"/>
-      <c r="M29" s="202"/>
-      <c r="N29" s="202"/>
+      <c r="L29" s="201"/>
+      <c r="M29" s="201"/>
+      <c r="N29" s="201"/>
       <c r="O29" s="129"/>
       <c r="P29" s="129"/>
       <c r="Q29" s="123"/>
@@ -15148,12 +15162,12 @@
       <c r="J30" s="139" t="s">
         <v>48</v>
       </c>
-      <c r="K30" s="204" t="s">
+      <c r="K30" s="203" t="s">
         <v>48</v>
       </c>
       <c r="L30" s="26"/>
-      <c r="M30" s="202"/>
-      <c r="N30" s="202"/>
+      <c r="M30" s="201"/>
+      <c r="N30" s="201"/>
       <c r="O30" s="129"/>
       <c r="P30" s="129"/>
       <c r="Q30" s="123"/>
@@ -15188,15 +15202,15 @@
       <c r="I31" s="132" t="s">
         <v>119</v>
       </c>
-      <c r="J31" s="198" t="s">
+      <c r="J31" s="197" t="s">
         <v>119</v>
       </c>
       <c r="K31" s="132" t="s">
         <v>119</v>
       </c>
-      <c r="L31" s="205"/>
-      <c r="M31" s="202"/>
-      <c r="N31" s="202"/>
+      <c r="L31" s="204"/>
+      <c r="M31" s="201"/>
+      <c r="N31" s="201"/>
       <c r="O31" s="129"/>
       <c r="P31" s="129"/>
       <c r="Q31" s="123"/>

--- a/PayrollProject/OutPutTestResult/Court order Scenarios Test result.xlsx
+++ b/PayrollProject/OutPutTestResult/Court order Scenarios Test result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\git\24-7PeopleXCDPayroll\PayrollProject\OutPutTestResult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAACC9CB-9524-4816-88AE-9FF4C95E6BA2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADD83F1-7CB0-4A1E-BB06-C833ADFB2F0D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3780" windowWidth="19095" windowHeight="7275" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="18690" windowWidth="19095" windowHeight="7275" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AEO1971civildebt" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2465" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2575" uniqueCount="188">
   <si>
     <t>ColumnHeading</t>
   </si>
@@ -587,6 +587,18 @@
   </si>
   <si>
     <t>GBP 2,650.00</t>
+  </si>
+  <si>
+    <t>GBP -311.60</t>
+  </si>
+  <si>
+    <t>GBP -18.40</t>
+  </si>
+  <si>
+    <t>31/10/2019</t>
+  </si>
+  <si>
+    <t>GBP -400.00</t>
   </si>
 </sst>
 </file>
@@ -1127,7 +1139,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="303">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1658,9 +1670,6 @@
     <xf numFmtId="49" fontId="31" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1673,21 +1682,7 @@
     <xf numFmtId="49" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="23" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1858,6 +1853,9 @@
     <xf numFmtId="0" fontId="43" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="39" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="31" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2481,20 +2479,20 @@
         <v>23</v>
       </c>
       <c r="B9" s="34"/>
-      <c r="C9" s="292" t="s">
+      <c r="C9" s="288" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292" t="s">
+      <c r="D9" s="288"/>
+      <c r="E9" s="288"/>
+      <c r="F9" s="288"/>
+      <c r="G9" s="288"/>
+      <c r="H9" s="288" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="292"/>
-      <c r="J9" s="292"/>
-      <c r="K9" s="292"/>
-      <c r="L9" s="292"/>
+      <c r="I9" s="288"/>
+      <c r="J9" s="288"/>
+      <c r="K9" s="288"/>
+      <c r="L9" s="288"/>
       <c r="M9" s="6" t="s">
         <v>26</v>
       </c>
@@ -2655,7 +2653,7 @@
     <row r="13" spans="1:19" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="286" t="s">
+      <c r="C13" s="279" t="s">
         <v>126</v>
       </c>
       <c r="D13" s="23" t="s">
@@ -2667,13 +2665,13 @@
       <c r="F13" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="G13" s="286" t="s">
+      <c r="G13" s="279" t="s">
         <v>126</v>
       </c>
       <c r="H13" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="I13" s="286" t="s">
+      <c r="I13" s="279" t="s">
         <v>126</v>
       </c>
       <c r="J13" s="23" t="s">
@@ -2965,9 +2963,9 @@
         <v>23</v>
       </c>
       <c r="B9" s="34"/>
-      <c r="C9" s="292"/>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
+      <c r="C9" s="288"/>
+      <c r="D9" s="288"/>
+      <c r="E9" s="288"/>
       <c r="F9" s="213"/>
       <c r="G9" s="213"/>
       <c r="H9" s="213"/>
@@ -3216,9 +3214,9 @@
         <v>37</v>
       </c>
       <c r="B18" s="34"/>
-      <c r="C18" s="292"/>
-      <c r="D18" s="292"/>
-      <c r="E18" s="292"/>
+      <c r="C18" s="288"/>
+      <c r="D18" s="288"/>
+      <c r="E18" s="288"/>
       <c r="F18" s="149"/>
       <c r="G18" s="149"/>
       <c r="H18" s="149"/>
@@ -3470,9 +3468,9 @@
         <v>49</v>
       </c>
       <c r="B27" s="34"/>
-      <c r="C27" s="292"/>
-      <c r="D27" s="292"/>
-      <c r="E27" s="292"/>
+      <c r="C27" s="288"/>
+      <c r="D27" s="288"/>
+      <c r="E27" s="288"/>
       <c r="F27" s="213"/>
       <c r="G27" s="213"/>
       <c r="H27" s="213"/>
@@ -3989,17 +3987,17 @@
         <v>23</v>
       </c>
       <c r="B9" s="34"/>
-      <c r="C9" s="292"/>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292" t="s">
+      <c r="C9" s="288"/>
+      <c r="D9" s="288"/>
+      <c r="E9" s="288"/>
+      <c r="F9" s="288"/>
+      <c r="G9" s="288"/>
+      <c r="H9" s="288" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="292"/>
-      <c r="J9" s="292"/>
-      <c r="K9" s="292"/>
+      <c r="I9" s="288"/>
+      <c r="J9" s="288"/>
+      <c r="K9" s="288"/>
       <c r="L9" s="207" t="s">
         <v>51</v>
       </c>
@@ -4280,17 +4278,17 @@
         <v>37</v>
       </c>
       <c r="B18" s="34"/>
-      <c r="C18" s="292"/>
-      <c r="D18" s="292"/>
-      <c r="E18" s="292"/>
-      <c r="F18" s="292"/>
-      <c r="G18" s="292"/>
-      <c r="H18" s="292" t="s">
+      <c r="C18" s="288"/>
+      <c r="D18" s="288"/>
+      <c r="E18" s="288"/>
+      <c r="F18" s="288"/>
+      <c r="G18" s="288"/>
+      <c r="H18" s="288" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="292"/>
-      <c r="J18" s="292"/>
-      <c r="K18" s="292"/>
+      <c r="I18" s="288"/>
+      <c r="J18" s="288"/>
+      <c r="K18" s="288"/>
       <c r="L18" s="207" t="s">
         <v>51</v>
       </c>
@@ -4571,17 +4569,17 @@
         <v>49</v>
       </c>
       <c r="B27" s="34"/>
-      <c r="C27" s="292"/>
-      <c r="D27" s="292"/>
-      <c r="E27" s="292"/>
-      <c r="F27" s="292"/>
-      <c r="G27" s="292"/>
-      <c r="H27" s="292" t="s">
+      <c r="C27" s="288"/>
+      <c r="D27" s="288"/>
+      <c r="E27" s="288"/>
+      <c r="F27" s="288"/>
+      <c r="G27" s="288"/>
+      <c r="H27" s="288" t="s">
         <v>25</v>
       </c>
-      <c r="I27" s="292"/>
-      <c r="J27" s="292"/>
-      <c r="K27" s="292"/>
+      <c r="I27" s="288"/>
+      <c r="J27" s="288"/>
+      <c r="K27" s="288"/>
       <c r="L27" s="207" t="s">
         <v>51</v>
       </c>
@@ -5136,12 +5134,12 @@
       <c r="B9" s="34"/>
       <c r="C9" s="156"/>
       <c r="D9" s="156"/>
-      <c r="E9" s="292" t="s">
+      <c r="E9" s="288" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
+      <c r="F9" s="288"/>
+      <c r="G9" s="288"/>
+      <c r="H9" s="288"/>
       <c r="I9" s="157" t="s">
         <v>27</v>
       </c>
@@ -5419,12 +5417,12 @@
       <c r="B18" s="34"/>
       <c r="C18" s="156"/>
       <c r="D18" s="156"/>
-      <c r="E18" s="292" t="s">
+      <c r="E18" s="288" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="292"/>
-      <c r="G18" s="292"/>
-      <c r="H18" s="292"/>
+      <c r="F18" s="288"/>
+      <c r="G18" s="288"/>
+      <c r="H18" s="288"/>
       <c r="I18" s="157" t="s">
         <v>27</v>
       </c>
@@ -5702,12 +5700,12 @@
       <c r="B27" s="34"/>
       <c r="C27" s="156"/>
       <c r="D27" s="156"/>
-      <c r="E27" s="292" t="s">
+      <c r="E27" s="288" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="292"/>
-      <c r="G27" s="292"/>
-      <c r="H27" s="292"/>
+      <c r="F27" s="288"/>
+      <c r="G27" s="288"/>
+      <c r="H27" s="288"/>
       <c r="I27" s="157" t="s">
         <v>27</v>
       </c>
@@ -5982,7 +5980,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="40.15" customHeight="1">
-      <c r="A1" s="241" t="s">
+      <c r="A1" s="234" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="54" t="s">
@@ -5991,25 +5989,25 @@
       <c r="C1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="228" t="s">
+      <c r="D1" s="221" t="s">
         <v>146</v>
       </c>
-      <c r="E1" s="229" t="s">
+      <c r="E1" s="222" t="s">
         <v>145</v>
       </c>
-      <c r="F1" s="228" t="s">
+      <c r="F1" s="221" t="s">
         <v>149</v>
       </c>
-      <c r="G1" s="229" t="s">
+      <c r="G1" s="222" t="s">
         <v>147</v>
       </c>
-      <c r="H1" s="229" t="s">
+      <c r="H1" s="222" t="s">
         <v>148</v>
       </c>
-      <c r="I1" s="228" t="s">
+      <c r="I1" s="221" t="s">
         <v>157</v>
       </c>
-      <c r="J1" s="229" t="s">
+      <c r="J1" s="222" t="s">
         <v>150</v>
       </c>
       <c r="K1" s="54" t="s">
@@ -6030,7 +6028,7 @@
       <c r="P1" s="107" t="s">
         <v>152</v>
       </c>
-      <c r="Q1" s="229" t="s">
+      <c r="Q1" s="222" t="s">
         <v>10</v>
       </c>
       <c r="R1" s="62" t="s">
@@ -6060,19 +6058,19 @@
       <c r="B2" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="231" t="s">
+      <c r="C2" s="224" t="s">
         <v>41</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="231" t="s">
+      <c r="E2" s="224" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="231" t="s">
+      <c r="F2" s="224" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="231" t="s">
+      <c r="G2" s="224" t="s">
         <v>18</v>
       </c>
       <c r="H2" s="5" t="s">
@@ -6096,10 +6094,10 @@
       <c r="N2" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="O2" s="231" t="s">
+      <c r="O2" s="224" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="231" t="s">
+      <c r="P2" s="224" t="s">
         <v>17</v>
       </c>
       <c r="Q2" s="5" t="s">
@@ -6122,7 +6120,7 @@
       <c r="AB2" s="179"/>
     </row>
     <row r="3" spans="1:28">
-      <c r="A3" s="232" t="s">
+      <c r="A3" s="225" t="s">
         <v>155</v>
       </c>
       <c r="B3" s="22" t="s">
@@ -6176,7 +6174,7 @@
       <c r="R3" s="151" t="s">
         <v>29</v>
       </c>
-      <c r="S3" s="239" t="s">
+      <c r="S3" s="232" t="s">
         <v>29</v>
       </c>
       <c r="T3" s="17" t="s">
@@ -6190,7 +6188,7 @@
       <c r="X3" s="17"/>
     </row>
     <row r="4" spans="1:28" s="26" customFormat="1" ht="15.75">
-      <c r="A4" s="232" t="s">
+      <c r="A4" s="225" t="s">
         <v>156</v>
       </c>
       <c r="B4" s="151"/>
@@ -6200,28 +6198,28 @@
       <c r="D4" s="151" t="s">
         <v>119</v>
       </c>
-      <c r="E4" s="230" t="s">
+      <c r="E4" s="223" t="s">
         <v>119</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G4" s="231" t="s">
-        <v>119</v>
-      </c>
-      <c r="H4" s="231" t="s">
-        <v>119</v>
-      </c>
-      <c r="I4" s="231" t="s">
-        <v>119</v>
-      </c>
-      <c r="J4" s="231" t="s">
+      <c r="G4" s="224" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4" s="224" t="s">
+        <v>119</v>
+      </c>
+      <c r="I4" s="224" t="s">
+        <v>119</v>
+      </c>
+      <c r="J4" s="224" t="s">
         <v>119</v>
       </c>
       <c r="K4" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="L4" s="263" t="s">
+      <c r="L4" s="256" t="s">
         <v>126</v>
       </c>
       <c r="M4" s="54" t="s">
@@ -6253,7 +6251,7 @@
     </row>
     <row r="5" spans="1:28">
       <c r="A5" s="13"/>
-      <c r="B5" s="233"/>
+      <c r="B5" s="226"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -6278,57 +6276,57 @@
       <c r="X5" s="17"/>
     </row>
     <row r="6" spans="1:28">
-      <c r="A6" s="240"/>
-      <c r="B6" s="240"/>
-      <c r="C6" s="240"/>
-      <c r="D6" s="240"/>
-      <c r="E6" s="240"/>
-      <c r="F6" s="240"/>
-      <c r="G6" s="240"/>
-      <c r="H6" s="240"/>
-      <c r="I6" s="240"/>
-      <c r="J6" s="240"/>
-      <c r="K6" s="240"/>
-      <c r="L6" s="264" t="s">
+      <c r="A6" s="233"/>
+      <c r="B6" s="233"/>
+      <c r="C6" s="233"/>
+      <c r="D6" s="233"/>
+      <c r="E6" s="233"/>
+      <c r="F6" s="233"/>
+      <c r="G6" s="233"/>
+      <c r="H6" s="233"/>
+      <c r="I6" s="233"/>
+      <c r="J6" s="233"/>
+      <c r="K6" s="233"/>
+      <c r="L6" s="257" t="s">
         <v>165</v>
       </c>
-      <c r="M6" s="240"/>
-      <c r="N6" s="240"/>
-      <c r="O6" s="240"/>
-      <c r="P6" s="240"/>
-      <c r="Q6" s="240"/>
-      <c r="R6" s="240"/>
-      <c r="S6" s="240"/>
-      <c r="T6" s="240"/>
-      <c r="U6" s="240"/>
+      <c r="M6" s="233"/>
+      <c r="N6" s="233"/>
+      <c r="O6" s="233"/>
+      <c r="P6" s="233"/>
+      <c r="Q6" s="233"/>
+      <c r="R6" s="233"/>
+      <c r="S6" s="233"/>
+      <c r="T6" s="233"/>
+      <c r="U6" s="233"/>
       <c r="V6" s="17"/>
       <c r="W6" s="17"/>
       <c r="X6" s="17"/>
     </row>
     <row r="7" spans="1:28" s="1" customFormat="1">
-      <c r="A7" s="243"/>
-      <c r="B7" s="243"/>
-      <c r="C7" s="302"/>
-      <c r="D7" s="302"/>
-      <c r="E7" s="302"/>
-      <c r="F7" s="302"/>
-      <c r="G7" s="302"/>
-      <c r="H7" s="302"/>
-      <c r="I7" s="302"/>
-      <c r="J7" s="302"/>
-      <c r="K7" s="302"/>
-      <c r="L7" s="302"/>
-      <c r="M7" s="302"/>
-      <c r="N7" s="302"/>
-      <c r="O7" s="302"/>
-      <c r="P7" s="302"/>
-      <c r="Q7" s="237"/>
-      <c r="R7" s="237"/>
-      <c r="S7" s="302"/>
-      <c r="T7" s="302"/>
-      <c r="U7" s="302"/>
-      <c r="V7" s="234"/>
-      <c r="W7" s="234"/>
+      <c r="A7" s="236"/>
+      <c r="B7" s="236"/>
+      <c r="C7" s="298"/>
+      <c r="D7" s="298"/>
+      <c r="E7" s="298"/>
+      <c r="F7" s="298"/>
+      <c r="G7" s="298"/>
+      <c r="H7" s="298"/>
+      <c r="I7" s="298"/>
+      <c r="J7" s="298"/>
+      <c r="K7" s="298"/>
+      <c r="L7" s="298"/>
+      <c r="M7" s="298"/>
+      <c r="N7" s="298"/>
+      <c r="O7" s="298"/>
+      <c r="P7" s="298"/>
+      <c r="Q7" s="230"/>
+      <c r="R7" s="230"/>
+      <c r="S7" s="298"/>
+      <c r="T7" s="298"/>
+      <c r="U7" s="298"/>
+      <c r="V7" s="227"/>
+      <c r="W7" s="227"/>
       <c r="X7" s="18"/>
       <c r="Y7" s="179"/>
       <c r="Z7" s="179"/>
@@ -6336,7 +6334,7 @@
       <c r="AB7" s="179"/>
     </row>
     <row r="8" spans="1:28" s="1" customFormat="1" ht="40.15" customHeight="1">
-      <c r="A8" s="241" t="s">
+      <c r="A8" s="234" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="54" t="s">
@@ -6345,25 +6343,25 @@
       <c r="C8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="235" t="s">
+      <c r="D8" s="228" t="s">
         <v>146</v>
       </c>
-      <c r="E8" s="236" t="s">
+      <c r="E8" s="229" t="s">
         <v>145</v>
       </c>
-      <c r="F8" s="235" t="s">
+      <c r="F8" s="228" t="s">
         <v>149</v>
       </c>
-      <c r="G8" s="236" t="s">
+      <c r="G8" s="229" t="s">
         <v>147</v>
       </c>
-      <c r="H8" s="236" t="s">
+      <c r="H8" s="229" t="s">
         <v>148</v>
       </c>
-      <c r="I8" s="235" t="s">
+      <c r="I8" s="228" t="s">
         <v>157</v>
       </c>
-      <c r="J8" s="236" t="s">
+      <c r="J8" s="229" t="s">
         <v>150</v>
       </c>
       <c r="K8" s="54" t="s">
@@ -6372,10 +6370,10 @@
       <c r="L8" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="M8" s="236" t="s">
+      <c r="M8" s="229" t="s">
         <v>80</v>
       </c>
-      <c r="N8" s="236" t="s">
+      <c r="N8" s="229" t="s">
         <v>81</v>
       </c>
       <c r="O8" s="52" t="s">
@@ -6384,7 +6382,7 @@
       <c r="P8" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="Q8" s="236" t="s">
+      <c r="Q8" s="229" t="s">
         <v>10</v>
       </c>
       <c r="R8" s="52" t="s">
@@ -6393,8 +6391,8 @@
       <c r="S8" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="T8" s="242"/>
-      <c r="U8" s="242"/>
+      <c r="T8" s="235"/>
+      <c r="U8" s="235"/>
       <c r="V8" s="179"/>
       <c r="W8" s="179"/>
       <c r="X8" s="18"/>
@@ -6404,40 +6402,40 @@
       <c r="AB8" s="179"/>
     </row>
     <row r="9" spans="1:28" s="1" customFormat="1" ht="28.15" customHeight="1">
-      <c r="A9" s="241" t="s">
+      <c r="A9" s="234" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="236" t="s">
+      <c r="C9" s="229" t="s">
         <v>97</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="236" t="s">
+      <c r="E9" s="229" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="236" t="s">
+      <c r="F9" s="229" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="236" t="s">
+      <c r="G9" s="229" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="241" t="s">
+      <c r="H9" s="234" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="241" t="s">
+      <c r="I9" s="234" t="s">
         <v>99</v>
       </c>
       <c r="J9" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="K9" s="241" t="s">
+      <c r="K9" s="234" t="s">
         <v>100</v>
       </c>
-      <c r="L9" s="241" t="s">
+      <c r="L9" s="234" t="s">
         <v>100</v>
       </c>
       <c r="M9" s="24" t="s">
@@ -6446,23 +6444,23 @@
       <c r="N9" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="O9" s="236" t="s">
+      <c r="O9" s="229" t="s">
         <v>17</v>
       </c>
-      <c r="P9" s="236" t="s">
+      <c r="P9" s="229" t="s">
         <v>17</v>
       </c>
-      <c r="Q9" s="241" t="s">
+      <c r="Q9" s="234" t="s">
         <v>20</v>
       </c>
-      <c r="R9" s="241" t="s">
+      <c r="R9" s="234" t="s">
         <v>47</v>
       </c>
-      <c r="S9" s="241" t="s">
+      <c r="S9" s="234" t="s">
         <v>47</v>
       </c>
-      <c r="T9" s="242"/>
-      <c r="U9" s="242"/>
+      <c r="T9" s="235"/>
+      <c r="U9" s="235"/>
       <c r="V9" s="179"/>
       <c r="W9" s="179"/>
       <c r="X9" s="18"/>
@@ -6472,7 +6470,7 @@
       <c r="AB9" s="179"/>
     </row>
     <row r="10" spans="1:28" ht="22.5" customHeight="1">
-      <c r="A10" s="232" t="s">
+      <c r="A10" s="225" t="s">
         <v>155</v>
       </c>
       <c r="B10" s="22" t="s">
@@ -6502,10 +6500,10 @@
       <c r="J10" s="151" t="s">
         <v>95</v>
       </c>
-      <c r="K10" s="241" t="s">
+      <c r="K10" s="234" t="s">
         <v>100</v>
       </c>
-      <c r="L10" s="241" t="s">
+      <c r="L10" s="234" t="s">
         <v>100</v>
       </c>
       <c r="M10" s="151" t="s">
@@ -6564,10 +6562,10 @@
       <c r="J11" s="151" t="s">
         <v>119</v>
       </c>
-      <c r="K11" s="241" t="s">
+      <c r="K11" s="234" t="s">
         <v>100</v>
       </c>
-      <c r="L11" s="241" t="s">
+      <c r="L11" s="234" t="s">
         <v>100</v>
       </c>
       <c r="M11" s="151" t="s">
@@ -6588,7 +6586,7 @@
       <c r="R11" s="151" t="s">
         <v>119</v>
       </c>
-      <c r="S11" s="239" t="s">
+      <c r="S11" s="232" t="s">
         <v>119</v>
       </c>
       <c r="T11" s="17"/>
@@ -6698,7 +6696,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="1" customFormat="1" ht="40.15" customHeight="1">
-      <c r="A1" s="249" t="s">
+      <c r="A1" s="242" t="s">
         <v>37</v>
       </c>
       <c r="B1" s="54" t="s">
@@ -6707,25 +6705,25 @@
       <c r="C1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="244" t="s">
+      <c r="D1" s="237" t="s">
         <v>146</v>
       </c>
-      <c r="E1" s="245" t="s">
+      <c r="E1" s="238" t="s">
         <v>145</v>
       </c>
-      <c r="F1" s="244" t="s">
+      <c r="F1" s="237" t="s">
         <v>149</v>
       </c>
-      <c r="G1" s="245" t="s">
+      <c r="G1" s="238" t="s">
         <v>147</v>
       </c>
-      <c r="H1" s="245" t="s">
+      <c r="H1" s="238" t="s">
         <v>148</v>
       </c>
-      <c r="I1" s="244" t="s">
+      <c r="I1" s="237" t="s">
         <v>157</v>
       </c>
-      <c r="J1" s="245" t="s">
+      <c r="J1" s="238" t="s">
         <v>150</v>
       </c>
       <c r="K1" s="54" t="s">
@@ -6740,10 +6738,10 @@
       <c r="N1" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="O1" s="229" t="s">
+      <c r="O1" s="222" t="s">
         <v>80</v>
       </c>
-      <c r="P1" s="229" t="s">
+      <c r="P1" s="222" t="s">
         <v>81</v>
       </c>
       <c r="Q1" s="52" t="s">
@@ -6755,9 +6753,9 @@
       <c r="S1" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="T1" s="238"/>
-      <c r="U1" s="238"/>
-      <c r="V1" s="238"/>
+      <c r="T1" s="231"/>
+      <c r="U1" s="231"/>
+      <c r="V1" s="231"/>
       <c r="W1" s="18"/>
       <c r="X1" s="27"/>
       <c r="Y1" s="179"/>
@@ -6771,19 +6769,19 @@
       <c r="B2" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="229" t="s">
+      <c r="C2" s="222" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="229" t="s">
+      <c r="E2" s="222" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="229" t="s">
+      <c r="F2" s="222" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="229" t="s">
+      <c r="G2" s="222" t="s">
         <v>18</v>
       </c>
       <c r="H2" s="5" t="s">
@@ -6804,7 +6802,7 @@
       <c r="M2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="246" t="s">
+      <c r="N2" s="239" t="s">
         <v>56</v>
       </c>
       <c r="O2" s="24" t="s">
@@ -6819,7 +6817,7 @@
       <c r="R2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="S2" s="260" t="s">
+      <c r="S2" s="253" t="s">
         <v>100</v>
       </c>
       <c r="T2" s="179"/>
@@ -6886,7 +6884,7 @@
       <c r="R3" s="151" t="s">
         <v>40</v>
       </c>
-      <c r="S3" s="260" t="s">
+      <c r="S3" s="253" t="s">
         <v>100</v>
       </c>
       <c r="T3" s="179"/>
@@ -6951,7 +6949,7 @@
       <c r="R4" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="S4" s="260" t="s">
+      <c r="S4" s="253" t="s">
         <v>100</v>
       </c>
       <c r="T4" s="179"/>
@@ -7033,7 +7031,7 @@
       <c r="AA7" s="26"/>
     </row>
     <row r="8" spans="1:27" s="1" customFormat="1" ht="40.15" customHeight="1">
-      <c r="A8" s="243" t="s">
+      <c r="A8" s="236" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="54" t="s">
@@ -7042,25 +7040,25 @@
       <c r="C8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="247" t="s">
+      <c r="D8" s="240" t="s">
         <v>146</v>
       </c>
-      <c r="E8" s="248" t="s">
+      <c r="E8" s="241" t="s">
         <v>145</v>
       </c>
-      <c r="F8" s="247" t="s">
+      <c r="F8" s="240" t="s">
         <v>149</v>
       </c>
-      <c r="G8" s="248" t="s">
+      <c r="G8" s="241" t="s">
         <v>147</v>
       </c>
-      <c r="H8" s="248" t="s">
+      <c r="H8" s="241" t="s">
         <v>148</v>
       </c>
-      <c r="I8" s="247" t="s">
+      <c r="I8" s="240" t="s">
         <v>157</v>
       </c>
-      <c r="J8" s="248" t="s">
+      <c r="J8" s="241" t="s">
         <v>150</v>
       </c>
       <c r="K8" s="54" t="s">
@@ -7075,10 +7073,10 @@
       <c r="N8" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="O8" s="248" t="s">
+      <c r="O8" s="241" t="s">
         <v>80</v>
       </c>
-      <c r="P8" s="248" t="s">
+      <c r="P8" s="241" t="s">
         <v>81</v>
       </c>
       <c r="Q8" s="52" t="s">
@@ -7092,79 +7090,79 @@
       </c>
       <c r="T8" s="62"/>
       <c r="U8" s="107"/>
-      <c r="V8" s="238"/>
+      <c r="V8" s="231"/>
       <c r="W8" s="27"/>
       <c r="X8" s="27"/>
       <c r="Y8" s="179"/>
       <c r="Z8" s="179"/>
       <c r="AA8" s="179"/>
     </row>
-    <row r="9" spans="1:27" s="259" customFormat="1" ht="28.15" customHeight="1">
-      <c r="A9" s="251" t="s">
+    <row r="9" spans="1:27" s="252" customFormat="1" ht="28.15" customHeight="1">
+      <c r="A9" s="244" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="252" t="s">
+      <c r="B9" s="245" t="s">
         <v>94</v>
       </c>
       <c r="C9" s="194" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="253" t="s">
+      <c r="D9" s="246" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="250" t="s">
+      <c r="E9" s="243" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="250" t="s">
+      <c r="F9" s="243" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="250" t="s">
+      <c r="G9" s="243" t="s">
         <v>101</v>
       </c>
-      <c r="H9" s="251" t="s">
+      <c r="H9" s="244" t="s">
         <v>76</v>
       </c>
-      <c r="I9" s="251" t="s">
+      <c r="I9" s="244" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="253" t="s">
+      <c r="J9" s="246" t="s">
         <v>95</v>
       </c>
-      <c r="K9" s="253" t="s">
+      <c r="K9" s="246" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="253" t="s">
+      <c r="L9" s="246" t="s">
         <v>102</v>
       </c>
-      <c r="M9" s="253" t="s">
+      <c r="M9" s="246" t="s">
         <v>100</v>
       </c>
-      <c r="N9" s="253" t="s">
+      <c r="N9" s="246" t="s">
         <v>100</v>
       </c>
-      <c r="O9" s="254" t="s">
+      <c r="O9" s="247" t="s">
         <v>158</v>
       </c>
-      <c r="P9" s="254" t="s">
+      <c r="P9" s="247" t="s">
         <v>159</v>
       </c>
-      <c r="Q9" s="255" t="s">
+      <c r="Q9" s="248" t="s">
         <v>40</v>
       </c>
-      <c r="R9" s="251" t="s">
+      <c r="R9" s="244" t="s">
         <v>41</v>
       </c>
-      <c r="S9" s="251" t="s">
+      <c r="S9" s="244" t="s">
         <v>41</v>
       </c>
-      <c r="T9" s="256"/>
-      <c r="U9" s="256"/>
-      <c r="V9" s="257"/>
-      <c r="W9" s="258"/>
-      <c r="X9" s="258"/>
-      <c r="Y9" s="256"/>
-      <c r="Z9" s="256"/>
-      <c r="AA9" s="256"/>
+      <c r="T9" s="249"/>
+      <c r="U9" s="249"/>
+      <c r="V9" s="250"/>
+      <c r="W9" s="251"/>
+      <c r="X9" s="251"/>
+      <c r="Y9" s="249"/>
+      <c r="Z9" s="249"/>
+      <c r="AA9" s="249"/>
     </row>
     <row r="10" spans="1:27" s="1" customFormat="1" ht="25.15" customHeight="1">
       <c r="A10" s="5" t="s">
@@ -7203,10 +7201,10 @@
       <c r="L10" s="151" t="s">
         <v>102</v>
       </c>
-      <c r="M10" s="253" t="s">
+      <c r="M10" s="246" t="s">
         <v>100</v>
       </c>
-      <c r="N10" s="253" t="s">
+      <c r="N10" s="246" t="s">
         <v>100</v>
       </c>
       <c r="O10" s="151" t="s">
@@ -7215,7 +7213,7 @@
       <c r="P10" s="151" t="s">
         <v>159</v>
       </c>
-      <c r="Q10" s="239" t="s">
+      <c r="Q10" s="232" t="s">
         <v>40</v>
       </c>
       <c r="R10" s="31" t="s">
@@ -7268,10 +7266,10 @@
       <c r="L11" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="M11" s="253" t="s">
+      <c r="M11" s="246" t="s">
         <v>100</v>
       </c>
-      <c r="N11" s="253" t="s">
+      <c r="N11" s="246" t="s">
         <v>100</v>
       </c>
       <c r="O11" s="72" t="s">
@@ -7410,28 +7408,28 @@
       <c r="C1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="261" t="s">
+      <c r="D1" s="254" t="s">
         <v>146</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="262" t="s">
+      <c r="F1" s="255" t="s">
         <v>145</v>
       </c>
-      <c r="G1" s="261" t="s">
+      <c r="G1" s="254" t="s">
         <v>149</v>
       </c>
-      <c r="H1" s="262" t="s">
+      <c r="H1" s="255" t="s">
         <v>147</v>
       </c>
-      <c r="I1" s="262" t="s">
+      <c r="I1" s="255" t="s">
         <v>148</v>
       </c>
-      <c r="J1" s="261" t="s">
+      <c r="J1" s="254" t="s">
         <v>157</v>
       </c>
-      <c r="K1" s="262" t="s">
+      <c r="K1" s="255" t="s">
         <v>150</v>
       </c>
       <c r="L1" s="6" t="s">
@@ -7465,7 +7463,7 @@
       <c r="B2" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="269" t="s">
+      <c r="C2" s="262" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="23" t="s">
@@ -7474,13 +7472,13 @@
       <c r="E2" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="269" t="s">
+      <c r="F2" s="262" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="269" t="s">
+      <c r="G2" s="262" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="269" t="s">
+      <c r="H2" s="262" t="s">
         <v>70</v>
       </c>
       <c r="I2" s="5" t="s">
@@ -7492,19 +7490,19 @@
       <c r="K2" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="L2" s="269" t="s">
+      <c r="L2" s="262" t="s">
         <v>166</v>
       </c>
-      <c r="M2" s="269" t="s">
+      <c r="M2" s="262" t="s">
         <v>167</v>
       </c>
-      <c r="N2" s="269" t="s">
+      <c r="N2" s="262" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="269" t="s">
+      <c r="O2" s="262" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="267" t="s">
+      <c r="P2" s="260" t="s">
         <v>40</v>
       </c>
       <c r="Q2" s="5" t="s">
@@ -7691,7 +7689,7 @@
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
-      <c r="Q7" s="268" t="s">
+      <c r="Q7" s="261" t="s">
         <v>168</v>
       </c>
       <c r="R7" s="13"/>
@@ -7730,34 +7728,34 @@
       <c r="C9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="265" t="s">
+      <c r="D9" s="258" t="s">
         <v>146</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="266" t="s">
+      <c r="F9" s="259" t="s">
         <v>145</v>
       </c>
-      <c r="G9" s="265" t="s">
+      <c r="G9" s="258" t="s">
         <v>149</v>
       </c>
-      <c r="H9" s="266" t="s">
+      <c r="H9" s="259" t="s">
         <v>147</v>
       </c>
-      <c r="I9" s="266" t="s">
+      <c r="I9" s="259" t="s">
         <v>148</v>
       </c>
-      <c r="J9" s="265" t="s">
+      <c r="J9" s="258" t="s">
         <v>157</v>
       </c>
-      <c r="K9" s="266" t="s">
+      <c r="K9" s="259" t="s">
         <v>150</v>
       </c>
-      <c r="L9" s="266" t="s">
+      <c r="L9" s="259" t="s">
         <v>80</v>
       </c>
-      <c r="M9" s="266" t="s">
+      <c r="M9" s="259" t="s">
         <v>81</v>
       </c>
       <c r="N9" s="52" t="s">
@@ -7794,13 +7792,13 @@
       <c r="E10" s="151" t="s">
         <v>83</v>
       </c>
-      <c r="F10" s="269" t="s">
+      <c r="F10" s="262" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="269" t="s">
+      <c r="H10" s="262" t="s">
         <v>70</v>
       </c>
       <c r="I10" s="5" t="s">
@@ -7812,25 +7810,25 @@
       <c r="K10" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="L10" s="269" t="s">
+      <c r="L10" s="262" t="s">
         <v>166</v>
       </c>
-      <c r="M10" s="269" t="s">
+      <c r="M10" s="262" t="s">
         <v>167</v>
       </c>
-      <c r="N10" s="269" t="s">
+      <c r="N10" s="262" t="s">
         <v>15</v>
       </c>
-      <c r="O10" s="269" t="s">
+      <c r="O10" s="262" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="269" t="s">
+      <c r="P10" s="262" t="s">
         <v>17</v>
       </c>
-      <c r="Q10" s="269" t="s">
+      <c r="Q10" s="262" t="s">
         <v>17</v>
       </c>
-      <c r="R10" s="269" t="s">
+      <c r="R10" s="262" t="s">
         <v>20</v>
       </c>
       <c r="S10" s="3"/>
@@ -8048,34 +8046,34 @@
       <c r="C17" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="265" t="s">
+      <c r="D17" s="258" t="s">
         <v>146</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="266" t="s">
+      <c r="F17" s="259" t="s">
         <v>145</v>
       </c>
-      <c r="G17" s="265" t="s">
+      <c r="G17" s="258" t="s">
         <v>149</v>
       </c>
-      <c r="H17" s="266" t="s">
+      <c r="H17" s="259" t="s">
         <v>147</v>
       </c>
-      <c r="I17" s="266" t="s">
+      <c r="I17" s="259" t="s">
         <v>148</v>
       </c>
-      <c r="J17" s="265" t="s">
+      <c r="J17" s="258" t="s">
         <v>157</v>
       </c>
-      <c r="K17" s="266" t="s">
+      <c r="K17" s="259" t="s">
         <v>150</v>
       </c>
-      <c r="L17" s="266" t="s">
+      <c r="L17" s="259" t="s">
         <v>80</v>
       </c>
-      <c r="M17" s="266" t="s">
+      <c r="M17" s="259" t="s">
         <v>81</v>
       </c>
       <c r="N17" s="52" t="s">
@@ -8103,7 +8101,7 @@
       <c r="B18" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="269" t="s">
+      <c r="C18" s="262" t="s">
         <v>40</v>
       </c>
       <c r="D18" s="23" t="s">
@@ -8112,13 +8110,13 @@
       <c r="E18" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="269" t="s">
+      <c r="F18" s="262" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="269" t="s">
+      <c r="G18" s="262" t="s">
         <v>46</v>
       </c>
-      <c r="H18" s="269" t="s">
+      <c r="H18" s="262" t="s">
         <v>70</v>
       </c>
       <c r="I18" s="5" t="s">
@@ -8130,19 +8128,19 @@
       <c r="K18" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="L18" s="269" t="s">
+      <c r="L18" s="262" t="s">
         <v>166</v>
       </c>
-      <c r="M18" s="269" t="s">
+      <c r="M18" s="262" t="s">
         <v>167</v>
       </c>
-      <c r="N18" s="269" t="s">
+      <c r="N18" s="262" t="s">
         <v>40</v>
       </c>
-      <c r="O18" s="269" t="s">
+      <c r="O18" s="262" t="s">
         <v>100</v>
       </c>
-      <c r="P18" s="269" t="s">
+      <c r="P18" s="262" t="s">
         <v>40</v>
       </c>
       <c r="Q18" s="5" t="s">
@@ -8197,16 +8195,16 @@
       <c r="N19" s="151" t="s">
         <v>40</v>
       </c>
-      <c r="O19" s="271" t="s">
+      <c r="O19" s="264" t="s">
         <v>100</v>
       </c>
       <c r="P19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="Q19" s="271" t="s">
+      <c r="Q19" s="264" t="s">
         <v>100</v>
       </c>
-      <c r="R19" s="271" t="s">
+      <c r="R19" s="264" t="s">
         <v>100</v>
       </c>
       <c r="S19" s="3"/>
@@ -8253,16 +8251,16 @@
       <c r="N20" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="O20" s="271" t="s">
+      <c r="O20" s="264" t="s">
         <v>100</v>
       </c>
       <c r="P20" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="Q20" s="271" t="s">
+      <c r="Q20" s="264" t="s">
         <v>100</v>
       </c>
-      <c r="R20" s="271" t="s">
+      <c r="R20" s="264" t="s">
         <v>100</v>
       </c>
       <c r="S20" s="3"/>
@@ -8380,37 +8378,37 @@
       <c r="C1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="270" t="s">
+      <c r="D1" s="263" t="s">
         <v>146</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="271" t="s">
+      <c r="F1" s="264" t="s">
         <v>145</v>
       </c>
-      <c r="G1" s="270" t="s">
+      <c r="G1" s="263" t="s">
         <v>149</v>
       </c>
-      <c r="H1" s="271" t="s">
+      <c r="H1" s="264" t="s">
         <v>147</v>
       </c>
-      <c r="I1" s="271" t="s">
+      <c r="I1" s="264" t="s">
         <v>148</v>
       </c>
-      <c r="J1" s="270" t="s">
+      <c r="J1" s="263" t="s">
         <v>157</v>
       </c>
-      <c r="K1" s="271" t="s">
+      <c r="K1" s="264" t="s">
         <v>150</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="M1" s="271" t="s">
+      <c r="M1" s="264" t="s">
         <v>80</v>
       </c>
-      <c r="N1" s="271" t="s">
+      <c r="N1" s="264" t="s">
         <v>81</v>
       </c>
       <c r="O1" s="52" t="s">
@@ -8432,7 +8430,7 @@
       <c r="U1" s="3"/>
     </row>
     <row r="2" spans="1:21" s="1" customFormat="1" ht="28.15" customHeight="1">
-      <c r="A2" s="272" t="s">
+      <c r="A2" s="265" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -8474,7 +8472,7 @@
       <c r="N2" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="O2" s="271" t="s">
+      <c r="O2" s="264" t="s">
         <v>76</v>
       </c>
       <c r="P2" s="6" t="s">
@@ -8486,24 +8484,24 @@
       <c r="R2" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="S2" s="276" t="s">
+      <c r="S2" s="269" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="1" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A3" s="273" t="s">
+      <c r="A3" s="266" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="274" t="s">
+      <c r="C3" s="267" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="274" t="s">
+      <c r="D3" s="267" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="274" t="s">
+      <c r="E3" s="267" t="s">
         <v>46</v>
       </c>
       <c r="F3" s="151" t="s">
@@ -8539,28 +8537,28 @@
       <c r="P3" s="151" t="s">
         <v>76</v>
       </c>
-      <c r="Q3" s="275" t="s">
+      <c r="Q3" s="268" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="271" t="s">
+      <c r="R3" s="264" t="s">
         <v>100</v>
       </c>
-      <c r="S3" s="276" t="s">
+      <c r="S3" s="269" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1" ht="19.149999999999999" customHeight="1">
-      <c r="A4" s="273" t="s">
+      <c r="A4" s="266" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="30"/>
-      <c r="C4" s="274" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" s="274" t="s">
-        <v>119</v>
-      </c>
-      <c r="E4" s="274" t="s">
+      <c r="C4" s="267" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="267" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="267" t="s">
         <v>119</v>
       </c>
       <c r="F4" s="72" t="s">
@@ -8599,10 +8597,10 @@
       <c r="Q4" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="R4" s="271" t="s">
+      <c r="R4" s="264" t="s">
         <v>100</v>
       </c>
-      <c r="S4" s="276" t="s">
+      <c r="S4" s="269" t="s">
         <v>100</v>
       </c>
     </row>
@@ -8668,37 +8666,37 @@
       <c r="C9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="270" t="s">
+      <c r="D9" s="263" t="s">
         <v>146</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="271" t="s">
+      <c r="F9" s="264" t="s">
         <v>145</v>
       </c>
-      <c r="G9" s="270" t="s">
+      <c r="G9" s="263" t="s">
         <v>149</v>
       </c>
-      <c r="H9" s="271" t="s">
+      <c r="H9" s="264" t="s">
         <v>147</v>
       </c>
-      <c r="I9" s="271" t="s">
+      <c r="I9" s="264" t="s">
         <v>148</v>
       </c>
-      <c r="J9" s="270" t="s">
+      <c r="J9" s="263" t="s">
         <v>157</v>
       </c>
-      <c r="K9" s="271" t="s">
+      <c r="K9" s="264" t="s">
         <v>150</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="M9" s="271" t="s">
+      <c r="M9" s="264" t="s">
         <v>80</v>
       </c>
-      <c r="N9" s="271" t="s">
+      <c r="N9" s="264" t="s">
         <v>81</v>
       </c>
       <c r="O9" s="52" t="s">
@@ -8718,13 +8716,13 @@
       </c>
     </row>
     <row r="10" spans="1:21" s="1" customFormat="1" ht="28.15" customHeight="1">
-      <c r="A10" s="272" t="s">
+      <c r="A10" s="265" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="271" t="s">
+      <c r="C10" s="264" t="s">
         <v>88</v>
       </c>
       <c r="D10" s="23" t="s">
@@ -8754,13 +8752,13 @@
       <c r="L10" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="M10" s="277" t="s">
+      <c r="M10" s="270" t="s">
         <v>169</v>
       </c>
-      <c r="N10" s="277" t="s">
+      <c r="N10" s="270" t="s">
         <v>170</v>
       </c>
-      <c r="O10" s="277" t="s">
+      <c r="O10" s="270" t="s">
         <v>47</v>
       </c>
       <c r="P10" s="6" t="s">
@@ -8772,24 +8770,24 @@
       <c r="R10" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S10" s="276" t="s">
+      <c r="S10" s="269" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:21" s="1" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A11" s="273" t="s">
+      <c r="A11" s="266" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="278" t="s">
+      <c r="C11" s="271" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="278" t="s">
+      <c r="D11" s="271" t="s">
         <v>89</v>
       </c>
-      <c r="E11" s="278" t="s">
+      <c r="E11" s="271" t="s">
         <v>89</v>
       </c>
       <c r="F11" s="151" t="s">
@@ -8825,21 +8823,21 @@
       <c r="P11" s="151" t="s">
         <v>47</v>
       </c>
-      <c r="Q11" s="274" t="s">
+      <c r="Q11" s="267" t="s">
         <v>90</v>
       </c>
-      <c r="R11" s="279" t="s">
+      <c r="R11" s="272" t="s">
         <v>47</v>
       </c>
-      <c r="S11" s="276" t="s">
+      <c r="S11" s="269" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:21" s="1" customFormat="1" ht="19.149999999999999" customHeight="1">
-      <c r="A12" s="273" t="s">
+      <c r="A12" s="266" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="273"/>
+      <c r="B12" s="266"/>
       <c r="C12" s="72" t="s">
         <v>119</v>
       </c>
@@ -8888,7 +8886,7 @@
       <c r="R12" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="S12" s="276" t="s">
+      <c r="S12" s="269" t="s">
         <v>100</v>
       </c>
     </row>
@@ -9126,7 +9124,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="100"/>
-      <c r="C4" s="282" t="s">
+      <c r="C4" s="275" t="s">
         <v>126</v>
       </c>
       <c r="D4" s="98" t="s">
@@ -9138,13 +9136,13 @@
       <c r="F4" s="100" t="s">
         <v>119</v>
       </c>
-      <c r="G4" s="283" t="s">
+      <c r="G4" s="276" t="s">
         <v>126</v>
       </c>
       <c r="H4" s="98" t="s">
         <v>119</v>
       </c>
-      <c r="I4" s="282" t="s">
+      <c r="I4" s="275" t="s">
         <v>126</v>
       </c>
       <c r="J4" s="98" t="s">
@@ -9194,7 +9192,7 @@
     <row r="6" spans="1:20">
       <c r="A6" s="101"/>
       <c r="B6" s="101"/>
-      <c r="C6" s="285" t="s">
+      <c r="C6" s="278" t="s">
         <v>179</v>
       </c>
       <c r="D6" s="101"/>
@@ -9264,20 +9262,20 @@
         <v>23</v>
       </c>
       <c r="B9" s="102"/>
-      <c r="C9" s="293" t="s">
+      <c r="C9" s="289" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="293"/>
-      <c r="E9" s="293"/>
-      <c r="F9" s="293"/>
-      <c r="G9" s="293"/>
-      <c r="H9" s="293" t="s">
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="293"/>
-      <c r="J9" s="293"/>
-      <c r="K9" s="293"/>
-      <c r="L9" s="293"/>
+      <c r="I9" s="289"/>
+      <c r="J9" s="289"/>
+      <c r="K9" s="289"/>
+      <c r="L9" s="289"/>
       <c r="M9" s="52" t="s">
         <v>26</v>
       </c>
@@ -9372,7 +9370,7 @@
       <c r="J11" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="287" t="s">
+      <c r="K11" s="280" t="s">
         <v>175</v>
       </c>
       <c r="L11" s="52" t="s">
@@ -9396,40 +9394,40 @@
       <c r="B12" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="280" t="s">
+      <c r="C12" s="273" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="280" t="s">
+      <c r="D12" s="273" t="s">
         <v>171</v>
       </c>
-      <c r="E12" s="280" t="s">
+      <c r="E12" s="273" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="280" t="s">
+      <c r="F12" s="273" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="280" t="s">
+      <c r="G12" s="273" t="s">
         <v>177</v>
       </c>
-      <c r="H12" s="280" t="s">
+      <c r="H12" s="273" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="280" t="s">
+      <c r="I12" s="273" t="s">
         <v>40</v>
       </c>
-      <c r="J12" s="281" t="s">
+      <c r="J12" s="274" t="s">
         <v>56</v>
       </c>
-      <c r="K12" s="281" t="s">
+      <c r="K12" s="274" t="s">
         <v>56</v>
       </c>
-      <c r="L12" s="281" t="s">
+      <c r="L12" s="274" t="s">
         <v>56</v>
       </c>
-      <c r="M12" s="281" t="s">
+      <c r="M12" s="274" t="s">
         <v>56</v>
       </c>
-      <c r="N12" s="281" t="s">
+      <c r="N12" s="274" t="s">
         <v>56</v>
       </c>
       <c r="O12" s="13"/>
@@ -9442,40 +9440,40 @@
     <row r="13" spans="1:20" ht="24.75" customHeight="1">
       <c r="A13" s="100"/>
       <c r="B13" s="100"/>
-      <c r="C13" s="282" t="s">
+      <c r="C13" s="275" t="s">
         <v>126</v>
       </c>
       <c r="D13" s="98" t="s">
         <v>119</v>
       </c>
-      <c r="E13" s="282" t="s">
-        <v>126</v>
-      </c>
-      <c r="F13" s="282" t="s">
-        <v>126</v>
-      </c>
-      <c r="G13" s="282" t="s">
-        <v>126</v>
-      </c>
-      <c r="H13" s="282" t="s">
-        <v>126</v>
-      </c>
-      <c r="I13" s="282" t="s">
-        <v>126</v>
-      </c>
-      <c r="J13" s="282" t="s">
-        <v>126</v>
-      </c>
-      <c r="K13" s="282" t="s">
-        <v>126</v>
-      </c>
-      <c r="L13" s="282" t="s">
-        <v>126</v>
-      </c>
-      <c r="M13" s="282" t="s">
-        <v>126</v>
-      </c>
-      <c r="N13" s="282" t="s">
+      <c r="E13" s="275" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" s="275" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" s="275" t="s">
+        <v>126</v>
+      </c>
+      <c r="H13" s="275" t="s">
+        <v>126</v>
+      </c>
+      <c r="I13" s="275" t="s">
+        <v>126</v>
+      </c>
+      <c r="J13" s="275" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" s="275" t="s">
+        <v>126</v>
+      </c>
+      <c r="L13" s="275" t="s">
+        <v>126</v>
+      </c>
+      <c r="M13" s="275" t="s">
+        <v>126</v>
+      </c>
+      <c r="N13" s="275" t="s">
         <v>126</v>
       </c>
       <c r="O13" s="13"/>
@@ -9486,7 +9484,7 @@
       <c r="T13" s="13"/>
     </row>
     <row r="16" spans="1:20">
-      <c r="C16" s="284" t="s">
+      <c r="C16" s="277" t="s">
         <v>178</v>
       </c>
     </row>
@@ -9671,25 +9669,25 @@
         <v>22</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="286" t="s">
+      <c r="C4" s="279" t="s">
         <v>126</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="E4" s="286" t="s">
-        <v>126</v>
-      </c>
-      <c r="F4" s="286" t="s">
-        <v>126</v>
-      </c>
-      <c r="G4" s="286" t="s">
+      <c r="E4" s="279" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="279" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="279" t="s">
         <v>126</v>
       </c>
       <c r="H4" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="I4" s="286" t="s">
+      <c r="I4" s="279" t="s">
         <v>126</v>
       </c>
       <c r="J4" s="23" t="s">
@@ -9698,13 +9696,13 @@
       <c r="K4" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="L4" s="286" t="s">
-        <v>126</v>
-      </c>
-      <c r="M4" s="286" t="s">
-        <v>126</v>
-      </c>
-      <c r="N4" s="286" t="s">
+      <c r="L4" s="279" t="s">
+        <v>126</v>
+      </c>
+      <c r="M4" s="279" t="s">
+        <v>126</v>
+      </c>
+      <c r="N4" s="279" t="s">
         <v>126</v>
       </c>
       <c r="P4" s="13"/>
@@ -9789,20 +9787,20 @@
     <row r="9" spans="1:17">
       <c r="A9" s="31"/>
       <c r="B9" s="34"/>
-      <c r="C9" s="292" t="s">
+      <c r="C9" s="288" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292" t="s">
+      <c r="D9" s="288"/>
+      <c r="E9" s="288"/>
+      <c r="F9" s="288"/>
+      <c r="G9" s="288"/>
+      <c r="H9" s="288" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="292"/>
-      <c r="J9" s="292"/>
-      <c r="K9" s="292"/>
-      <c r="L9" s="292"/>
+      <c r="I9" s="288"/>
+      <c r="J9" s="288"/>
+      <c r="K9" s="288"/>
+      <c r="L9" s="288"/>
       <c r="M9" s="6" t="s">
         <v>26</v>
       </c>
@@ -9959,40 +9957,40 @@
         <v>22</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="286" t="s">
+      <c r="C13" s="279" t="s">
         <v>126</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="E13" s="286" t="s">
-        <v>126</v>
-      </c>
-      <c r="F13" s="286" t="s">
-        <v>126</v>
-      </c>
-      <c r="G13" s="286" t="s">
+      <c r="E13" s="279" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" s="279" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" s="279" t="s">
         <v>126</v>
       </c>
       <c r="H13" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="I13" s="286" t="s">
+      <c r="I13" s="279" t="s">
         <v>126</v>
       </c>
       <c r="J13" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="K13" s="286" t="s">
-        <v>126</v>
-      </c>
-      <c r="L13" s="286" t="s">
-        <v>126</v>
-      </c>
-      <c r="M13" s="286" t="s">
-        <v>126</v>
-      </c>
-      <c r="N13" s="286" t="s">
+      <c r="K13" s="279" t="s">
+        <v>126</v>
+      </c>
+      <c r="L13" s="279" t="s">
+        <v>126</v>
+      </c>
+      <c r="M13" s="279" t="s">
+        <v>126</v>
+      </c>
+      <c r="N13" s="279" t="s">
         <v>126</v>
       </c>
       <c r="O13" s="29"/>
@@ -10157,31 +10155,31 @@
         <v>22</v>
       </c>
       <c r="B4" s="42"/>
-      <c r="C4" s="286" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4" s="286" t="s">
-        <v>126</v>
-      </c>
-      <c r="E4" s="286" t="s">
+      <c r="C4" s="279" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="279" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="279" t="s">
         <v>126</v>
       </c>
       <c r="F4" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="G4" s="286" t="s">
+      <c r="G4" s="279" t="s">
         <v>126</v>
       </c>
       <c r="H4" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="I4" s="286" t="s">
-        <v>126</v>
-      </c>
-      <c r="J4" s="286" t="s">
-        <v>126</v>
-      </c>
-      <c r="K4" s="286" t="s">
+      <c r="I4" s="279" t="s">
+        <v>126</v>
+      </c>
+      <c r="J4" s="279" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" s="279" t="s">
         <v>126</v>
       </c>
     </row>
@@ -10242,15 +10240,15 @@
         <v>23</v>
       </c>
       <c r="B9" s="34"/>
-      <c r="C9" s="292"/>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292" t="s">
+      <c r="C9" s="288"/>
+      <c r="D9" s="288"/>
+      <c r="E9" s="288"/>
+      <c r="F9" s="288" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
-      <c r="I9" s="292"/>
+      <c r="G9" s="288"/>
+      <c r="H9" s="288"/>
+      <c r="I9" s="288"/>
       <c r="J9" s="6" t="s">
         <v>26</v>
       </c>
@@ -10368,31 +10366,31 @@
         <v>22</v>
       </c>
       <c r="B13" s="42"/>
-      <c r="C13" s="286" t="s">
-        <v>126</v>
-      </c>
-      <c r="D13" s="286" t="s">
-        <v>126</v>
-      </c>
-      <c r="E13" s="286" t="s">
-        <v>126</v>
-      </c>
-      <c r="F13" s="286" t="s">
-        <v>126</v>
-      </c>
-      <c r="G13" s="286" t="s">
-        <v>126</v>
-      </c>
-      <c r="H13" s="286" t="s">
-        <v>126</v>
-      </c>
-      <c r="I13" s="286" t="s">
-        <v>126</v>
-      </c>
-      <c r="J13" s="286" t="s">
-        <v>126</v>
-      </c>
-      <c r="K13" s="286" t="s">
+      <c r="C13" s="279" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="279" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" s="279" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" s="279" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" s="279" t="s">
+        <v>126</v>
+      </c>
+      <c r="H13" s="279" t="s">
+        <v>126</v>
+      </c>
+      <c r="I13" s="279" t="s">
+        <v>126</v>
+      </c>
+      <c r="J13" s="279" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" s="279" t="s">
         <v>126</v>
       </c>
     </row>
@@ -10453,15 +10451,15 @@
         <v>37</v>
       </c>
       <c r="B18" s="34"/>
-      <c r="C18" s="292"/>
-      <c r="D18" s="292"/>
-      <c r="E18" s="292"/>
-      <c r="F18" s="292" t="s">
+      <c r="C18" s="288"/>
+      <c r="D18" s="288"/>
+      <c r="E18" s="288"/>
+      <c r="F18" s="288" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="292"/>
-      <c r="H18" s="292"/>
-      <c r="I18" s="292"/>
+      <c r="G18" s="288"/>
+      <c r="H18" s="288"/>
+      <c r="I18" s="288"/>
       <c r="J18" s="6" t="s">
         <v>26</v>
       </c>
@@ -10579,31 +10577,31 @@
         <v>22</v>
       </c>
       <c r="B22" s="42"/>
-      <c r="C22" s="286" t="s">
-        <v>126</v>
-      </c>
-      <c r="D22" s="286" t="s">
-        <v>126</v>
-      </c>
-      <c r="E22" s="286" t="s">
-        <v>126</v>
-      </c>
-      <c r="F22" s="286" t="s">
-        <v>126</v>
-      </c>
-      <c r="G22" s="286" t="s">
-        <v>126</v>
-      </c>
-      <c r="H22" s="286" t="s">
-        <v>126</v>
-      </c>
-      <c r="I22" s="286" t="s">
-        <v>126</v>
-      </c>
-      <c r="J22" s="286" t="s">
-        <v>126</v>
-      </c>
-      <c r="K22" s="286" t="s">
+      <c r="C22" s="279" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" s="279" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="279" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="279" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="279" t="s">
+        <v>126</v>
+      </c>
+      <c r="H22" s="279" t="s">
+        <v>126</v>
+      </c>
+      <c r="I22" s="279" t="s">
+        <v>126</v>
+      </c>
+      <c r="J22" s="279" t="s">
+        <v>126</v>
+      </c>
+      <c r="K22" s="279" t="s">
         <v>126</v>
       </c>
     </row>
@@ -10857,40 +10855,40 @@
         <v>22</v>
       </c>
       <c r="B4" s="57"/>
-      <c r="C4" s="288" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4" s="288" t="s">
-        <v>126</v>
-      </c>
-      <c r="E4" s="288" t="s">
+      <c r="C4" s="281" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="281" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="281" t="s">
         <v>126</v>
       </c>
       <c r="F4" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="G4" s="288" t="s">
+      <c r="G4" s="281" t="s">
         <v>126</v>
       </c>
       <c r="H4" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="I4" s="288" t="s">
-        <v>126</v>
-      </c>
-      <c r="J4" s="288" t="s">
-        <v>126</v>
-      </c>
-      <c r="K4" s="289" t="s">
-        <v>126</v>
-      </c>
-      <c r="L4" s="290" t="s">
-        <v>126</v>
-      </c>
-      <c r="M4" s="290" t="s">
-        <v>126</v>
-      </c>
-      <c r="N4" s="290" t="s">
+      <c r="I4" s="281" t="s">
+        <v>126</v>
+      </c>
+      <c r="J4" s="281" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" s="282" t="s">
+        <v>126</v>
+      </c>
+      <c r="L4" s="283" t="s">
+        <v>126</v>
+      </c>
+      <c r="M4" s="283" t="s">
+        <v>126</v>
+      </c>
+      <c r="N4" s="283" t="s">
         <v>126</v>
       </c>
       <c r="O4" s="175" t="s">
@@ -10983,18 +10981,18 @@
     <row r="9" spans="1:18" ht="15.75">
       <c r="A9" s="63"/>
       <c r="B9" s="53"/>
-      <c r="C9" s="294"/>
-      <c r="D9" s="294"/>
-      <c r="E9" s="294"/>
-      <c r="F9" s="294" t="s">
+      <c r="C9" s="290"/>
+      <c r="D9" s="290"/>
+      <c r="E9" s="290"/>
+      <c r="F9" s="290" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="294"/>
-      <c r="H9" s="294"/>
-      <c r="I9" s="294"/>
-      <c r="J9" s="294"/>
-      <c r="K9" s="294"/>
-      <c r="L9" s="294"/>
+      <c r="G9" s="290"/>
+      <c r="H9" s="290"/>
+      <c r="I9" s="290"/>
+      <c r="J9" s="290"/>
+      <c r="K9" s="290"/>
+      <c r="L9" s="290"/>
       <c r="M9" s="54" t="s">
         <v>26</v>
       </c>
@@ -11161,40 +11159,40 @@
         <v>22</v>
       </c>
       <c r="B13" s="57"/>
-      <c r="C13" s="288" t="s">
-        <v>126</v>
-      </c>
-      <c r="D13" s="288" t="s">
-        <v>126</v>
-      </c>
-      <c r="E13" s="288" t="s">
-        <v>126</v>
-      </c>
-      <c r="F13" s="288" t="s">
-        <v>126</v>
-      </c>
-      <c r="G13" s="288" t="s">
+      <c r="C13" s="281" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="281" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" s="281" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" s="281" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" s="281" t="s">
         <v>126</v>
       </c>
       <c r="H13" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="I13" s="288" t="s">
-        <v>126</v>
-      </c>
-      <c r="J13" s="288" t="s">
-        <v>126</v>
-      </c>
-      <c r="K13" s="289" t="s">
-        <v>126</v>
-      </c>
-      <c r="L13" s="290" t="s">
-        <v>126</v>
-      </c>
-      <c r="M13" s="290" t="s">
-        <v>126</v>
-      </c>
-      <c r="N13" s="290" t="s">
+      <c r="I13" s="281" t="s">
+        <v>126</v>
+      </c>
+      <c r="J13" s="281" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" s="282" t="s">
+        <v>126</v>
+      </c>
+      <c r="L13" s="283" t="s">
+        <v>126</v>
+      </c>
+      <c r="M13" s="283" t="s">
+        <v>126</v>
+      </c>
+      <c r="N13" s="283" t="s">
         <v>126</v>
       </c>
       <c r="O13" s="175" t="s">
@@ -11289,18 +11287,18 @@
         <v>37</v>
       </c>
       <c r="B18" s="53"/>
-      <c r="C18" s="294"/>
-      <c r="D18" s="294"/>
-      <c r="E18" s="294"/>
-      <c r="F18" s="294" t="s">
+      <c r="C18" s="290"/>
+      <c r="D18" s="290"/>
+      <c r="E18" s="290"/>
+      <c r="F18" s="290" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="294"/>
-      <c r="H18" s="294"/>
-      <c r="I18" s="294"/>
-      <c r="J18" s="294"/>
-      <c r="K18" s="294"/>
-      <c r="L18" s="294"/>
+      <c r="G18" s="290"/>
+      <c r="H18" s="290"/>
+      <c r="I18" s="290"/>
+      <c r="J18" s="290"/>
+      <c r="K18" s="290"/>
+      <c r="L18" s="290"/>
       <c r="M18" s="54"/>
       <c r="N18" s="52"/>
       <c r="O18" s="169"/>
@@ -11466,16 +11464,16 @@
       <c r="C22" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="D22" s="288" t="s">
-        <v>126</v>
-      </c>
-      <c r="E22" s="288" t="s">
+      <c r="D22" s="281" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="281" t="s">
         <v>126</v>
       </c>
       <c r="F22" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="G22" s="288" t="s">
+      <c r="G22" s="281" t="s">
         <v>126</v>
       </c>
       <c r="H22" s="59" t="s">
@@ -11484,10 +11482,10 @@
       <c r="I22" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="J22" s="288" t="s">
-        <v>126</v>
-      </c>
-      <c r="K22" s="289" t="s">
+      <c r="J22" s="281" t="s">
+        <v>126</v>
+      </c>
+      <c r="K22" s="282" t="s">
         <v>126</v>
       </c>
       <c r="L22" s="54" t="s">
@@ -11499,7 +11497,7 @@
       <c r="N22" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="O22" s="291" t="s">
+      <c r="O22" s="284" t="s">
         <v>126</v>
       </c>
       <c r="P22" s="49"/>
@@ -11591,18 +11589,18 @@
         <v>49</v>
       </c>
       <c r="B27" s="53"/>
-      <c r="C27" s="294"/>
-      <c r="D27" s="294"/>
-      <c r="E27" s="294"/>
-      <c r="F27" s="294" t="s">
+      <c r="C27" s="290"/>
+      <c r="D27" s="290"/>
+      <c r="E27" s="290"/>
+      <c r="F27" s="290" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="294"/>
-      <c r="H27" s="294"/>
-      <c r="I27" s="294"/>
-      <c r="J27" s="294"/>
-      <c r="K27" s="294"/>
-      <c r="L27" s="295"/>
+      <c r="G27" s="290"/>
+      <c r="H27" s="290"/>
+      <c r="I27" s="290"/>
+      <c r="J27" s="290"/>
+      <c r="K27" s="290"/>
+      <c r="L27" s="291"/>
       <c r="M27" s="170"/>
       <c r="N27" s="52"/>
       <c r="O27" s="169"/>
@@ -11748,28 +11746,28 @@
       <c r="C31" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="D31" s="288" t="s">
-        <v>126</v>
-      </c>
-      <c r="E31" s="288" t="s">
-        <v>126</v>
-      </c>
-      <c r="F31" s="288" t="s">
-        <v>126</v>
-      </c>
-      <c r="G31" s="288" t="s">
-        <v>126</v>
-      </c>
-      <c r="H31" s="288" t="s">
+      <c r="D31" s="281" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" s="281" t="s">
+        <v>126</v>
+      </c>
+      <c r="F31" s="281" t="s">
+        <v>126</v>
+      </c>
+      <c r="G31" s="281" t="s">
+        <v>126</v>
+      </c>
+      <c r="H31" s="281" t="s">
         <v>126</v>
       </c>
       <c r="I31" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="J31" s="288" t="s">
-        <v>126</v>
-      </c>
-      <c r="K31" s="288" t="s">
+      <c r="J31" s="281" t="s">
+        <v>126</v>
+      </c>
+      <c r="K31" s="281" t="s">
         <v>126</v>
       </c>
       <c r="L31" s="54" t="s">
@@ -11781,7 +11779,7 @@
       <c r="N31" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="O31" s="291" t="s">
+      <c r="O31" s="284" t="s">
         <v>126</v>
       </c>
       <c r="P31" s="49"/>
@@ -11961,12 +11959,12 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
-    <tabColor rgb="FF00B050"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -12066,15 +12064,33 @@
       <c r="B3" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="186"/>
+      <c r="C3" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J3" s="186" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="186" t="s">
+        <v>40</v>
+      </c>
       <c r="L3" s="188"/>
       <c r="M3" s="3"/>
     </row>
@@ -12083,15 +12099,33 @@
         <v>22</v>
       </c>
       <c r="B4" s="68"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="187"/>
+      <c r="C4" s="285" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="285" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="285" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="285" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J4" s="286" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" s="286" t="s">
+        <v>126</v>
+      </c>
       <c r="L4" s="188"/>
       <c r="M4" s="3"/>
     </row>
@@ -12160,16 +12194,16 @@
         <v>23</v>
       </c>
       <c r="B9" s="34"/>
-      <c r="C9" s="292"/>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292" t="s">
+      <c r="C9" s="288"/>
+      <c r="D9" s="288"/>
+      <c r="E9" s="288"/>
+      <c r="F9" s="288" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
-      <c r="I9" s="292"/>
-      <c r="J9" s="292"/>
+      <c r="G9" s="288"/>
+      <c r="H9" s="288"/>
+      <c r="I9" s="288"/>
+      <c r="J9" s="288"/>
       <c r="K9" s="28" t="s">
         <v>51</v>
       </c>
@@ -12255,30 +12289,62 @@
       <c r="B12" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
+      <c r="C12" s="71" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="71" t="s">
+        <v>184</v>
+      </c>
+      <c r="E12" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="71" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="71" t="s">
+        <v>56</v>
+      </c>
       <c r="I12" s="10"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="186"/>
+      <c r="J12" s="71" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" s="186" t="s">
+        <v>57</v>
+      </c>
       <c r="L12" s="188"/>
       <c r="M12" s="13"/>
     </row>
     <row r="13" spans="1:13" ht="20.25" customHeight="1">
       <c r="A13" s="68"/>
       <c r="B13" s="68"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
+      <c r="C13" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="285" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="H13" s="72" t="s">
+        <v>119</v>
+      </c>
       <c r="I13" s="10"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="187"/>
+      <c r="J13" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="K13" s="187" t="s">
+        <v>119</v>
+      </c>
       <c r="L13" s="188"/>
       <c r="M13" s="13"/>
     </row>
@@ -12347,16 +12413,16 @@
         <v>37</v>
       </c>
       <c r="B18" s="34"/>
-      <c r="C18" s="292"/>
-      <c r="D18" s="292"/>
-      <c r="E18" s="292"/>
-      <c r="F18" s="292" t="s">
+      <c r="C18" s="288"/>
+      <c r="D18" s="288"/>
+      <c r="E18" s="288"/>
+      <c r="F18" s="288" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="292"/>
-      <c r="H18" s="292"/>
-      <c r="I18" s="292"/>
-      <c r="J18" s="292"/>
+      <c r="G18" s="288"/>
+      <c r="H18" s="288"/>
+      <c r="I18" s="288"/>
+      <c r="J18" s="288"/>
       <c r="K18" s="28" t="s">
         <v>51</v>
       </c>
@@ -12442,15 +12508,33 @@
       <c r="B21" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="186"/>
+      <c r="C21" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="71" t="s">
+        <v>185</v>
+      </c>
+      <c r="E21" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="J21" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="K21" s="186" t="s">
+        <v>59</v>
+      </c>
       <c r="L21" s="189"/>
       <c r="M21" s="13"/>
     </row>
@@ -12459,15 +12543,33 @@
         <v>22</v>
       </c>
       <c r="B22" s="68"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="186"/>
+      <c r="C22" s="71" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="287" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="G22" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="H22" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="I22" s="285" t="s">
+        <v>126</v>
+      </c>
+      <c r="J22" s="71" t="s">
+        <v>119</v>
+      </c>
+      <c r="K22" s="186" t="s">
+        <v>119</v>
+      </c>
       <c r="L22" s="189"/>
       <c r="M22" s="13"/>
     </row>
@@ -12544,12 +12646,12 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
-    <tabColor rgb="FF00B050"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -12642,28 +12744,28 @@
         <v>63</v>
       </c>
       <c r="C3" s="77" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D3" s="77" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E3" s="77" t="s">
         <v>64</v>
       </c>
       <c r="F3" s="77" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G3" s="77" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H3" s="77" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="I3" s="77" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="J3" s="77" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
@@ -12673,29 +12775,29 @@
         <v>22</v>
       </c>
       <c r="B4" s="76"/>
-      <c r="C4" s="72" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" s="72" t="s">
-        <v>119</v>
+      <c r="C4" s="285" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="285" t="s">
+        <v>126</v>
       </c>
       <c r="E4" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="F4" s="72" t="s">
-        <v>119</v>
-      </c>
-      <c r="G4" s="72" t="s">
-        <v>119</v>
-      </c>
-      <c r="H4" s="72" t="s">
-        <v>119</v>
-      </c>
-      <c r="I4" s="72" t="s">
-        <v>119</v>
-      </c>
-      <c r="J4" s="72" t="s">
-        <v>119</v>
+      <c r="F4" s="285" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="285" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4" s="285" t="s">
+        <v>126</v>
+      </c>
+      <c r="I4" s="285" t="s">
+        <v>126</v>
+      </c>
+      <c r="J4" s="285" t="s">
+        <v>126</v>
       </c>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
@@ -12761,15 +12863,15 @@
         <v>23</v>
       </c>
       <c r="B9" s="34"/>
-      <c r="C9" s="292"/>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292" t="s">
+      <c r="C9" s="288"/>
+      <c r="D9" s="288"/>
+      <c r="E9" s="288"/>
+      <c r="F9" s="288" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
-      <c r="I9" s="292"/>
+      <c r="G9" s="288"/>
+      <c r="H9" s="288"/>
+      <c r="I9" s="288"/>
       <c r="J9" s="6" t="s">
         <v>51</v>
       </c>
@@ -12852,28 +12954,28 @@
         <v>63</v>
       </c>
       <c r="C12" s="82" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D12" s="82" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E12" s="82" t="s">
         <v>64</v>
       </c>
       <c r="F12" s="82" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G12" s="82" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H12" s="82" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="I12" s="82" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J12" s="82" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
@@ -12883,29 +12985,29 @@
         <v>22</v>
       </c>
       <c r="B13" s="76"/>
-      <c r="C13" s="72" t="s">
-        <v>119</v>
-      </c>
-      <c r="D13" s="72" t="s">
-        <v>119</v>
+      <c r="C13" s="285" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="285" t="s">
+        <v>126</v>
       </c>
       <c r="E13" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="F13" s="72" t="s">
-        <v>119</v>
-      </c>
-      <c r="G13" s="72" t="s">
-        <v>119</v>
-      </c>
-      <c r="H13" s="72" t="s">
-        <v>119</v>
-      </c>
-      <c r="I13" s="72" t="s">
-        <v>119</v>
-      </c>
-      <c r="J13" s="72" t="s">
-        <v>119</v>
+      <c r="F13" s="285" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" s="285" t="s">
+        <v>126</v>
+      </c>
+      <c r="H13" s="285" t="s">
+        <v>126</v>
+      </c>
+      <c r="I13" s="285" t="s">
+        <v>126</v>
+      </c>
+      <c r="J13" s="285" t="s">
+        <v>126</v>
       </c>
       <c r="K13" s="17"/>
       <c r="L13" s="13"/>
@@ -12971,15 +13073,15 @@
         <v>37</v>
       </c>
       <c r="B18" s="34"/>
-      <c r="C18" s="292"/>
-      <c r="D18" s="292"/>
-      <c r="E18" s="292"/>
-      <c r="F18" s="292" t="s">
+      <c r="C18" s="288"/>
+      <c r="D18" s="288"/>
+      <c r="E18" s="288"/>
+      <c r="F18" s="288" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="292"/>
-      <c r="H18" s="292"/>
-      <c r="I18" s="292"/>
+      <c r="G18" s="288"/>
+      <c r="H18" s="288"/>
+      <c r="I18" s="288"/>
       <c r="J18" s="6" t="s">
         <v>51</v>
       </c>
@@ -13062,28 +13164,28 @@
         <v>63</v>
       </c>
       <c r="C21" s="77" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="D21" s="77" t="s">
-        <v>68</v>
+        <v>187</v>
       </c>
       <c r="E21" s="77" t="s">
         <v>64</v>
       </c>
       <c r="F21" s="77" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="G21" s="77" t="s">
-        <v>46</v>
+        <v>187</v>
       </c>
       <c r="H21" s="77" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="I21" s="77" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="J21" s="77" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
@@ -13093,29 +13195,29 @@
         <v>22</v>
       </c>
       <c r="B22" s="76"/>
-      <c r="C22" s="72" t="s">
-        <v>119</v>
-      </c>
-      <c r="D22" s="72" t="s">
-        <v>119</v>
+      <c r="C22" s="285" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" s="285" t="s">
+        <v>126</v>
       </c>
       <c r="E22" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="F22" s="72" t="s">
-        <v>119</v>
-      </c>
-      <c r="G22" s="72" t="s">
-        <v>119</v>
-      </c>
-      <c r="H22" s="72" t="s">
-        <v>119</v>
-      </c>
-      <c r="I22" s="72" t="s">
-        <v>119</v>
-      </c>
-      <c r="J22" s="72" t="s">
-        <v>119</v>
+      <c r="F22" s="285" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="285" t="s">
+        <v>126</v>
+      </c>
+      <c r="H22" s="285" t="s">
+        <v>126</v>
+      </c>
+      <c r="I22" s="285" t="s">
+        <v>126</v>
+      </c>
+      <c r="J22" s="285" t="s">
+        <v>126</v>
       </c>
       <c r="K22" s="13"/>
       <c r="L22" s="13"/>
@@ -13176,10 +13278,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -13198,12 +13300,11 @@
     <col min="12" max="12" width="34.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="33.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="24.85546875" style="26" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="33.140625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="33.28515625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="29.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="33.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="85" customFormat="1" ht="43.9" customHeight="1">
+    <row r="1" spans="1:16" s="85" customFormat="1" ht="43.9" customHeight="1">
       <c r="A1" s="34" t="s">
         <v>31</v>
       </c>
@@ -13246,9 +13347,9 @@
       <c r="N1" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="221"/>
-    </row>
-    <row r="2" spans="1:17" s="85" customFormat="1" ht="30" customHeight="1">
+      <c r="O1"/>
+    </row>
+    <row r="2" spans="1:16" s="85" customFormat="1" ht="30" customHeight="1">
       <c r="A2" s="192" t="s">
         <v>13</v>
       </c>
@@ -13291,11 +13392,10 @@
       <c r="N2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="221"/>
+      <c r="O2" s="88"/>
       <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-    </row>
-    <row r="3" spans="1:17" s="85" customFormat="1" ht="32.450000000000003" customHeight="1">
+    </row>
+    <row r="3" spans="1:16" s="85" customFormat="1" ht="32.450000000000003" customHeight="1">
       <c r="A3" s="192" t="s">
         <v>21</v>
       </c>
@@ -13303,83 +13403,89 @@
         <v>69</v>
       </c>
       <c r="C3" s="192" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D3" s="192" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="E3" s="192" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="F3" s="192" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="192" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H3" s="192" t="s">
         <v>71</v>
       </c>
-      <c r="I3" s="227" t="s">
+      <c r="I3" s="220" t="s">
         <v>100</v>
       </c>
-      <c r="J3" s="227" t="s">
+      <c r="J3" s="220" t="s">
         <v>100</v>
       </c>
-      <c r="K3" s="227" t="s">
+      <c r="K3" s="220" t="s">
         <v>100</v>
       </c>
-      <c r="L3" s="227" t="s">
+      <c r="L3" s="220" t="s">
         <v>100</v>
       </c>
-      <c r="M3" s="214"/>
-      <c r="N3" s="220"/>
-      <c r="O3" s="222"/>
+      <c r="M3" s="214" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="214" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="88"/>
       <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
-    </row>
-    <row r="4" spans="1:17" s="85" customFormat="1" ht="28.9" customHeight="1">
+    </row>
+    <row r="4" spans="1:16" s="85" customFormat="1" ht="28.9" customHeight="1">
       <c r="A4" s="192" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="192"/>
       <c r="C4" s="23" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="F4" s="23" t="s">
         <v>119</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="H4" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="I4" s="227" t="s">
+      <c r="I4" s="220" t="s">
         <v>100</v>
       </c>
-      <c r="J4" s="227" t="s">
+      <c r="J4" s="220" t="s">
         <v>100</v>
       </c>
-      <c r="K4" s="227" t="s">
+      <c r="K4" s="220" t="s">
         <v>100</v>
       </c>
-      <c r="L4" s="227" t="s">
+      <c r="L4" s="220" t="s">
         <v>100</v>
       </c>
-      <c r="M4" s="214"/>
-      <c r="N4" s="220"/>
-      <c r="O4" s="222"/>
+      <c r="M4" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="N4" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="O4" s="88"/>
       <c r="P4" s="88"/>
-      <c r="Q4" s="88"/>
-    </row>
-    <row r="5" spans="1:17" s="85" customFormat="1" ht="21" customHeight="1">
+    </row>
+    <row r="5" spans="1:16" s="85" customFormat="1" ht="21" customHeight="1">
       <c r="A5" s="87"/>
       <c r="B5" s="87"/>
       <c r="C5" s="87"/>
@@ -13394,11 +13500,10 @@
       <c r="L5" s="87"/>
       <c r="M5" s="87"/>
       <c r="N5" s="87"/>
-      <c r="O5" s="222"/>
+      <c r="O5" s="88"/>
       <c r="P5" s="88"/>
-      <c r="Q5" s="88"/>
-    </row>
-    <row r="6" spans="1:17" s="85" customFormat="1">
+    </row>
+    <row r="6" spans="1:16" s="85" customFormat="1">
       <c r="A6" s="87"/>
       <c r="B6" s="90"/>
       <c r="C6" s="87"/>
@@ -13413,11 +13518,10 @@
       <c r="L6" s="87"/>
       <c r="M6" s="87"/>
       <c r="N6" s="87"/>
-      <c r="O6" s="222"/>
+      <c r="O6" s="88"/>
       <c r="P6" s="88"/>
-      <c r="Q6" s="88"/>
-    </row>
-    <row r="7" spans="1:17" s="85" customFormat="1">
+    </row>
+    <row r="7" spans="1:16" s="85" customFormat="1">
       <c r="A7" s="87"/>
       <c r="B7" s="87"/>
       <c r="C7" s="87"/>
@@ -13432,11 +13536,10 @@
       <c r="L7" s="87"/>
       <c r="M7" s="87"/>
       <c r="N7" s="87"/>
-      <c r="O7" s="222"/>
+      <c r="O7" s="88"/>
       <c r="P7" s="88"/>
-      <c r="Q7" s="88"/>
-    </row>
-    <row r="8" spans="1:17" s="85" customFormat="1">
+    </row>
+    <row r="8" spans="1:16" s="85" customFormat="1">
       <c r="A8" s="87"/>
       <c r="B8" s="87"/>
       <c r="C8" s="87"/>
@@ -13451,24 +13554,23 @@
       <c r="L8" s="87"/>
       <c r="M8" s="87"/>
       <c r="N8" s="87"/>
-      <c r="O8" s="222"/>
+      <c r="O8" s="88"/>
       <c r="P8" s="88"/>
-      <c r="Q8" s="88"/>
-    </row>
-    <row r="9" spans="1:17" s="85" customFormat="1">
+    </row>
+    <row r="9" spans="1:16" s="85" customFormat="1">
       <c r="A9" s="34" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="34"/>
-      <c r="C9" s="292"/>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292" t="s">
+      <c r="C9" s="288"/>
+      <c r="D9" s="288"/>
+      <c r="E9" s="288"/>
+      <c r="F9" s="288" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
-      <c r="I9" s="292"/>
+      <c r="G9" s="288"/>
+      <c r="H9" s="288"/>
+      <c r="I9" s="288"/>
       <c r="J9" s="6" t="s">
         <v>27</v>
       </c>
@@ -13476,11 +13578,10 @@
       <c r="L9" s="87"/>
       <c r="M9" s="87"/>
       <c r="N9" s="87"/>
-      <c r="O9" s="222"/>
+      <c r="O9" s="88"/>
       <c r="P9" s="88"/>
-      <c r="Q9" s="88"/>
-    </row>
-    <row r="10" spans="1:17" s="85" customFormat="1" ht="15.75">
+    </row>
+    <row r="10" spans="1:16" s="85" customFormat="1" ht="15.75">
       <c r="A10" s="86" t="s">
         <v>28</v>
       </c>
@@ -13523,11 +13624,10 @@
       <c r="N10" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="221"/>
+      <c r="O10" s="88"/>
       <c r="P10" s="88"/>
-      <c r="Q10" s="88"/>
-    </row>
-    <row r="11" spans="1:17" s="85" customFormat="1">
+    </row>
+    <row r="11" spans="1:16" s="85" customFormat="1">
       <c r="A11" s="86" t="s">
         <v>13</v>
       </c>
@@ -13570,52 +13670,81 @@
       <c r="N11" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="O11" s="221"/>
-      <c r="Q11" s="88"/>
-    </row>
-    <row r="12" spans="1:17" s="85" customFormat="1" ht="23.25" customHeight="1">
+      <c r="P11" s="88"/>
+    </row>
+    <row r="12" spans="1:16" s="85" customFormat="1" ht="23.25" customHeight="1">
       <c r="A12" s="86" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
+      <c r="C12" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="86" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="86" t="s">
+        <v>71</v>
+      </c>
       <c r="I12" s="194"/>
       <c r="J12" s="194"/>
       <c r="K12" s="194"/>
       <c r="L12" s="194"/>
-      <c r="M12" s="86"/>
-      <c r="N12" s="220"/>
-      <c r="O12" s="221"/>
-      <c r="Q12" s="88"/>
-    </row>
-    <row r="13" spans="1:17" s="85" customFormat="1" ht="30" customHeight="1">
+      <c r="M12" s="214" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" s="214" t="s">
+        <v>40</v>
+      </c>
+      <c r="P12" s="88"/>
+    </row>
+    <row r="13" spans="1:16" s="85" customFormat="1" ht="30" customHeight="1">
       <c r="A13" s="86" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="86"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
+      <c r="C13" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>119</v>
+      </c>
       <c r="I13" s="194"/>
       <c r="J13" s="194"/>
       <c r="K13" s="194"/>
       <c r="L13" s="194"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="115"/>
-      <c r="O13" s="221"/>
-      <c r="Q13" s="88"/>
-    </row>
-    <row r="14" spans="1:17" s="85" customFormat="1">
+      <c r="M13" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="N13" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="P13" s="88"/>
+    </row>
+    <row r="14" spans="1:16" s="85" customFormat="1">
       <c r="A14" s="87"/>
       <c r="B14" s="87"/>
       <c r="C14" s="87"/>
@@ -13627,10 +13756,9 @@
       <c r="I14" s="87"/>
       <c r="J14" s="87"/>
       <c r="K14" s="87"/>
-      <c r="O14" s="221"/>
-      <c r="Q14" s="88"/>
-    </row>
-    <row r="15" spans="1:17" s="85" customFormat="1">
+      <c r="P14" s="88"/>
+    </row>
+    <row r="15" spans="1:16" s="85" customFormat="1">
       <c r="A15" s="87"/>
       <c r="B15" s="87"/>
       <c r="C15" s="87"/>
@@ -13645,11 +13773,10 @@
       <c r="L15" s="87"/>
       <c r="M15" s="87"/>
       <c r="N15" s="87"/>
-      <c r="O15" s="222"/>
+      <c r="O15" s="88"/>
       <c r="P15" s="88"/>
-      <c r="Q15" s="88"/>
-    </row>
-    <row r="16" spans="1:17" s="85" customFormat="1">
+    </row>
+    <row r="16" spans="1:16" s="85" customFormat="1">
       <c r="A16" s="87"/>
       <c r="B16" s="87"/>
       <c r="C16" s="87"/>
@@ -13662,11 +13789,10 @@
       <c r="L16" s="87"/>
       <c r="M16" s="87"/>
       <c r="N16" s="87"/>
-      <c r="O16" s="222"/>
+      <c r="O16" s="88"/>
       <c r="P16" s="88"/>
-      <c r="Q16" s="88"/>
-    </row>
-    <row r="17" spans="1:17" s="85" customFormat="1">
+    </row>
+    <row r="17" spans="1:16" s="85" customFormat="1">
       <c r="A17" s="87"/>
       <c r="B17" s="87"/>
       <c r="C17" s="87"/>
@@ -13681,36 +13807,34 @@
       <c r="L17" s="87"/>
       <c r="M17" s="87"/>
       <c r="N17" s="87"/>
-      <c r="O17" s="222"/>
+      <c r="O17" s="88"/>
       <c r="P17" s="88"/>
-      <c r="Q17" s="88"/>
-    </row>
-    <row r="18" spans="1:17" s="85" customFormat="1" ht="15.75">
+    </row>
+    <row r="18" spans="1:16" s="85" customFormat="1">
       <c r="A18" s="34" t="s">
         <v>37</v>
       </c>
       <c r="B18" s="34"/>
-      <c r="C18" s="292"/>
-      <c r="D18" s="292"/>
-      <c r="E18" s="292"/>
-      <c r="F18" s="292" t="s">
+      <c r="C18" s="288"/>
+      <c r="D18" s="288"/>
+      <c r="E18" s="288"/>
+      <c r="F18" s="288" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="292"/>
-      <c r="H18" s="292"/>
-      <c r="I18" s="292"/>
+      <c r="G18" s="288"/>
+      <c r="H18" s="288"/>
+      <c r="I18" s="288"/>
       <c r="J18" s="89"/>
-      <c r="K18" s="297" t="s">
+      <c r="K18" s="293" t="s">
         <v>73</v>
       </c>
-      <c r="L18" s="298"/>
-      <c r="M18" s="217"/>
+      <c r="L18" s="294"/>
+      <c r="M18" s="216"/>
       <c r="N18" s="113"/>
-      <c r="O18" s="107"/>
-      <c r="P18" s="116"/>
-      <c r="Q18" s="88"/>
-    </row>
-    <row r="19" spans="1:17" s="85" customFormat="1" ht="15.75">
+      <c r="O18" s="116"/>
+      <c r="P18" s="88"/>
+    </row>
+    <row r="19" spans="1:16" s="85" customFormat="1" ht="15.75">
       <c r="A19" s="112" t="s">
         <v>28</v>
       </c>
@@ -13753,10 +13877,9 @@
       <c r="N19" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="O19" s="221"/>
-      <c r="Q19" s="88"/>
-    </row>
-    <row r="20" spans="1:17" s="85" customFormat="1" ht="22.5" customHeight="1">
+      <c r="P19" s="88"/>
+    </row>
+    <row r="20" spans="1:16" s="85" customFormat="1" ht="22.5" customHeight="1">
       <c r="A20" s="112" t="s">
         <v>13</v>
       </c>
@@ -13790,14 +13913,19 @@
       <c r="K20" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="L20" s="219"/>
-      <c r="M20" s="219"/>
-      <c r="N20" s="226"/>
-      <c r="O20" s="221"/>
-      <c r="P20" s="116"/>
-      <c r="Q20" s="88"/>
-    </row>
-    <row r="21" spans="1:17" s="85" customFormat="1" ht="23.25" customHeight="1">
+      <c r="L20" s="112" t="s">
+        <v>40</v>
+      </c>
+      <c r="M20" s="214" t="s">
+        <v>40</v>
+      </c>
+      <c r="N20" s="214" t="s">
+        <v>40</v>
+      </c>
+      <c r="O20" s="116"/>
+      <c r="P20" s="88"/>
+    </row>
+    <row r="21" spans="1:16" s="85" customFormat="1" ht="23.25" customHeight="1">
       <c r="A21" s="112" t="s">
         <v>21</v>
       </c>
@@ -13808,33 +13936,42 @@
         <v>40</v>
       </c>
       <c r="D21" s="112" t="s">
-        <v>46</v>
+        <v>187</v>
       </c>
       <c r="E21" s="112" t="s">
         <v>46</v>
       </c>
       <c r="F21" s="112" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="G21" s="112" t="s">
-        <v>46</v>
+        <v>187</v>
       </c>
       <c r="H21" s="112" t="s">
         <v>71</v>
       </c>
-      <c r="I21" s="23"/>
-      <c r="J21" s="112"/>
-      <c r="K21" s="112"/>
+      <c r="I21" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="112" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21" s="112" t="s">
+        <v>46</v>
+      </c>
       <c r="L21" s="112" t="s">
-        <v>128</v>
-      </c>
-      <c r="M21" s="112"/>
-      <c r="N21" s="226"/>
-      <c r="O21" s="221"/>
-      <c r="P21" s="116"/>
-      <c r="Q21" s="88"/>
-    </row>
-    <row r="22" spans="1:17" s="85" customFormat="1" ht="24" customHeight="1">
+        <v>40</v>
+      </c>
+      <c r="M21" s="214" t="s">
+        <v>40</v>
+      </c>
+      <c r="N21" s="214" t="s">
+        <v>40</v>
+      </c>
+      <c r="O21" s="116"/>
+      <c r="P21" s="88"/>
+    </row>
+    <row r="22" spans="1:16" s="85" customFormat="1" ht="24" customHeight="1">
       <c r="A22" s="112" t="s">
         <v>22</v>
       </c>
@@ -13843,28 +13980,42 @@
         <v>119</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E22" s="23" t="s">
         <v>119</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="H22" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="226"/>
-      <c r="O22" s="221"/>
-      <c r="P22" s="116"/>
-      <c r="Q22" s="88"/>
-    </row>
-    <row r="23" spans="1:17" s="85" customFormat="1" ht="26.25" customHeight="1">
+      <c r="I22" t="s">
+        <v>119</v>
+      </c>
+      <c r="J22" t="s">
+        <v>119</v>
+      </c>
+      <c r="K22" t="s">
+        <v>126</v>
+      </c>
+      <c r="L22" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="M22" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="N22" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="O22" s="116"/>
+      <c r="P22" s="88"/>
+    </row>
+    <row r="23" spans="1:16" s="85" customFormat="1" ht="26.25" customHeight="1">
       <c r="A23" s="112"/>
       <c r="B23" s="112"/>
       <c r="C23" s="112"/>
@@ -13878,12 +14029,11 @@
       <c r="K23" s="112"/>
       <c r="L23" s="112"/>
       <c r="M23" s="112"/>
-      <c r="N23" s="226"/>
-      <c r="O23" s="221"/>
+      <c r="N23" s="219"/>
+      <c r="O23" s="88"/>
       <c r="P23" s="88"/>
-      <c r="Q23" s="88"/>
-    </row>
-    <row r="24" spans="1:17" s="85" customFormat="1">
+    </row>
+    <row r="24" spans="1:16" s="85" customFormat="1">
       <c r="A24" s="87"/>
       <c r="B24" s="87"/>
       <c r="C24" s="87"/>
@@ -13898,11 +14048,10 @@
       <c r="L24" s="87"/>
       <c r="M24" s="87"/>
       <c r="N24" s="87"/>
-      <c r="O24" s="222"/>
+      <c r="O24" s="88"/>
       <c r="P24" s="88"/>
-      <c r="Q24" s="88"/>
-    </row>
-    <row r="25" spans="1:17" s="85" customFormat="1">
+    </row>
+    <row r="25" spans="1:16" s="85" customFormat="1">
       <c r="A25" s="87"/>
       <c r="B25" s="87"/>
       <c r="C25" s="87"/>
@@ -13917,11 +14066,10 @@
       <c r="L25" s="87"/>
       <c r="M25" s="87"/>
       <c r="N25" s="87"/>
-      <c r="O25" s="222"/>
-      <c r="P25" s="87"/>
-      <c r="Q25" s="88"/>
-    </row>
-    <row r="26" spans="1:17" s="85" customFormat="1">
+      <c r="O25" s="87"/>
+      <c r="P25" s="88"/>
+    </row>
+    <row r="26" spans="1:16" s="85" customFormat="1">
       <c r="A26" s="87"/>
       <c r="B26" s="87"/>
       <c r="C26" s="87"/>
@@ -13936,38 +14084,36 @@
       <c r="L26" s="87"/>
       <c r="M26" s="87"/>
       <c r="N26" s="87"/>
-      <c r="O26" s="222"/>
-      <c r="P26" s="87"/>
-      <c r="Q26" s="88"/>
-    </row>
-    <row r="27" spans="1:17" s="85" customFormat="1">
+      <c r="O26" s="87"/>
+      <c r="P26" s="88"/>
+    </row>
+    <row r="27" spans="1:16" s="85" customFormat="1">
       <c r="A27" s="34" t="s">
         <v>74</v>
       </c>
       <c r="B27" s="34"/>
-      <c r="C27" s="292"/>
-      <c r="D27" s="292"/>
-      <c r="E27" s="292"/>
-      <c r="F27" s="292" t="s">
+      <c r="C27" s="288"/>
+      <c r="D27" s="288"/>
+      <c r="E27" s="288"/>
+      <c r="F27" s="288" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="292"/>
-      <c r="H27" s="292"/>
-      <c r="I27" s="292"/>
-      <c r="J27" s="296" t="s">
+      <c r="G27" s="288"/>
+      <c r="H27" s="288"/>
+      <c r="I27" s="288"/>
+      <c r="J27" s="292" t="s">
         <v>73</v>
       </c>
-      <c r="K27" s="296"/>
+      <c r="K27" s="292"/>
       <c r="L27" s="86"/>
-      <c r="M27" s="215"/>
-      <c r="N27" s="224" t="s">
+      <c r="M27" s="214"/>
+      <c r="N27" s="218" t="s">
         <v>75</v>
       </c>
-      <c r="O27" s="225"/>
-      <c r="P27" s="87"/>
-      <c r="Q27" s="88"/>
-    </row>
-    <row r="28" spans="1:17" s="85" customFormat="1" ht="15.75">
+      <c r="O27" s="87"/>
+      <c r="P27" s="88"/>
+    </row>
+    <row r="28" spans="1:16" s="85" customFormat="1" ht="15.75">
       <c r="A28" s="86" t="s">
         <v>28</v>
       </c>
@@ -14010,11 +14156,10 @@
       <c r="N28" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="O28" s="221"/>
-      <c r="P28" s="87"/>
-      <c r="Q28" s="88"/>
-    </row>
-    <row r="29" spans="1:17" s="85" customFormat="1" ht="27" customHeight="1">
+      <c r="O28" s="87"/>
+      <c r="P28" s="88"/>
+    </row>
+    <row r="29" spans="1:16" s="85" customFormat="1" ht="27" customHeight="1">
       <c r="A29" s="86" t="s">
         <v>13</v>
       </c>
@@ -14057,55 +14202,100 @@
       <c r="N29" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="O29" s="221"/>
-      <c r="P29" s="87"/>
-      <c r="Q29" s="88"/>
-    </row>
-    <row r="30" spans="1:17" s="85" customFormat="1" ht="27.75" customHeight="1">
+      <c r="O29" s="87"/>
+      <c r="P29" s="88"/>
+    </row>
+    <row r="30" spans="1:16" s="85" customFormat="1" ht="27.75" customHeight="1">
       <c r="A30" s="86" t="s">
         <v>21</v>
       </c>
       <c r="B30" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="86"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="86"/>
-      <c r="I30" s="86"/>
-      <c r="J30" s="86"/>
-      <c r="K30" s="86"/>
-      <c r="L30" s="86"/>
-      <c r="M30" s="86"/>
-      <c r="N30" s="220"/>
-      <c r="O30" s="221"/>
-      <c r="P30" s="87"/>
-      <c r="Q30" s="88"/>
-    </row>
-    <row r="31" spans="1:17" s="85" customFormat="1" ht="26.25" customHeight="1">
+      <c r="C30" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="86" t="s">
+        <v>128</v>
+      </c>
+      <c r="F30" s="86" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="I30" s="86" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="K30" s="86" t="s">
+        <v>70</v>
+      </c>
+      <c r="L30" s="86" t="s">
+        <v>128</v>
+      </c>
+      <c r="M30" s="214" t="s">
+        <v>40</v>
+      </c>
+      <c r="N30" s="214" t="s">
+        <v>40</v>
+      </c>
+      <c r="O30" s="87"/>
+      <c r="P30" s="88"/>
+    </row>
+    <row r="31" spans="1:16" s="85" customFormat="1" ht="26.25" customHeight="1">
       <c r="A31" s="86" t="s">
         <v>22</v>
       </c>
       <c r="B31" s="86"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="86"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="115"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="87"/>
-      <c r="Q31" s="88"/>
-    </row>
-    <row r="32" spans="1:17" s="85" customFormat="1">
+      <c r="C31" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="H31" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="I31" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="J31" s="86" t="s">
+        <v>126</v>
+      </c>
+      <c r="K31" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="L31" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="M31" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="N31" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="O31" s="87"/>
+      <c r="P31" s="88"/>
+    </row>
+    <row r="32" spans="1:16" s="85" customFormat="1">
       <c r="A32" s="84"/>
       <c r="B32" s="84"/>
       <c r="C32" s="84"/>
@@ -14120,10 +14310,9 @@
       <c r="L32" s="84"/>
       <c r="M32" s="84"/>
       <c r="N32" s="84"/>
-      <c r="O32" s="223"/>
-      <c r="P32" s="84"/>
-    </row>
-    <row r="33" spans="1:16" s="85" customFormat="1">
+      <c r="O32" s="84"/>
+    </row>
+    <row r="33" spans="1:15" s="85" customFormat="1">
       <c r="A33" s="84"/>
       <c r="B33" s="84"/>
       <c r="C33" s="84"/>
@@ -14138,10 +14327,9 @@
       <c r="L33" s="84"/>
       <c r="M33" s="84"/>
       <c r="N33" s="84"/>
-      <c r="O33" s="223"/>
-      <c r="P33" s="84"/>
-    </row>
-    <row r="34" spans="1:16" s="85" customFormat="1">
+      <c r="O33" s="84"/>
+    </row>
+    <row r="34" spans="1:15" s="85" customFormat="1">
       <c r="A34" s="84"/>
       <c r="B34" s="84"/>
       <c r="C34" s="84"/>
@@ -14151,10 +14339,9 @@
       <c r="G34" s="84"/>
       <c r="H34" s="84"/>
       <c r="N34" s="84"/>
-      <c r="O34" s="223"/>
-      <c r="P34" s="84"/>
-    </row>
-    <row r="35" spans="1:16" s="85" customFormat="1">
+      <c r="O34" s="84"/>
+    </row>
+    <row r="35" spans="1:15" s="85" customFormat="1">
       <c r="A35" s="84"/>
       <c r="B35" s="84"/>
       <c r="C35" s="84"/>
@@ -14164,8 +14351,7 @@
       <c r="G35" s="84"/>
       <c r="H35" s="84"/>
       <c r="N35" s="84"/>
-      <c r="O35" s="223"/>
-      <c r="P35" s="84"/>
+      <c r="O35" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -14222,7 +14408,7 @@
       <c r="C1" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="216" t="s">
+      <c r="D1" s="215" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="118" t="s">
@@ -14285,7 +14471,7 @@
       <c r="J2" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="216" t="s">
+      <c r="K2" s="215" t="s">
         <v>15</v>
       </c>
       <c r="L2" s="199"/>
@@ -14334,7 +14520,7 @@
       <c r="I4" s="130"/>
       <c r="J4" s="130"/>
       <c r="K4" s="137"/>
-      <c r="L4" s="218"/>
+      <c r="L4" s="217"/>
       <c r="M4" s="199"/>
       <c r="N4" s="199"/>
       <c r="O4" s="123"/>
@@ -14427,13 +14613,13 @@
         <v>23</v>
       </c>
       <c r="B9" s="135"/>
-      <c r="C9" s="299"/>
-      <c r="D9" s="299"/>
-      <c r="E9" s="301" t="s">
+      <c r="C9" s="295"/>
+      <c r="D9" s="295"/>
+      <c r="E9" s="297" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="301"/>
-      <c r="G9" s="301"/>
+      <c r="F9" s="297"/>
+      <c r="G9" s="297"/>
       <c r="H9" s="205"/>
       <c r="I9" s="205"/>
       <c r="J9" s="205"/>
@@ -14724,8 +14910,8 @@
         <v>37</v>
       </c>
       <c r="B18" s="135"/>
-      <c r="C18" s="299"/>
-      <c r="D18" s="299"/>
+      <c r="C18" s="295"/>
+      <c r="D18" s="295"/>
       <c r="E18" s="141" t="s">
         <v>25</v>
       </c>
@@ -15019,20 +15205,20 @@
         <v>49</v>
       </c>
       <c r="B27" s="135"/>
-      <c r="C27" s="299"/>
-      <c r="D27" s="299"/>
-      <c r="E27" s="299" t="s">
+      <c r="C27" s="295"/>
+      <c r="D27" s="295"/>
+      <c r="E27" s="295" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="299"/>
-      <c r="G27" s="299"/>
-      <c r="H27" s="299"/>
-      <c r="I27" s="299"/>
-      <c r="J27" s="299"/>
-      <c r="K27" s="299"/>
+      <c r="F27" s="295"/>
+      <c r="G27" s="295"/>
+      <c r="H27" s="295"/>
+      <c r="I27" s="295"/>
+      <c r="J27" s="295"/>
+      <c r="K27" s="295"/>
       <c r="L27" s="200"/>
-      <c r="M27" s="300"/>
-      <c r="N27" s="300"/>
+      <c r="M27" s="296"/>
+      <c r="N27" s="296"/>
       <c r="O27" s="129"/>
       <c r="P27" s="129"/>
       <c r="Q27" s="123"/>

--- a/PayrollProject/OutPutTestResult/Court order Scenarios Test result.xlsx
+++ b/PayrollProject/OutPutTestResult/Court order Scenarios Test result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\git\24-7PeopleXCDPayroll\PayrollProject\OutPutTestResult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B21664-9595-4FE7-AC7F-CF7C98B3A26A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A3D49D-FBB8-43D3-87B3-135764F4B933}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36180" windowWidth="19095" windowHeight="7275" firstSheet="14" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="38310" windowWidth="19095" windowHeight="7275" firstSheet="14" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AEO1971civildebt" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2499" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2499" uniqueCount="196">
   <si>
     <t>ColumnHeading</t>
   </si>
@@ -617,6 +617,12 @@
   </si>
   <si>
     <t>This field is not getting displayed in Report</t>
+  </si>
+  <si>
+    <t>GBP 582.00</t>
+  </si>
+  <si>
+    <t>GBP 1,582.00</t>
   </si>
 </sst>
 </file>
@@ -7236,8 +7242,8 @@
   </sheetPr>
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="K7" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -8206,7 +8212,7 @@
   <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -8359,31 +8365,31 @@
         <v>84</v>
       </c>
       <c r="C3" s="264" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="264" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="264" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="150" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="264" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="264" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="150" t="s">
-        <v>128</v>
-      </c>
       <c r="G3" s="150" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H3" s="150" t="s">
         <v>46</v>
       </c>
       <c r="I3" s="150" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="J3" s="150" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K3" s="150" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="L3" s="150" t="s">
         <v>86</v>
@@ -8395,7 +8401,7 @@
         <v>166</v>
       </c>
       <c r="O3" s="150" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="P3" s="150" t="s">
         <v>76</v>
@@ -8416,31 +8422,31 @@
       </c>
       <c r="B4" s="30"/>
       <c r="C4" s="264" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="264" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="264" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="D4" s="264" t="s">
-        <v>119</v>
-      </c>
-      <c r="E4" s="264" t="s">
-        <v>119</v>
-      </c>
-      <c r="F4" s="72" t="s">
-        <v>126</v>
-      </c>
       <c r="G4" s="72" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="H4" s="72" t="s">
         <v>119</v>
       </c>
       <c r="I4" s="72" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="J4" s="72" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="K4" s="150" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="L4" s="150" t="s">
         <v>119</v>
@@ -8452,7 +8458,7 @@
         <v>119</v>
       </c>
       <c r="O4" s="72" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="P4" s="72" t="s">
         <v>119</v>
@@ -8645,31 +8651,31 @@
         <v>84</v>
       </c>
       <c r="C11" s="268" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D11" s="268" t="s">
-        <v>89</v>
+        <v>194</v>
       </c>
       <c r="E11" s="268" t="s">
-        <v>89</v>
+        <v>195</v>
       </c>
       <c r="F11" s="150" t="s">
         <v>76</v>
       </c>
       <c r="G11" s="150" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H11" s="150" t="s">
         <v>46</v>
       </c>
       <c r="I11" s="150" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="J11" s="150" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="K11" s="150" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="L11" s="150" t="s">
         <v>86</v>
@@ -8681,16 +8687,16 @@
         <v>166</v>
       </c>
       <c r="O11" s="150" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="P11" s="150" t="s">
-        <v>47</v>
+        <v>193</v>
       </c>
       <c r="Q11" s="264" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R11" s="269" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="S11" s="266" t="s">
         <v>100</v>
@@ -8702,31 +8708,31 @@
       </c>
       <c r="B12" s="263"/>
       <c r="C12" s="72" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D12" s="72" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E12" s="72" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="F12" s="72" t="s">
         <v>119</v>
       </c>
       <c r="G12" s="72" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="H12" s="72" t="s">
         <v>119</v>
       </c>
       <c r="I12" s="72" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="J12" s="72" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="K12" s="150" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="L12" s="150" t="s">
         <v>119</v>
@@ -8738,16 +8744,16 @@
         <v>119</v>
       </c>
       <c r="O12" s="72" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="P12" s="72" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="Q12" s="72" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="R12" s="72" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="S12" s="266" t="s">
         <v>100</v>

--- a/PayrollProject/OutPutTestResult/Court order Scenarios Test result.xlsx
+++ b/PayrollProject/OutPutTestResult/Court order Scenarios Test result.xlsx
@@ -1,41 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\git\24-7PeopleXCDPayroll\PayrollProject\OutPutTestResult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B951D1B-0F65-4C78-9848-8158674295AB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{2AF4F9D1-B04A-4D94-9462-80C439374E96}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="85605" windowWidth="19095" windowHeight="7275" firstSheet="14" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="3" firstSheet="3" windowHeight="7275" windowWidth="19095" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="86235"/>
   </bookViews>
   <sheets>
-    <sheet name="AEO1971civildebt" sheetId="1" r:id="rId1"/>
-    <sheet name="CAEO1971civildebt" sheetId="2" r:id="rId2"/>
-    <sheet name="CAPS" sheetId="3" r:id="rId3"/>
-    <sheet name="PAEO1971Maintenance" sheetId="4" r:id="rId4"/>
-    <sheet name="PAEO1971Fine" sheetId="5" r:id="rId5"/>
-    <sheet name="PAEO2003Fine" sheetId="6" r:id="rId6"/>
-    <sheet name="CTAEOCouncilTax" sheetId="7" r:id="rId7"/>
-    <sheet name="DEO2003ChildMaintenace" sheetId="8" r:id="rId8"/>
-    <sheet name="DEO1993ChildMaintenance" sheetId="9" r:id="rId9"/>
-    <sheet name="DEO2012ChildMaintenance" sheetId="16" r:id="rId10"/>
-    <sheet name="DEASocialSecurityDebt" sheetId="17" r:id="rId11"/>
-    <sheet name="DEAFixedRateSocalSecrtyDebt" sheetId="15" r:id="rId12"/>
-    <sheet name="Mltple2ProtyPAEOAndDEOIO" sheetId="14" r:id="rId13"/>
-    <sheet name="Mltple2ProtyPAEOAndDEOIODecJan" sheetId="18" r:id="rId14"/>
-    <sheet name="OneMultiplePriorityOneOther" sheetId="10" r:id="rId15"/>
-    <sheet name="TwoMultipleNonPriorityOrders" sheetId="13" r:id="rId16"/>
+    <sheet name="AEO1971civildebt" r:id="rId1" sheetId="1"/>
+    <sheet name="CAEO1971civildebt" r:id="rId2" sheetId="2"/>
+    <sheet name="CAPS" r:id="rId3" sheetId="3"/>
+    <sheet name="PAEO1971Maintenance" r:id="rId4" sheetId="4"/>
+    <sheet name="PAEO1971Fine" r:id="rId5" sheetId="5"/>
+    <sheet name="PAEO2003Fine" r:id="rId6" sheetId="6"/>
+    <sheet name="CTAEOCouncilTax" r:id="rId7" sheetId="7"/>
+    <sheet name="DEO2003ChildMaintenace" r:id="rId8" sheetId="8"/>
+    <sheet name="DEO1993ChildMaintenance" r:id="rId9" sheetId="9"/>
+    <sheet name="DEO2012ChildMaintenance" r:id="rId10" sheetId="16"/>
+    <sheet name="DEASocialSecurityDebt" r:id="rId11" sheetId="17"/>
+    <sheet name="DEAFixedRateSocalSecrtyDebt" r:id="rId12" sheetId="15"/>
+    <sheet name="Mltple2ProtyPAEOAndDEOIO" r:id="rId13" sheetId="14"/>
+    <sheet name="Mltple2ProtyPAEOAndDEOIODecJan" r:id="rId14" sheetId="18"/>
+    <sheet name="OneMultiplePriorityOneOther" r:id="rId15" sheetId="10"/>
+    <sheet name="TwoMultipleNonPriorityOrders" r:id="rId16" sheetId="13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2605" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2611" uniqueCount="181">
   <si>
     <t>ColumnHeading</t>
   </si>
@@ -584,7 +584,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="57">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+  </numFmts>
+  <fonts count="73">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -966,6 +969,102 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1005,7 +1104,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1131,775 +1230,815 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="39" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="300">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="316">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="32" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="33" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="33" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="34" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="33" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="35" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="3" fillId="0" fontId="32" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="36" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="36" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="44" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="45" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="34" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="35" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="38" numFmtId="49" xfId="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="0" fontId="33" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="35" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="6" fillId="0" fontId="33" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="32" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="32" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="3" fillId="0" fontId="33" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="32" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="30" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="32" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="29" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="32" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="27" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="41" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="42" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="43" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="43" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="44" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="44" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="45" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="45" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="41" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="32" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="42" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="26" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="26" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="26" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="26" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="26" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="35" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="32" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="42" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="25" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="25" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="7" fillId="0" fontId="25" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="25" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="25" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="7" fillId="0" fontId="25" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="42" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="24" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="24" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="24" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="33" numFmtId="49" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="46" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="47" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="47" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="46" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="48" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="47" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="49" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="49" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="51" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="49" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="52" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="51" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="52" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="23" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="22" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="46" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="47" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="47" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="46" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="22" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="48" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="40" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="3" fillId="0" fontId="47" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="21" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="38" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="38" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="41" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="20" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="42" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="43" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="18" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="42" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="33" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="17" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="0" fontId="17" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="0" fontId="43" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="0" fontId="35" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="24" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="42" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="49" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="50" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="49" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="50" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="51" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="16" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="51" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="49" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="52" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="3" fillId="0" fontId="50" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="51" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="51" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="51" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="51" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="51" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="50" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="16" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="52" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="51" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="51" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="50" numFmtId="49" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="49" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="52" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="0" fontId="41" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="7" fillId="0" fontId="49" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="7" fillId="0" fontId="52" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="7" fillId="0" fontId="50" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="32" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="33" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="42" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="33" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="33" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="33" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="32" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="33" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="42" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="12" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="12" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="12" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="12" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="42" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="27" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="7" fillId="0" fontId="43" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="42" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="7" fillId="0" fontId="42" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="7" fillId="0" fontId="41" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="11" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="46" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="47" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="33" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="33" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="0" fontId="46" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="6" fillId="0" fontId="47" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="0" fontId="40" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="0" fontId="31" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="53" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="42" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="0" fontId="26" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="0" fontId="35" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="26" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="42" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="33" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="24" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="33" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="49" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="50" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="0" fontId="49" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="4" fillId="0" fontId="50" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="16" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="49" numFmtId="49" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="16" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="16" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="52" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="16" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="32" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="33" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="50" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="15" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="15" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="14" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="13" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="32" numFmtId="49" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="24" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="50" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="8" fillId="0" fontId="33" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="52" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="0" fontId="24" numFmtId="49" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="24" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="33" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="42" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="33" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="32" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="33" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="32" numFmtId="49" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="42" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="33" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="32" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="33" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="8" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="32" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="42" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="33" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="42" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="33" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="7" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="34" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="35" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="38" numFmtId="49" xfId="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="6" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="42" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="33" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="42" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="33" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="54" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="33" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="42" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="33" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="4" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="4" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="4" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="33" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="33" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="9" fillId="4" fontId="56" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="9" fillId="4" fontId="55" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="35" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="5" fontId="35" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="2" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="33" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="4" fontId="56" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="40" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="27" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="33" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="33" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="33" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="52" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="33" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="33" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="6" fontId="35" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="33" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="32" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="38" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="42" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="7" fillId="0" fontId="42" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="33" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="0" fontId="33" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="5" fillId="0" fontId="33" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="50" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="49" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="50" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="32" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="57" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="58" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="59" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="60" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="61" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="13" fillId="0" fontId="62" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="63" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="14" fillId="0" fontId="64" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="65" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="15" fillId="0" fontId="66" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="67" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="16" fillId="0" fontId="68" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="69" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="17" fillId="0" fontId="70" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="72" fillId="0" borderId="18" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <mruColors>
       <color rgb="FFD9D9D9"/>
@@ -1921,10 +2060,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2088,21 +2227,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2119,7 +2258,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2173,7 +2312,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -2185,22 +2324,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="11" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="21.7109375" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="10" max="11" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="26" width="21.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="44.25" customHeight="1">
+    <row customHeight="1" ht="44.25" r="1" spans="1:19">
       <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
@@ -2249,7 +2388,7 @@
       <c r="R1" s="35"/>
       <c r="S1" s="35"/>
     </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="35.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="35.25" r="2" s="1" spans="1:19">
       <c r="A2" s="95" t="s">
         <v>13</v>
       </c>
@@ -2298,7 +2437,7 @@
       <c r="R2" s="36"/>
       <c r="S2" s="36"/>
     </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" ht="35.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="35.25" r="3" s="1" spans="1:19">
       <c r="A3" s="90" t="s">
         <v>21</v>
       </c>
@@ -2347,7 +2486,7 @@
       <c r="R3" s="36"/>
       <c r="S3" s="36"/>
     </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" ht="23.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="23.25" r="4" s="1" spans="1:19">
       <c r="A4" s="90" t="s">
         <v>22</v>
       </c>
@@ -2509,7 +2648,7 @@
       <c r="R9" s="35"/>
       <c r="S9" s="35"/>
     </row>
-    <row r="10" spans="1:19" ht="44.25" customHeight="1">
+    <row customHeight="1" ht="44.25" r="10" spans="1:19">
       <c r="A10" s="8" t="s">
         <v>0</v>
       </c>
@@ -2558,7 +2697,7 @@
       <c r="R10" s="35"/>
       <c r="S10" s="35"/>
     </row>
-    <row r="11" spans="1:19" s="1" customFormat="1" ht="35.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="35.25" r="11" s="1" spans="1:19">
       <c r="A11" s="8" t="s">
         <v>13</v>
       </c>
@@ -2607,7 +2746,7 @@
       <c r="R11" s="36"/>
       <c r="S11" s="36"/>
     </row>
-    <row r="12" spans="1:19" s="1" customFormat="1" ht="35.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="35.25" r="12" s="1" spans="1:19">
       <c r="A12" s="5"/>
       <c r="B12" s="9" t="s">
         <v>14</v>
@@ -2654,7 +2793,7 @@
       <c r="R12" s="36"/>
       <c r="S12" s="36"/>
     </row>
-    <row r="13" spans="1:19" s="1" customFormat="1" ht="21.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="21.75" r="13" s="1" spans="1:19">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="23" t="s">
@@ -2704,13 +2843,13 @@
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="H9:L9"/>
   </mergeCells>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -2722,24 +2861,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="27.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="31.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="33.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="27.7109375" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="32.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="31.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="33.140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="32.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="32.450000000000003" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="32.450000000000003" r="1" s="1" spans="1:15">
       <c r="A1" s="34" t="s">
         <v>31</v>
       </c>
@@ -2780,7 +2919,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" ht="21.6" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="21.6" r="2" s="1" spans="1:15">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
@@ -2821,7 +2960,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="27" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="27" r="3" s="1" spans="1:15">
       <c r="A3" s="5" t="s">
         <v>21</v>
       </c>
@@ -2862,7 +3001,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="28.9" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="28.9" r="4" s="1" spans="1:15">
       <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
@@ -2901,7 +3040,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75">
+    <row ht="15.75" r="5" spans="1:15">
       <c r="A5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="17"/>
@@ -2911,7 +3050,7 @@
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
     </row>
-    <row r="6" spans="1:15" ht="15.75">
+    <row ht="15.75" r="6" spans="1:15">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -2962,7 +3101,7 @@
       <c r="N8" s="13"/>
       <c r="O8" s="13"/>
     </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="24" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="24" r="9" s="1" spans="1:15">
       <c r="A9" s="34" t="s">
         <v>23</v>
       </c>
@@ -2981,7 +3120,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="1:15" s="1" customFormat="1" ht="32.450000000000003" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="32.450000000000003" r="10" s="1" spans="1:15">
       <c r="A10" s="5" t="s">
         <v>28</v>
       </c>
@@ -3022,7 +3161,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="1" customFormat="1" ht="21.6" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="21.6" r="11" s="1" spans="1:15">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -3063,7 +3202,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="1" customFormat="1" ht="27" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="27" r="12" s="1" spans="1:15">
       <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
@@ -3104,7 +3243,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="1" customFormat="1" ht="28.9" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="28.9" r="13" s="1" spans="1:15">
       <c r="A13" s="5" t="s">
         <v>22</v>
       </c>
@@ -3213,7 +3352,7 @@
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
     </row>
-    <row r="18" spans="1:15" s="1" customFormat="1" ht="24" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="24" r="18" s="1" spans="1:15">
       <c r="A18" s="34" t="s">
         <v>37</v>
       </c>
@@ -3234,7 +3373,7 @@
       <c r="N18" s="31"/>
       <c r="O18" s="31"/>
     </row>
-    <row r="19" spans="1:15" s="1" customFormat="1" ht="46.9" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="46.9" r="19" s="1" spans="1:15">
       <c r="A19" s="5" t="s">
         <v>28</v>
       </c>
@@ -3275,7 +3414,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="1" customFormat="1" ht="21.6" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="21.6" r="20" s="1" spans="1:15">
       <c r="A20" s="5" t="s">
         <v>13</v>
       </c>
@@ -3316,7 +3455,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="1" customFormat="1" ht="27" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="27" r="21" s="1" spans="1:15">
       <c r="A21" s="5" t="s">
         <v>21</v>
       </c>
@@ -3357,7 +3496,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="1" customFormat="1" ht="28.9" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="28.9" r="22" s="1" spans="1:15">
       <c r="A22" s="5" t="s">
         <v>22</v>
       </c>
@@ -3464,7 +3603,7 @@
       <c r="N26" s="13"/>
       <c r="O26" s="13"/>
     </row>
-    <row r="27" spans="1:15" s="1" customFormat="1" ht="24" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="24" r="27" s="1" spans="1:15">
       <c r="A27" s="34" t="s">
         <v>49</v>
       </c>
@@ -3483,7 +3622,7 @@
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
     </row>
-    <row r="28" spans="1:15" s="1" customFormat="1" ht="32.450000000000003" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="32.450000000000003" r="28" s="1" spans="1:15">
       <c r="A28" s="5" t="s">
         <v>28</v>
       </c>
@@ -3524,7 +3663,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="1" customFormat="1" ht="21.6" customHeight="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="21.6" r="29" s="1" spans="1:15" thickBot="1">
       <c r="A29" s="5" t="s">
         <v>13</v>
       </c>
@@ -3565,7 +3704,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="1" customFormat="1" ht="27" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="27" r="30" s="1" spans="1:15">
       <c r="A30" s="5" t="s">
         <v>21</v>
       </c>
@@ -3606,7 +3745,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="1" customFormat="1" ht="28.9" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="28.9" r="31" s="1" spans="1:15">
       <c r="A31" s="5" t="s">
         <v>22</v>
       </c>
@@ -3671,26 +3810,26 @@
     <mergeCell ref="C27:E27"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I1" r:id="rId1" tooltip="Prot. earnings contribution - Click to sort ascending" display="Prot. earnings contribution" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
-    <hyperlink ref="J1" r:id="rId2" tooltip="Benefit: Shortfall carry forward - Click to sort ascending" display="Benefit: Shortfall carry forward" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
-    <hyperlink ref="K1" r:id="rId3" tooltip="Benefit: Protected earnings carried forward - Click to sort ascending" display="Benefit: Protected earnings carried forward" xr:uid="{00000000-0004-0000-0900-000002000000}"/>
-    <hyperlink ref="I10" r:id="rId4" tooltip="Prot. earnings contribution - Click to sort ascending" display="Prot. earnings contribution" xr:uid="{00000000-0004-0000-0900-000003000000}"/>
-    <hyperlink ref="J10" r:id="rId5" tooltip="Benefit: Shortfall carry forward - Click to sort ascending" display="Benefit: Shortfall carry forward" xr:uid="{00000000-0004-0000-0900-000004000000}"/>
-    <hyperlink ref="K10" r:id="rId6" tooltip="Benefit: Protected earnings carried forward - Click to sort ascending" display="Benefit: Protected earnings carried forward" xr:uid="{00000000-0004-0000-0900-000005000000}"/>
-    <hyperlink ref="I19" r:id="rId7" tooltip="Prot. earnings contribution - Click to sort ascending" display="Prot. earnings contribution" xr:uid="{00000000-0004-0000-0900-000006000000}"/>
-    <hyperlink ref="J19" r:id="rId8" tooltip="Benefit: Shortfall carry forward - Click to sort ascending" display="Benefit: Shortfall carry forward" xr:uid="{00000000-0004-0000-0900-000007000000}"/>
-    <hyperlink ref="K19" r:id="rId9" tooltip="Benefit: Protected earnings carried forward - Click to sort ascending" display="Benefit: Protected earnings carried forward" xr:uid="{00000000-0004-0000-0900-000008000000}"/>
-    <hyperlink ref="I28" r:id="rId10" tooltip="Prot. earnings contribution - Click to sort ascending" display="Prot. earnings contribution" xr:uid="{00000000-0004-0000-0900-000009000000}"/>
-    <hyperlink ref="J28" r:id="rId11" tooltip="Benefit: Shortfall carry forward - Click to sort ascending" display="Benefit: Shortfall carry forward" xr:uid="{00000000-0004-0000-0900-00000A000000}"/>
-    <hyperlink ref="K28" r:id="rId12" tooltip="Benefit: Protected earnings carried forward - Click to sort ascending" display="Benefit: Protected earnings carried forward" xr:uid="{00000000-0004-0000-0900-00000B000000}"/>
+    <hyperlink display="Prot. earnings contribution" r:id="rId1" ref="I1" tooltip="Prot. earnings contribution - Click to sort ascending" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink display="Benefit: Shortfall carry forward" r:id="rId2" ref="J1" tooltip="Benefit: Shortfall carry forward - Click to sort ascending" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
+    <hyperlink display="Benefit: Protected earnings carried forward" r:id="rId3" ref="K1" tooltip="Benefit: Protected earnings carried forward - Click to sort ascending" xr:uid="{00000000-0004-0000-0900-000002000000}"/>
+    <hyperlink display="Prot. earnings contribution" r:id="rId4" ref="I10" tooltip="Prot. earnings contribution - Click to sort ascending" xr:uid="{00000000-0004-0000-0900-000003000000}"/>
+    <hyperlink display="Benefit: Shortfall carry forward" r:id="rId5" ref="J10" tooltip="Benefit: Shortfall carry forward - Click to sort ascending" xr:uid="{00000000-0004-0000-0900-000004000000}"/>
+    <hyperlink display="Benefit: Protected earnings carried forward" r:id="rId6" ref="K10" tooltip="Benefit: Protected earnings carried forward - Click to sort ascending" xr:uid="{00000000-0004-0000-0900-000005000000}"/>
+    <hyperlink display="Prot. earnings contribution" r:id="rId7" ref="I19" tooltip="Prot. earnings contribution - Click to sort ascending" xr:uid="{00000000-0004-0000-0900-000006000000}"/>
+    <hyperlink display="Benefit: Shortfall carry forward" r:id="rId8" ref="J19" tooltip="Benefit: Shortfall carry forward - Click to sort ascending" xr:uid="{00000000-0004-0000-0900-000007000000}"/>
+    <hyperlink display="Benefit: Protected earnings carried forward" r:id="rId9" ref="K19" tooltip="Benefit: Protected earnings carried forward - Click to sort ascending" xr:uid="{00000000-0004-0000-0900-000008000000}"/>
+    <hyperlink display="Prot. earnings contribution" r:id="rId10" ref="I28" tooltip="Prot. earnings contribution - Click to sort ascending" xr:uid="{00000000-0004-0000-0900-000009000000}"/>
+    <hyperlink display="Benefit: Shortfall carry forward" r:id="rId11" ref="J28" tooltip="Benefit: Shortfall carry forward - Click to sort ascending" xr:uid="{00000000-0004-0000-0900-00000A000000}"/>
+    <hyperlink display="Benefit: Protected earnings carried forward" r:id="rId12" ref="K28" tooltip="Benefit: Protected earnings carried forward - Click to sort ascending" xr:uid="{00000000-0004-0000-0900-00000B000000}"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId13"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -3702,24 +3841,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="33.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="31" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="16.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="33.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="48" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="48" r="1" s="1" spans="1:20">
       <c r="A1" s="205" t="s">
         <v>28</v>
       </c>
@@ -3764,7 +3903,7 @@
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
     </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" ht="30.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="30.75" r="2" s="1" spans="1:20">
       <c r="A2" s="205" t="s">
         <v>13</v>
       </c>
@@ -3809,7 +3948,7 @@
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
     </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="30" r="3" s="1" spans="1:20">
       <c r="A3" s="205" t="s">
         <v>21</v>
       </c>
@@ -3855,7 +3994,7 @@
       <c r="S3" s="3"/>
       <c r="T3" s="19"/>
     </row>
-    <row r="4" spans="1:20" s="1" customFormat="1" ht="26.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="26.25" r="4" s="1" spans="1:20">
       <c r="A4" s="205" t="s">
         <v>22</v>
       </c>
@@ -3983,7 +4122,7 @@
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
     </row>
-    <row r="9" spans="1:20" s="1" customFormat="1">
+    <row customFormat="1" r="9" s="1" spans="1:20">
       <c r="A9" s="34" t="s">
         <v>23</v>
       </c>
@@ -4010,7 +4149,7 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
     </row>
-    <row r="10" spans="1:20" s="1" customFormat="1" ht="48" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="48" r="10" s="1" spans="1:20">
       <c r="A10" s="205" t="s">
         <v>28</v>
       </c>
@@ -4055,7 +4194,7 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
     </row>
-    <row r="11" spans="1:20" s="1" customFormat="1" ht="30.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="30.75" r="11" s="1" spans="1:20">
       <c r="A11" s="205" t="s">
         <v>13</v>
       </c>
@@ -4100,7 +4239,7 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
     </row>
-    <row r="12" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="30" r="12" s="1" spans="1:20">
       <c r="A12" s="205" t="s">
         <v>21</v>
       </c>
@@ -4146,7 +4285,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="19"/>
     </row>
-    <row r="13" spans="1:20" s="1" customFormat="1" ht="26.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="26.25" r="13" s="1" spans="1:20">
       <c r="A13" s="205" t="s">
         <v>22</v>
       </c>
@@ -4274,7 +4413,7 @@
       <c r="R17" s="13"/>
       <c r="S17" s="13"/>
     </row>
-    <row r="18" spans="1:20" s="1" customFormat="1">
+    <row customFormat="1" r="18" s="1" spans="1:20">
       <c r="A18" s="34" t="s">
         <v>37</v>
       </c>
@@ -4301,7 +4440,7 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
     </row>
-    <row r="19" spans="1:20" s="1" customFormat="1" ht="31.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="31.5" r="19" s="1" spans="1:20">
       <c r="A19" s="205" t="s">
         <v>28</v>
       </c>
@@ -4346,7 +4485,7 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
     </row>
-    <row r="20" spans="1:20" s="1" customFormat="1" ht="30.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="30.75" r="20" s="1" spans="1:20">
       <c r="A20" s="205" t="s">
         <v>13</v>
       </c>
@@ -4391,7 +4530,7 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="30" r="21" s="1" spans="1:20">
       <c r="A21" s="205" t="s">
         <v>21</v>
       </c>
@@ -4437,7 +4576,7 @@
       <c r="S21" s="3"/>
       <c r="T21" s="19"/>
     </row>
-    <row r="22" spans="1:20" s="1" customFormat="1" ht="26.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="26.25" r="22" s="1" spans="1:20">
       <c r="A22" s="205" t="s">
         <v>22</v>
       </c>
@@ -4565,7 +4704,7 @@
       <c r="R26" s="13"/>
       <c r="S26" s="13"/>
     </row>
-    <row r="27" spans="1:20" s="1" customFormat="1">
+    <row customFormat="1" r="27" s="1" spans="1:20">
       <c r="A27" s="34" t="s">
         <v>49</v>
       </c>
@@ -4592,7 +4731,7 @@
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
     </row>
-    <row r="28" spans="1:20" s="1" customFormat="1" ht="48" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="48" r="28" s="1" spans="1:20">
       <c r="A28" s="205" t="s">
         <v>28</v>
       </c>
@@ -4637,7 +4776,7 @@
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
     </row>
-    <row r="29" spans="1:20" s="1" customFormat="1" ht="30.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="30.75" r="29" s="1" spans="1:20">
       <c r="A29" s="205" t="s">
         <v>13</v>
       </c>
@@ -4682,7 +4821,7 @@
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
     </row>
-    <row r="30" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="30" r="30" s="1" spans="1:20">
       <c r="A30" s="205" t="s">
         <v>21</v>
       </c>
@@ -4728,7 +4867,7 @@
       <c r="S30" s="3"/>
       <c r="T30" s="19"/>
     </row>
-    <row r="31" spans="1:20" s="1" customFormat="1" ht="26.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="26.25" r="31" s="1" spans="1:20">
       <c r="A31" s="205" t="s">
         <v>22</v>
       </c>
@@ -4844,13 +4983,13 @@
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="H18:K18"/>
   </mergeCells>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
@@ -4862,20 +5001,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="161" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.140625" style="161" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.28515625" style="161" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20" style="161" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="24.5703125" style="161" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.140625" style="161" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19" style="161" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="33.140625" style="161" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="24.42578125" style="161" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="30.140625" style="161" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="9" style="161" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="161" width="22.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="161" width="35.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="161" width="13.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="161" width="20.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="161" width="24.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="161" width="24.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="161" width="19.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="161" width="33.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="161" width="24.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="161" width="30.140625" collapsed="true"/>
+    <col min="11" max="16384" style="161" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="158" customFormat="1" ht="35.450000000000003" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="35.450000000000003" r="1" s="158" spans="1:21">
       <c r="A1" s="159" t="s">
         <v>28</v>
       </c>
@@ -4915,7 +5054,7 @@
       <c r="T1" s="157"/>
       <c r="U1" s="157"/>
     </row>
-    <row r="2" spans="1:21" s="158" customFormat="1" ht="30" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="30" r="2" s="158" spans="1:21">
       <c r="A2" s="159" t="s">
         <v>13</v>
       </c>
@@ -4956,7 +5095,7 @@
       <c r="T2" s="157"/>
       <c r="U2" s="157"/>
     </row>
-    <row r="3" spans="1:21" s="158" customFormat="1" ht="27.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="27.75" r="3" s="158" spans="1:21">
       <c r="A3" s="159" t="s">
         <v>21</v>
       </c>
@@ -4997,7 +5136,7 @@
       <c r="T3" s="157"/>
       <c r="U3" s="157"/>
     </row>
-    <row r="4" spans="1:21" s="158" customFormat="1" ht="27" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="27" r="4" s="158" spans="1:21">
       <c r="A4" s="159" t="s">
         <v>22</v>
       </c>
@@ -5128,7 +5267,7 @@
       <c r="T8" s="160"/>
       <c r="U8" s="160"/>
     </row>
-    <row r="9" spans="1:21" s="158" customFormat="1" ht="39" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="39" r="9" s="158" spans="1:21">
       <c r="A9" s="34" t="s">
         <v>23</v>
       </c>
@@ -5157,7 +5296,7 @@
       <c r="T9" s="157"/>
       <c r="U9" s="157"/>
     </row>
-    <row r="10" spans="1:21" s="158" customFormat="1" ht="35.450000000000003" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="35.450000000000003" r="10" s="158" spans="1:21">
       <c r="A10" s="159" t="s">
         <v>28</v>
       </c>
@@ -5198,7 +5337,7 @@
       <c r="T10" s="157"/>
       <c r="U10" s="157"/>
     </row>
-    <row r="11" spans="1:21" s="158" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="30" r="11" s="158" spans="1:21" thickBot="1">
       <c r="A11" s="159" t="s">
         <v>13</v>
       </c>
@@ -5239,7 +5378,7 @@
       <c r="T11" s="157"/>
       <c r="U11" s="157"/>
     </row>
-    <row r="12" spans="1:21" s="158" customFormat="1" ht="27.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="27.75" r="12" s="158" spans="1:21">
       <c r="A12" s="159" t="s">
         <v>21</v>
       </c>
@@ -5280,7 +5419,7 @@
       <c r="T12" s="157"/>
       <c r="U12" s="157"/>
     </row>
-    <row r="13" spans="1:21" s="158" customFormat="1" ht="27" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="27" r="13" s="158" spans="1:21">
       <c r="A13" s="159" t="s">
         <v>22</v>
       </c>
@@ -5411,7 +5550,7 @@
       <c r="T17" s="160"/>
       <c r="U17" s="160"/>
     </row>
-    <row r="18" spans="1:21" s="158" customFormat="1" ht="39" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="39" r="18" s="158" spans="1:21">
       <c r="A18" s="34" t="s">
         <v>37</v>
       </c>
@@ -5440,7 +5579,7 @@
       <c r="T18" s="157"/>
       <c r="U18" s="157"/>
     </row>
-    <row r="19" spans="1:21" s="158" customFormat="1" ht="35.450000000000003" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="35.450000000000003" r="19" s="158" spans="1:21">
       <c r="A19" s="159" t="s">
         <v>28</v>
       </c>
@@ -5481,7 +5620,7 @@
       <c r="T19" s="157"/>
       <c r="U19" s="157"/>
     </row>
-    <row r="20" spans="1:21" s="158" customFormat="1" ht="30" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="30" r="20" s="158" spans="1:21">
       <c r="A20" s="159" t="s">
         <v>13</v>
       </c>
@@ -5522,7 +5661,7 @@
       <c r="T20" s="157"/>
       <c r="U20" s="157"/>
     </row>
-    <row r="21" spans="1:21" s="158" customFormat="1" ht="27.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="27.75" r="21" s="158" spans="1:21">
       <c r="A21" s="159" t="s">
         <v>21</v>
       </c>
@@ -5563,7 +5702,7 @@
       <c r="T21" s="157"/>
       <c r="U21" s="157"/>
     </row>
-    <row r="22" spans="1:21" s="158" customFormat="1" ht="27" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="27" r="22" s="158" spans="1:21">
       <c r="A22" s="159" t="s">
         <v>22</v>
       </c>
@@ -5694,7 +5833,7 @@
       <c r="T26" s="160"/>
       <c r="U26" s="160"/>
     </row>
-    <row r="27" spans="1:21" s="158" customFormat="1" ht="39" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="39" r="27" s="158" spans="1:21">
       <c r="A27" s="34" t="s">
         <v>49</v>
       </c>
@@ -5723,7 +5862,7 @@
       <c r="T27" s="157"/>
       <c r="U27" s="157"/>
     </row>
-    <row r="28" spans="1:21" s="158" customFormat="1" ht="35.450000000000003" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="35.450000000000003" r="28" s="158" spans="1:21">
       <c r="A28" s="159" t="s">
         <v>28</v>
       </c>
@@ -5764,7 +5903,7 @@
       <c r="T28" s="157"/>
       <c r="U28" s="157"/>
     </row>
-    <row r="29" spans="1:21" s="158" customFormat="1" ht="30" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="30" r="29" s="158" spans="1:21">
       <c r="A29" s="159" t="s">
         <v>13</v>
       </c>
@@ -5805,7 +5944,7 @@
       <c r="T29" s="157"/>
       <c r="U29" s="157"/>
     </row>
-    <row r="30" spans="1:21" s="158" customFormat="1" ht="27.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="27.75" r="30" s="158" spans="1:21">
       <c r="A30" s="159" t="s">
         <v>21</v>
       </c>
@@ -5846,7 +5985,7 @@
       <c r="T30" s="157"/>
       <c r="U30" s="157"/>
     </row>
-    <row r="31" spans="1:21" s="158" customFormat="1" ht="27" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="27" r="31" s="158" spans="1:21">
       <c r="A31" s="159" t="s">
         <v>22</v>
       </c>
@@ -5937,13 +6076,13 @@
     <mergeCell ref="E18:H18"/>
     <mergeCell ref="E27:H27"/>
   </mergeCells>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -5955,32 +6094,32 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="27.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="29" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="24.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="33.140625" style="26" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="32.42578125" style="26" customWidth="1" collapsed="1"/>
-    <col min="24" max="28" width="9" style="26" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="13" max="14" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="26" width="29.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="26" width="24.85546875" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="26" width="33.140625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="26" width="32.42578125" collapsed="true"/>
+    <col min="24" max="28" style="26" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" ht="40.15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="40.15" r="1" s="1" spans="1:28">
       <c r="A1" s="230" t="s">
         <v>31</v>
       </c>
@@ -6048,7 +6187,7 @@
       <c r="AA1" s="176"/>
       <c r="AB1" s="176"/>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" ht="28.15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="28.15" r="2" s="1" spans="1:28">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
@@ -6180,7 +6319,7 @@
       <c r="W3" s="17"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="1:28" s="26" customFormat="1" ht="15.75">
+    <row customFormat="1" ht="15.75" r="4" s="26" spans="1:28">
       <c r="A4" s="221" t="s">
         <v>150</v>
       </c>
@@ -6294,7 +6433,7 @@
       <c r="W6" s="17"/>
       <c r="X6" s="17"/>
     </row>
-    <row r="7" spans="1:28" s="1" customFormat="1">
+    <row customFormat="1" r="7" s="1" spans="1:28">
       <c r="A7" s="232"/>
       <c r="B7" s="232"/>
       <c r="C7" s="299"/>
@@ -6324,7 +6463,7 @@
       <c r="AA7" s="176"/>
       <c r="AB7" s="176"/>
     </row>
-    <row r="8" spans="1:28" s="1" customFormat="1" ht="40.15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="40.15" r="8" s="1" spans="1:28">
       <c r="A8" s="230" t="s">
         <v>23</v>
       </c>
@@ -6392,7 +6531,7 @@
       <c r="AA8" s="176"/>
       <c r="AB8" s="176"/>
     </row>
-    <row r="9" spans="1:28" s="1" customFormat="1" ht="28.15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="28.15" r="9" s="1" spans="1:28">
       <c r="A9" s="230" t="s">
         <v>13</v>
       </c>
@@ -6460,7 +6599,7 @@
       <c r="AA9" s="176"/>
       <c r="AB9" s="176"/>
     </row>
-    <row r="10" spans="1:28" ht="22.5" customHeight="1">
+    <row customHeight="1" ht="22.5" r="10" spans="1:28">
       <c r="A10" s="221" t="s">
         <v>149</v>
       </c>
@@ -6524,7 +6663,7 @@
       <c r="W10" s="17"/>
       <c r="X10" s="17"/>
     </row>
-    <row r="11" spans="1:28" ht="25.5" customHeight="1">
+    <row customHeight="1" ht="25.5" r="11" spans="1:28">
       <c r="A11" s="149" t="s">
         <v>154</v>
       </c>
@@ -6645,18 +6784,18 @@
     <mergeCell ref="S7:U7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1" display="Ben-44680" xr:uid="{00000000-0004-0000-0E00-000003000000}"/>
-    <hyperlink ref="N2" r:id="rId2" display="Ben-44681" xr:uid="{00000000-0004-0000-0E00-000004000000}"/>
-    <hyperlink ref="M9" r:id="rId3" display="Ben-44680" xr:uid="{EF11488B-D008-4013-8CD8-FBDA7CD91061}"/>
-    <hyperlink ref="N9" r:id="rId4" display="Ben-44681" xr:uid="{2F3A4A1A-801C-47CF-A8BE-A449C2A36F05}"/>
+    <hyperlink display="Ben-44680" r:id="rId1" ref="M2" xr:uid="{00000000-0004-0000-0E00-000003000000}"/>
+    <hyperlink display="Ben-44681" r:id="rId2" ref="N2" xr:uid="{00000000-0004-0000-0E00-000004000000}"/>
+    <hyperlink display="Ben-44680" r:id="rId3" ref="M9" xr:uid="{EF11488B-D008-4013-8CD8-FBDA7CD91061}"/>
+    <hyperlink display="Ben-44681" r:id="rId4" ref="N9" xr:uid="{2F3A4A1A-801C-47CF-A8BE-A449C2A36F05}"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BFF4F4A-5376-4BAF-A76A-4A3BFFBDE530}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BFF4F4A-5376-4BAF-A76A-4A3BFFBDE530}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -6668,28 +6807,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="31.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="31.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="16" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="18" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="26.7109375" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="26.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="31.7109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="31.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="15" max="16" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="17" max="18" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="26.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" ht="40.15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="40.15" r="1" s="1" spans="1:27">
       <c r="A1" s="238" t="s">
         <v>37</v>
       </c>
@@ -6756,7 +6895,7 @@
       <c r="Z1" s="176"/>
       <c r="AA1" s="176"/>
     </row>
-    <row r="2" spans="1:27" s="1" customFormat="1" ht="28.15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="28.15" r="2" s="1" spans="1:27">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
@@ -6823,7 +6962,7 @@
       <c r="Z2" s="176"/>
       <c r="AA2" s="176"/>
     </row>
-    <row r="3" spans="1:27" s="1" customFormat="1" ht="25.15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="25.15" r="3" s="1" spans="1:27">
       <c r="A3" s="5" t="s">
         <v>21</v>
       </c>
@@ -6890,7 +7029,7 @@
       <c r="Z3" s="176"/>
       <c r="AA3" s="176"/>
     </row>
-    <row r="4" spans="1:27" s="1" customFormat="1" ht="19.149999999999999" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="19.149999999999999" r="4" s="1" spans="1:27">
       <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
@@ -7024,7 +7163,7 @@
       <c r="Z7" s="26"/>
       <c r="AA7" s="26"/>
     </row>
-    <row r="8" spans="1:27" s="1" customFormat="1" ht="40.15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="40.15" r="8" s="1" spans="1:27">
       <c r="A8" s="232" t="s">
         <v>49</v>
       </c>
@@ -7091,7 +7230,7 @@
       <c r="Z8" s="176"/>
       <c r="AA8" s="176"/>
     </row>
-    <row r="9" spans="1:27" s="248" customFormat="1" ht="28.15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="28.15" r="9" s="248" spans="1:27">
       <c r="A9" s="240" t="s">
         <v>13</v>
       </c>
@@ -7158,7 +7297,7 @@
       <c r="Z9" s="245"/>
       <c r="AA9" s="245"/>
     </row>
-    <row r="10" spans="1:27" s="1" customFormat="1" ht="25.15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="25.15" r="10" s="1" spans="1:27">
       <c r="A10" s="5" t="s">
         <v>21</v>
       </c>
@@ -7225,7 +7364,7 @@
       <c r="Z10" s="176"/>
       <c r="AA10" s="176"/>
     </row>
-    <row r="11" spans="1:27" s="1" customFormat="1" ht="19.149999999999999" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="19.149999999999999" r="11" s="1" spans="1:27">
       <c r="A11" s="5" t="s">
         <v>22</v>
       </c>
@@ -7354,17 +7493,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1" display="Ben-44680" xr:uid="{00000000-0004-0000-0E00-00000C000000}"/>
-    <hyperlink ref="P2" r:id="rId2" display="Ben-44681" xr:uid="{00000000-0004-0000-0E00-00000D000000}"/>
-    <hyperlink ref="O9" r:id="rId3" display="Ben-44680" xr:uid="{DD930CA8-73E7-47E4-B1C9-DAC925435D9B}"/>
-    <hyperlink ref="P9" r:id="rId4" display="Ben-44681" xr:uid="{E8B52DB6-2EAE-4ABB-9555-968E357D321D}"/>
+    <hyperlink display="Ben-44680" r:id="rId1" ref="O2" xr:uid="{00000000-0004-0000-0E00-00000C000000}"/>
+    <hyperlink display="Ben-44681" r:id="rId2" ref="P2" xr:uid="{00000000-0004-0000-0E00-00000D000000}"/>
+    <hyperlink display="Ben-44680" r:id="rId3" ref="O9" xr:uid="{DD930CA8-73E7-47E4-B1C9-DAC925435D9B}"/>
+    <hyperlink display="Ben-44681" r:id="rId4" ref="P9" xr:uid="{E8B52DB6-2EAE-4ABB-9555-968E357D321D}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -7376,26 +7515,26 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="13" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="12" max="13" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="43.9" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="43.9" r="1" s="1" spans="1:20">
       <c r="A1" s="4" t="s">
         <v>31</v>
       </c>
@@ -7453,7 +7592,7 @@
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
     </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" ht="37.9" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="37.9" r="2" s="1" spans="1:20">
       <c r="A2" s="8" t="s">
         <v>13</v>
       </c>
@@ -7511,7 +7650,7 @@
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
     </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" ht="37.15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="37.15" r="3" s="1" spans="1:20">
       <c r="A3" s="5" t="s">
         <v>21</v>
       </c>
@@ -7569,7 +7708,7 @@
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
     </row>
-    <row r="4" spans="1:20" s="1" customFormat="1" ht="28.9" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="28.9" r="4" s="1" spans="1:20">
       <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
@@ -7693,7 +7832,7 @@
       <c r="S7" s="13"/>
       <c r="T7" s="13"/>
     </row>
-    <row r="8" spans="1:20" ht="15.75" thickBot="1">
+    <row ht="15.75" r="8" spans="1:20" thickBot="1">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -7715,7 +7854,7 @@
       <c r="S8" s="13"/>
       <c r="T8" s="13"/>
     </row>
-    <row r="9" spans="1:20" s="1" customFormat="1" ht="30">
+    <row customFormat="1" ht="30" r="9" s="1" spans="1:20">
       <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
@@ -7773,7 +7912,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
     </row>
-    <row r="10" spans="1:20" s="1" customFormat="1">
+    <row customFormat="1" r="10" s="1" spans="1:20">
       <c r="A10" s="8" t="s">
         <v>13</v>
       </c>
@@ -7831,7 +7970,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
     </row>
-    <row r="11" spans="1:20" s="1" customFormat="1">
+    <row customFormat="1" r="11" s="1" spans="1:20">
       <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
@@ -7889,7 +8028,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
     </row>
-    <row r="12" spans="1:20" s="1" customFormat="1" ht="21.6" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="21.6" r="12" s="1" spans="1:20">
       <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
@@ -8011,7 +8150,7 @@
       <c r="S15" s="13"/>
       <c r="T15" s="13"/>
     </row>
-    <row r="16" spans="1:20" ht="15.75" thickBot="1">
+    <row ht="15.75" r="16" spans="1:20" thickBot="1">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -8033,7 +8172,7 @@
       <c r="S16" s="13"/>
       <c r="T16" s="13"/>
     </row>
-    <row r="17" spans="1:20" ht="30.75" customHeight="1">
+    <row customHeight="1" ht="30.75" r="17" spans="1:20">
       <c r="A17" s="4" t="s">
         <v>37</v>
       </c>
@@ -8091,7 +8230,7 @@
       <c r="S17" s="13"/>
       <c r="T17" s="13"/>
     </row>
-    <row r="18" spans="1:20" s="1" customFormat="1" ht="26.45" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="26.45" r="18" s="1" spans="1:20">
       <c r="A18" s="8" t="s">
         <v>13</v>
       </c>
@@ -8149,7 +8288,7 @@
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
     </row>
-    <row r="19" spans="1:20" s="1" customFormat="1" ht="26.45" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="26.45" r="19" s="1" spans="1:20">
       <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
@@ -8207,7 +8346,7 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
     </row>
-    <row r="20" spans="1:20" s="1" customFormat="1" ht="28.9" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="28.9" r="20" s="1" spans="1:20">
       <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
@@ -8330,45 +8469,45 @@
       <c r="T23" s="13"/>
     </row>
   </sheetData>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="29.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="13" max="14" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="29.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="43.9" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="43.9" r="1" s="1" spans="1:21">
       <c r="A1" s="4" t="s">
         <v>31</v>
       </c>
@@ -8429,7 +8568,7 @@
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
     </row>
-    <row r="2" spans="1:21" s="1" customFormat="1" ht="28.15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="28.15" r="2" s="1" spans="1:21">
       <c r="A2" s="260" t="s">
         <v>13</v>
       </c>
@@ -8488,7 +8627,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="1" customFormat="1" ht="25.15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="25.15" r="3" s="1" spans="1:21">
       <c r="A3" s="261" t="s">
         <v>21</v>
       </c>
@@ -8547,7 +8686,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1" ht="19.149999999999999" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="19.149999999999999" r="4" s="1" spans="1:21">
       <c r="A4" s="261" t="s">
         <v>22</v>
       </c>
@@ -8643,7 +8782,7 @@
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
     </row>
-    <row r="8" spans="1:21" ht="15.75" thickBot="1">
+    <row ht="15.75" r="8" spans="1:21" thickBot="1">
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
@@ -8656,7 +8795,7 @@
       <c r="O8" s="13"/>
       <c r="P8" s="13"/>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1" ht="30" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="30" r="9" s="1" spans="1:21">
       <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
@@ -8715,7 +8854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1" ht="28.15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="28.15" r="10" s="1" spans="1:21">
       <c r="A10" s="260" t="s">
         <v>13</v>
       </c>
@@ -8774,7 +8913,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1" ht="25.15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="25.15" r="11" s="1" spans="1:21">
       <c r="A11" s="261" t="s">
         <v>21</v>
       </c>
@@ -8833,7 +8972,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1" ht="19.149999999999999" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="19.149999999999999" r="12" s="1" spans="1:21">
       <c r="A12" s="261" t="s">
         <v>22</v>
       </c>
@@ -8936,13 +9075,13 @@
       <c r="P15" s="13"/>
     </row>
   </sheetData>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -8954,23 +9093,23 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="11" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="10" max="11" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="30">
+    <row ht="30" r="1" spans="1:20">
       <c r="A1" s="101" t="s">
         <v>31</v>
       </c>
@@ -9119,7 +9258,7 @@
       <c r="S3" s="13"/>
       <c r="T3" s="13"/>
     </row>
-    <row r="4" spans="1:20" ht="27.75" customHeight="1">
+    <row customHeight="1" ht="27.75" r="4" spans="1:20">
       <c r="A4" s="99" t="s">
         <v>22</v>
       </c>
@@ -9286,7 +9425,7 @@
       <c r="S9" s="13"/>
       <c r="T9" s="13"/>
     </row>
-    <row r="10" spans="1:20" ht="30">
+    <row ht="30" r="10" spans="1:20">
       <c r="A10" s="99" t="s">
         <v>28</v>
       </c>
@@ -9386,7 +9525,7 @@
       <c r="S11" s="13"/>
       <c r="T11" s="13"/>
     </row>
-    <row r="12" spans="1:20" ht="27.75" customHeight="1">
+    <row customHeight="1" ht="27.75" r="12" spans="1:20">
       <c r="A12" s="99"/>
       <c r="B12" s="52" t="s">
         <v>32</v>
@@ -9434,7 +9573,7 @@
       <c r="S12" s="13"/>
       <c r="T12" s="13"/>
     </row>
-    <row r="13" spans="1:20" ht="24.75" customHeight="1">
+    <row customHeight="1" ht="24.75" r="13" spans="1:20">
       <c r="A13" s="99"/>
       <c r="B13" s="99"/>
       <c r="C13" s="97" t="s">
@@ -9488,13 +9627,13 @@
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="H9:L9"/>
   </mergeCells>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -9506,22 +9645,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="11" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="10" max="11" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="29.25" customHeight="1">
+    <row customHeight="1" ht="29.25" r="1" spans="1:17">
       <c r="A1" s="4" t="s">
         <v>31</v>
       </c>
@@ -9567,7 +9706,7 @@
       <c r="P1" s="13"/>
       <c r="Q1" s="13"/>
     </row>
-    <row r="2" spans="1:17" ht="36" customHeight="1">
+    <row customHeight="1" ht="36" r="2" spans="1:17">
       <c r="A2" s="8" t="s">
         <v>13</v>
       </c>
@@ -9613,7 +9752,7 @@
       <c r="P2" s="13"/>
       <c r="Q2" s="13"/>
     </row>
-    <row r="3" spans="1:17" ht="32.25" customHeight="1">
+    <row customHeight="1" ht="32.25" r="3" spans="1:17">
       <c r="A3" s="5" t="s">
         <v>21</v>
       </c>
@@ -9659,7 +9798,7 @@
       <c r="P3" s="13"/>
       <c r="Q3" s="13"/>
     </row>
-    <row r="4" spans="1:17" ht="31.5" customHeight="1">
+    <row customHeight="1" ht="31.5" r="4" spans="1:17">
       <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
@@ -9806,7 +9945,7 @@
       <c r="P9" s="13"/>
       <c r="Q9" s="13"/>
     </row>
-    <row r="10" spans="1:17" ht="43.5" customHeight="1">
+    <row customHeight="1" ht="43.5" r="10" spans="1:17">
       <c r="A10" s="34" t="s">
         <v>23</v>
       </c>
@@ -9853,7 +9992,7 @@
       <c r="P10" s="13"/>
       <c r="Q10" s="13"/>
     </row>
-    <row r="11" spans="1:17" ht="30.75" customHeight="1">
+    <row customHeight="1" ht="30.75" r="11" spans="1:17">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -9900,7 +10039,7 @@
       <c r="P11" s="13"/>
       <c r="Q11" s="13"/>
     </row>
-    <row r="12" spans="1:17" ht="27.75" customHeight="1">
+    <row customHeight="1" ht="27.75" r="12" spans="1:17">
       <c r="A12" s="40" t="s">
         <v>21</v>
       </c>
@@ -9947,7 +10086,7 @@
       <c r="P12" s="13"/>
       <c r="Q12" s="13"/>
     </row>
-    <row r="13" spans="1:17" ht="21" customHeight="1">
+    <row customHeight="1" ht="21" r="13" spans="1:17">
       <c r="A13" s="40" t="s">
         <v>22</v>
       </c>
@@ -10009,35 +10148,35 @@
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="H9:L9"/>
   </mergeCells>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.8046875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="35.21484375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.015625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.359375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="20.35546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="21.58203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="22.13671875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="17.46875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="27.578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="30.359375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.359375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -10075,7 +10214,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30" customHeight="1">
+    <row customHeight="1" ht="30" r="2" spans="1:11">
       <c r="A2" s="42" t="s">
         <v>13</v>
       </c>
@@ -10110,7 +10249,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="27.75" customHeight="1">
+    <row customHeight="1" ht="27.75" r="3" spans="1:11">
       <c r="A3" s="42" t="s">
         <v>21</v>
       </c>
@@ -10145,7 +10284,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="27" customHeight="1">
+    <row customHeight="1" ht="27" r="4" spans="1:11">
       <c r="A4" s="42" t="s">
         <v>22</v>
       </c>
@@ -10286,7 +10425,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="34.5" customHeight="1">
+    <row customHeight="1" ht="34.5" r="11" spans="1:11">
       <c r="A11" s="42" t="s">
         <v>13</v>
       </c>
@@ -10321,7 +10460,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="33.75" customHeight="1">
+    <row customHeight="1" ht="33.75" r="12" spans="1:11">
       <c r="A12" s="42" t="s">
         <v>21</v>
       </c>
@@ -10356,7 +10495,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="21.75" customHeight="1">
+    <row customHeight="1" ht="21.75" r="13" spans="1:11">
       <c r="A13" s="42" t="s">
         <v>22</v>
       </c>
@@ -10497,7 +10636,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="34.5" customHeight="1">
+    <row customHeight="1" ht="34.5" r="20" spans="1:11">
       <c r="A20" s="42" t="s">
         <v>13</v>
       </c>
@@ -10532,7 +10671,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="33.75" customHeight="1">
+    <row customHeight="1" ht="33.75" r="21" spans="1:11">
       <c r="A21" s="42" t="s">
         <v>21</v>
       </c>
@@ -10567,7 +10706,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="25.5" customHeight="1">
+    <row customHeight="1" ht="25.5" r="22" spans="1:11">
       <c r="A22" s="42" t="s">
         <v>22</v>
       </c>
@@ -10659,44 +10798,44 @@
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="F18:I18"/>
   </mergeCells>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView topLeftCell="I22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="I22" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="31.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="33.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="34.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="121.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="29.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="40.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="31.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="33.140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="121.5703125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="29.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1">
+    <row customHeight="1" ht="36" r="1" spans="1:18">
       <c r="A1" s="53" t="s">
         <v>31</v>
       </c>
@@ -10745,7 +10884,7 @@
       <c r="P1" s="107"/>
       <c r="R1" s="49"/>
     </row>
-    <row r="2" spans="1:18" ht="30" customHeight="1">
+    <row customHeight="1" ht="30" r="2" spans="1:18">
       <c r="A2" s="57" t="s">
         <v>13</v>
       </c>
@@ -10795,7 +10934,7 @@
       <c r="Q2" s="49"/>
       <c r="R2" s="49"/>
     </row>
-    <row r="3" spans="1:18" s="1" customFormat="1" ht="27.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="27.75" r="3" s="1" spans="1:18">
       <c r="A3" s="57" t="s">
         <v>21</v>
       </c>
@@ -10845,7 +10984,7 @@
       <c r="Q3" s="50"/>
       <c r="R3" s="50"/>
     </row>
-    <row r="4" spans="1:18" ht="27" customHeight="1">
+    <row customHeight="1" ht="27" r="4" spans="1:18">
       <c r="A4" s="57" t="s">
         <v>22</v>
       </c>
@@ -10893,7 +11032,7 @@
       <c r="Q4" s="49"/>
       <c r="R4" s="49"/>
     </row>
-    <row r="5" spans="1:18" s="26" customFormat="1" ht="15.75">
+    <row customFormat="1" ht="15.75" r="5" s="26" spans="1:18">
       <c r="A5" s="60"/>
       <c r="B5" s="60"/>
       <c r="C5" s="60"/>
@@ -10913,7 +11052,7 @@
       <c r="Q5" s="48"/>
       <c r="R5" s="48"/>
     </row>
-    <row r="6" spans="1:18" s="26" customFormat="1" ht="15.75">
+    <row customFormat="1" ht="15.75" r="6" s="26" spans="1:18">
       <c r="A6" s="61"/>
       <c r="B6" s="61"/>
       <c r="C6" s="61"/>
@@ -10933,7 +11072,7 @@
       <c r="Q6" s="48"/>
       <c r="R6" s="48"/>
     </row>
-    <row r="7" spans="1:18" s="26" customFormat="1" ht="15.75">
+    <row customFormat="1" ht="15.75" r="7" s="26" spans="1:18">
       <c r="A7" s="60"/>
       <c r="B7" s="60"/>
       <c r="C7" s="60"/>
@@ -10953,7 +11092,7 @@
       <c r="Q7" s="48"/>
       <c r="R7" s="48"/>
     </row>
-    <row r="8" spans="1:18" s="26" customFormat="1" ht="15.75">
+    <row customFormat="1" ht="15.75" r="8" s="26" spans="1:18">
       <c r="A8" s="60"/>
       <c r="B8" s="60"/>
       <c r="C8" s="60"/>
@@ -10973,7 +11112,7 @@
       <c r="Q8" s="48"/>
       <c r="R8" s="48"/>
     </row>
-    <row r="9" spans="1:18" ht="15.75">
+    <row ht="15.75" r="9" spans="1:18">
       <c r="A9" s="63"/>
       <c r="B9" s="53"/>
       <c r="C9" s="291"/>
@@ -10999,7 +11138,7 @@
       <c r="Q9" s="49"/>
       <c r="R9" s="49"/>
     </row>
-    <row r="10" spans="1:18" ht="15.75">
+    <row ht="15.75" r="10" spans="1:18">
       <c r="A10" s="53" t="s">
         <v>23</v>
       </c>
@@ -11049,7 +11188,7 @@
       <c r="Q10" s="49"/>
       <c r="R10" s="49"/>
     </row>
-    <row r="11" spans="1:18" ht="34.5" customHeight="1">
+    <row customHeight="1" ht="34.5" r="11" spans="1:18">
       <c r="A11" s="57" t="s">
         <v>13</v>
       </c>
@@ -11099,7 +11238,7 @@
       <c r="Q11" s="49"/>
       <c r="R11" s="49"/>
     </row>
-    <row r="12" spans="1:18" s="32" customFormat="1" ht="33.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="33.75" r="12" s="32" spans="1:18">
       <c r="A12" s="57" t="s">
         <v>21</v>
       </c>
@@ -11149,7 +11288,7 @@
       <c r="Q12" s="51"/>
       <c r="R12" s="51"/>
     </row>
-    <row r="13" spans="1:18" ht="21.75" customHeight="1">
+    <row customHeight="1" ht="21.75" r="13" spans="1:18">
       <c r="A13" s="57" t="s">
         <v>22</v>
       </c>
@@ -11197,7 +11336,7 @@
       <c r="Q13" s="49"/>
       <c r="R13" s="49"/>
     </row>
-    <row r="14" spans="1:18" s="26" customFormat="1" ht="15.75">
+    <row customFormat="1" ht="15.75" r="14" s="26" spans="1:18">
       <c r="A14" s="60"/>
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
@@ -11217,7 +11356,7 @@
       <c r="Q14" s="48"/>
       <c r="R14" s="48"/>
     </row>
-    <row r="15" spans="1:18" s="26" customFormat="1" ht="15.75">
+    <row customFormat="1" ht="15.75" r="15" s="26" spans="1:18">
       <c r="A15" s="60"/>
       <c r="B15" s="60"/>
       <c r="C15" s="60"/>
@@ -11237,7 +11376,7 @@
       <c r="Q15" s="48"/>
       <c r="R15" s="48"/>
     </row>
-    <row r="16" spans="1:18" s="26" customFormat="1" ht="15.75">
+    <row customFormat="1" ht="15.75" r="16" s="26" spans="1:18">
       <c r="A16" s="60"/>
       <c r="B16" s="60"/>
       <c r="C16" s="60"/>
@@ -11257,7 +11396,7 @@
       <c r="Q16" s="48"/>
       <c r="R16" s="48"/>
     </row>
-    <row r="17" spans="1:18" s="26" customFormat="1" ht="15.75">
+    <row customFormat="1" ht="15.75" r="17" s="26" spans="1:18">
       <c r="A17" s="60"/>
       <c r="B17" s="60"/>
       <c r="C17" s="60"/>
@@ -11277,7 +11416,7 @@
       <c r="Q17" s="48"/>
       <c r="R17" s="48"/>
     </row>
-    <row r="18" spans="1:18" ht="15.75">
+    <row ht="15.75" r="18" spans="1:18">
       <c r="A18" s="53" t="s">
         <v>37</v>
       </c>
@@ -11301,7 +11440,7 @@
       <c r="Q18" s="49"/>
       <c r="R18" s="49"/>
     </row>
-    <row r="19" spans="1:18" ht="15.75">
+    <row ht="15.75" r="19" spans="1:18">
       <c r="A19" s="57" t="s">
         <v>28</v>
       </c>
@@ -11351,7 +11490,7 @@
       <c r="Q19" s="49"/>
       <c r="R19" s="49"/>
     </row>
-    <row r="20" spans="1:18" ht="34.5" customHeight="1">
+    <row customHeight="1" ht="34.5" r="20" spans="1:18">
       <c r="A20" s="57" t="s">
         <v>13</v>
       </c>
@@ -11401,7 +11540,7 @@
       <c r="Q20" s="49"/>
       <c r="R20" s="49"/>
     </row>
-    <row r="21" spans="1:18" ht="33.75" customHeight="1">
+    <row customHeight="1" ht="33.75" r="21" spans="1:18">
       <c r="A21" s="57" t="s">
         <v>21</v>
       </c>
@@ -11451,7 +11590,7 @@
       <c r="Q21" s="49"/>
       <c r="R21" s="49"/>
     </row>
-    <row r="22" spans="1:18" ht="25.5" customHeight="1">
+    <row customHeight="1" ht="25.5" r="22" spans="1:18">
       <c r="A22" s="57" t="s">
         <v>22</v>
       </c>
@@ -11499,7 +11638,7 @@
       <c r="Q22" s="49"/>
       <c r="R22" s="49"/>
     </row>
-    <row r="23" spans="1:18" s="26" customFormat="1" ht="15.75">
+    <row customFormat="1" ht="15.75" r="23" s="26" spans="1:18">
       <c r="A23" s="60"/>
       <c r="B23" s="60"/>
       <c r="C23" s="60"/>
@@ -11519,7 +11658,7 @@
       <c r="Q23" s="48"/>
       <c r="R23" s="48"/>
     </row>
-    <row r="24" spans="1:18" s="26" customFormat="1" ht="15.75">
+    <row customFormat="1" ht="15.75" r="24" s="26" spans="1:18">
       <c r="A24" s="60"/>
       <c r="B24" s="60"/>
       <c r="C24" s="60"/>
@@ -11539,7 +11678,7 @@
       <c r="Q24" s="48"/>
       <c r="R24" s="48"/>
     </row>
-    <row r="25" spans="1:18" s="26" customFormat="1" ht="15.75">
+    <row customFormat="1" ht="15.75" r="25" s="26" spans="1:18">
       <c r="A25" s="60"/>
       <c r="B25" s="60"/>
       <c r="C25" s="60"/>
@@ -11559,7 +11698,7 @@
       <c r="Q25" s="48"/>
       <c r="R25" s="48"/>
     </row>
-    <row r="26" spans="1:18" s="26" customFormat="1" ht="15.75">
+    <row customFormat="1" ht="15.75" r="26" s="26" spans="1:18">
       <c r="A26" s="60"/>
       <c r="B26" s="60"/>
       <c r="C26" s="60"/>
@@ -11579,7 +11718,7 @@
       <c r="Q26" s="48"/>
       <c r="R26" s="48"/>
     </row>
-    <row r="27" spans="1:18" ht="15.75">
+    <row ht="15.75" r="27" spans="1:18">
       <c r="A27" s="53" t="s">
         <v>49</v>
       </c>
@@ -11603,7 +11742,7 @@
       <c r="Q27" s="49"/>
       <c r="R27" s="49"/>
     </row>
-    <row r="28" spans="1:18" ht="15.75">
+    <row ht="15.75" r="28" spans="1:18">
       <c r="A28" s="57" t="s">
         <v>28</v>
       </c>
@@ -11653,7 +11792,7 @@
       <c r="Q28" s="49"/>
       <c r="R28" s="49"/>
     </row>
-    <row r="29" spans="1:18" ht="34.5" customHeight="1">
+    <row customHeight="1" ht="34.5" r="29" spans="1:18">
       <c r="A29" s="57" t="s">
         <v>13</v>
       </c>
@@ -11703,7 +11842,7 @@
       <c r="Q29" s="49"/>
       <c r="R29" s="49"/>
     </row>
-    <row r="30" spans="1:18" ht="33.75" customHeight="1">
+    <row customHeight="1" ht="33.75" r="30" spans="1:18">
       <c r="A30" s="57" t="s">
         <v>21</v>
       </c>
@@ -11753,7 +11892,7 @@
       <c r="Q30" s="49"/>
       <c r="R30" s="49"/>
     </row>
-    <row r="31" spans="1:18" ht="25.5" customHeight="1">
+    <row customHeight="1" ht="25.5" r="31" spans="1:18">
       <c r="A31" s="57" t="s">
         <v>22</v>
       </c>
@@ -11803,7 +11942,7 @@
       </c>
       <c r="R31" s="49"/>
     </row>
-    <row r="32" spans="1:18" s="26" customFormat="1">
+    <row customFormat="1" r="32" s="26" spans="1:18">
       <c r="A32" s="47"/>
       <c r="B32" s="47"/>
       <c r="C32" s="47"/>
@@ -11820,7 +11959,7 @@
       <c r="N32" s="47"/>
       <c r="O32" s="48"/>
     </row>
-    <row r="33" spans="1:15" s="26" customFormat="1">
+    <row customFormat="1" r="33" s="26" spans="1:15">
       <c r="A33" s="47"/>
       <c r="B33" s="47"/>
       <c r="C33" s="47"/>
@@ -11836,7 +11975,7 @@
       <c r="M33" s="47"/>
       <c r="O33" s="48"/>
     </row>
-    <row r="34" spans="1:15" s="26" customFormat="1">
+    <row customFormat="1" r="34" s="26" spans="1:15">
       <c r="A34" s="47"/>
       <c r="B34" s="47"/>
       <c r="C34" s="47"/>
@@ -11852,7 +11991,7 @@
       <c r="M34" s="47"/>
       <c r="O34" s="48"/>
     </row>
-    <row r="35" spans="1:15" s="26" customFormat="1">
+    <row customFormat="1" r="35" s="26" spans="1:15">
       <c r="A35" s="48"/>
       <c r="B35" s="48"/>
       <c r="C35" s="48"/>
@@ -11869,7 +12008,7 @@
       <c r="N35" s="48"/>
       <c r="O35" s="48"/>
     </row>
-    <row r="36" spans="1:15" s="26" customFormat="1">
+    <row customFormat="1" r="36" s="26" spans="1:15">
       <c r="A36" s="48"/>
       <c r="B36" s="48"/>
       <c r="C36" s="48"/>
@@ -11886,7 +12025,7 @@
       <c r="N36" s="48"/>
       <c r="O36" s="48"/>
     </row>
-    <row r="37" spans="1:15" s="26" customFormat="1">
+    <row customFormat="1" r="37" s="26" spans="1:15">
       <c r="A37" s="48"/>
       <c r="B37" s="48"/>
       <c r="C37" s="48"/>
@@ -11903,7 +12042,7 @@
       <c r="N37" s="48"/>
       <c r="O37" s="48"/>
     </row>
-    <row r="38" spans="1:15" s="26" customFormat="1">
+    <row customFormat="1" r="38" s="26" spans="1:15">
       <c r="A38" s="48"/>
       <c r="B38" s="48"/>
       <c r="C38" s="48"/>
@@ -11920,7 +12059,7 @@
       <c r="N38" s="48"/>
       <c r="O38" s="48"/>
     </row>
-    <row r="39" spans="1:15" s="26" customFormat="1">
+    <row customFormat="1" r="39" s="26" spans="1:15">
       <c r="A39" s="48"/>
       <c r="B39" s="48"/>
       <c r="C39" s="48"/>
@@ -11937,7 +12076,7 @@
       <c r="N39" s="48"/>
       <c r="O39" s="48"/>
     </row>
-    <row r="40" spans="1:15" s="26" customFormat="1">
+    <row customFormat="1" r="40" s="26" spans="1:15">
       <c r="A40" s="48"/>
       <c r="B40" s="48"/>
       <c r="C40" s="48"/>
@@ -11954,7 +12093,7 @@
       <c r="N40" s="48"/>
       <c r="O40" s="48"/>
     </row>
-    <row r="41" spans="1:15" s="26" customFormat="1"/>
+    <row customFormat="1" r="41" s="26" spans="1:15"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="C27:E27"/>
@@ -11964,13 +12103,13 @@
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="F18:L18"/>
   </mergeCells>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -11982,21 +12121,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="33.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21.7109375" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="33.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="26" width="21.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="27.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="27.75" r="1" s="1" spans="1:13">
       <c r="A1" s="4" t="s">
         <v>31</v>
       </c>
@@ -12033,7 +12172,7 @@
       <c r="L1" s="26"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="27" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="27" r="2" s="1" spans="1:13">
       <c r="A2" s="67" t="s">
         <v>13</v>
       </c>
@@ -12070,7 +12209,7 @@
       <c r="L2" s="185"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="23.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="23.25" r="3" s="1" spans="1:13">
       <c r="A3" s="68" t="s">
         <v>21</v>
       </c>
@@ -12107,7 +12246,7 @@
       <c r="L3" s="185"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="21.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="21.75" r="4" s="1" spans="1:13">
       <c r="A4" s="68" t="s">
         <v>22</v>
       </c>
@@ -12223,7 +12362,7 @@
       <c r="L9" s="185"/>
       <c r="M9" s="13"/>
     </row>
-    <row r="10" spans="1:13" ht="24" customHeight="1">
+    <row customHeight="1" ht="24" r="10" spans="1:13">
       <c r="A10" s="68" t="s">
         <v>28</v>
       </c>
@@ -12260,7 +12399,7 @@
       <c r="L10" s="185"/>
       <c r="M10" s="13"/>
     </row>
-    <row r="11" spans="1:13" ht="22.5" customHeight="1">
+    <row customHeight="1" ht="22.5" r="11" spans="1:13">
       <c r="A11" s="68" t="s">
         <v>13</v>
       </c>
@@ -12297,7 +12436,7 @@
       <c r="L11" s="185"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="1:13" ht="21" customHeight="1">
+    <row customHeight="1" ht="21" r="12" spans="1:13">
       <c r="A12" s="68"/>
       <c r="B12" s="22" t="s">
         <v>52</v>
@@ -12332,7 +12471,7 @@
       <c r="L12" s="185"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="1:13" ht="20.25" customHeight="1">
+    <row customHeight="1" ht="20.25" r="13" spans="1:13">
       <c r="A13" s="68"/>
       <c r="B13" s="68"/>
       <c r="C13" s="72" t="s">
@@ -12446,7 +12585,7 @@
       <c r="L18" s="185"/>
       <c r="M18" s="13"/>
     </row>
-    <row r="19" spans="1:13" ht="30">
+    <row ht="30" r="19" spans="1:13">
       <c r="A19" s="68" t="s">
         <v>28</v>
       </c>
@@ -12555,7 +12694,7 @@
       <c r="L21" s="186"/>
       <c r="M21" s="13"/>
     </row>
-    <row r="22" spans="1:13" ht="22.5" customHeight="1">
+    <row customHeight="1" ht="22.5" r="22" spans="1:13">
       <c r="A22" s="68" t="s">
         <v>22</v>
       </c>
@@ -12655,13 +12794,13 @@
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="F18:J18"/>
   </mergeCells>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -12673,19 +12812,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="33.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="33.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="33.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="48" customHeight="1">
+    <row customHeight="1" ht="48" r="1" spans="1:12">
       <c r="A1" s="34" t="s">
         <v>31</v>
       </c>
@@ -12719,7 +12858,7 @@
       <c r="K1" s="13"/>
       <c r="L1" s="13"/>
     </row>
-    <row r="2" spans="1:12" ht="30.75" customHeight="1">
+    <row customHeight="1" ht="30.75" r="2" spans="1:12">
       <c r="A2" s="75" t="s">
         <v>13</v>
       </c>
@@ -12753,7 +12892,7 @@
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
     </row>
-    <row r="3" spans="1:12" ht="30" customHeight="1">
+    <row customHeight="1" ht="30" r="3" spans="1:12">
       <c r="A3" s="75" t="s">
         <v>21</v>
       </c>
@@ -12787,7 +12926,7 @@
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
     </row>
-    <row r="4" spans="1:12" ht="26.25" customHeight="1">
+    <row customHeight="1" ht="26.25" r="4" spans="1:12">
       <c r="A4" s="75" t="s">
         <v>22</v>
       </c>
@@ -12895,7 +13034,7 @@
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
     </row>
-    <row r="10" spans="1:12" ht="45.75" customHeight="1">
+    <row customHeight="1" ht="45.75" r="10" spans="1:12">
       <c r="A10" s="75" t="s">
         <v>28</v>
       </c>
@@ -12929,7 +13068,7 @@
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
     </row>
-    <row r="11" spans="1:12" ht="26.25" customHeight="1">
+    <row customHeight="1" ht="26.25" r="11" spans="1:12">
       <c r="A11" s="75" t="s">
         <v>13</v>
       </c>
@@ -12963,7 +13102,7 @@
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
     </row>
-    <row r="12" spans="1:12" ht="33.75" customHeight="1">
+    <row customHeight="1" ht="33.75" r="12" spans="1:12">
       <c r="A12" s="77" t="s">
         <v>21</v>
       </c>
@@ -12997,7 +13136,7 @@
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
     </row>
-    <row r="13" spans="1:12" ht="24.75" customHeight="1">
+    <row customHeight="1" ht="24.75" r="13" spans="1:12">
       <c r="A13" s="75" t="s">
         <v>22</v>
       </c>
@@ -13105,7 +13244,7 @@
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
     </row>
-    <row r="19" spans="1:12" ht="45.75" customHeight="1">
+    <row customHeight="1" ht="45.75" r="19" spans="1:12">
       <c r="A19" s="75" t="s">
         <v>28</v>
       </c>
@@ -13139,7 +13278,7 @@
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
     </row>
-    <row r="20" spans="1:12" ht="34.5" customHeight="1">
+    <row customHeight="1" ht="34.5" r="20" spans="1:12">
       <c r="A20" s="75" t="s">
         <v>13</v>
       </c>
@@ -13173,7 +13312,7 @@
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
     </row>
-    <row r="21" spans="1:12" ht="30.75" customHeight="1">
+    <row customHeight="1" ht="30.75" r="21" spans="1:12">
       <c r="A21" s="75" t="s">
         <v>21</v>
       </c>
@@ -13207,7 +13346,7 @@
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
     </row>
-    <row r="22" spans="1:12" ht="26.25" customHeight="1">
+    <row customHeight="1" ht="26.25" r="22" spans="1:12">
       <c r="A22" s="75" t="s">
         <v>22</v>
       </c>
@@ -13286,12 +13425,12 @@
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="F18:I18"/>
   </mergeCells>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -13303,25 +13442,25 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="31.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="34.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="33.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="29.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="33.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="31.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="33.42578125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="26.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="29.85546875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="33.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="84" customFormat="1" ht="43.9" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="43.9" r="1" s="84" spans="1:16">
       <c r="A1" s="34" t="s">
         <v>31</v>
       </c>
@@ -13366,7 +13505,7 @@
       </c>
       <c r="O1"/>
     </row>
-    <row r="2" spans="1:16" s="84" customFormat="1" ht="30" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="30" r="2" s="84" spans="1:16">
       <c r="A2" s="189" t="s">
         <v>13</v>
       </c>
@@ -13412,7 +13551,7 @@
       <c r="O2" s="87"/>
       <c r="P2" s="87"/>
     </row>
-    <row r="3" spans="1:16" s="84" customFormat="1" ht="32.450000000000003" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="32.450000000000003" r="3" s="84" spans="1:16">
       <c r="A3" s="189" t="s">
         <v>21</v>
       </c>
@@ -13458,7 +13597,7 @@
       <c r="O3" s="87"/>
       <c r="P3" s="87"/>
     </row>
-    <row r="4" spans="1:16" s="84" customFormat="1" ht="28.9" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="28.9" r="4" s="84" spans="1:16">
       <c r="A4" s="189" t="s">
         <v>22</v>
       </c>
@@ -13502,7 +13641,7 @@
       <c r="O4" s="87"/>
       <c r="P4" s="87"/>
     </row>
-    <row r="5" spans="1:16" s="84" customFormat="1" ht="21" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="21" r="5" s="84" spans="1:16">
       <c r="A5" s="86"/>
       <c r="B5" s="86"/>
       <c r="C5" s="86"/>
@@ -13520,7 +13659,7 @@
       <c r="O5" s="87"/>
       <c r="P5" s="87"/>
     </row>
-    <row r="6" spans="1:16" s="84" customFormat="1">
+    <row customFormat="1" r="6" s="84" spans="1:16">
       <c r="A6" s="86"/>
       <c r="B6" s="89"/>
       <c r="C6" s="86"/>
@@ -13538,7 +13677,7 @@
       <c r="O6" s="87"/>
       <c r="P6" s="87"/>
     </row>
-    <row r="7" spans="1:16" s="84" customFormat="1">
+    <row customFormat="1" r="7" s="84" spans="1:16">
       <c r="A7" s="86"/>
       <c r="B7" s="86"/>
       <c r="C7" s="86"/>
@@ -13556,7 +13695,7 @@
       <c r="O7" s="87"/>
       <c r="P7" s="87"/>
     </row>
-    <row r="8" spans="1:16" s="84" customFormat="1">
+    <row customFormat="1" r="8" s="84" spans="1:16">
       <c r="A8" s="86"/>
       <c r="B8" s="86"/>
       <c r="C8" s="86"/>
@@ -13574,7 +13713,7 @@
       <c r="O8" s="87"/>
       <c r="P8" s="87"/>
     </row>
-    <row r="9" spans="1:16" s="84" customFormat="1">
+    <row customFormat="1" r="9" s="84" spans="1:16">
       <c r="A9" s="34" t="s">
         <v>23</v>
       </c>
@@ -13598,7 +13737,7 @@
       <c r="O9" s="87"/>
       <c r="P9" s="87"/>
     </row>
-    <row r="10" spans="1:16" s="84" customFormat="1" ht="15.75">
+    <row customFormat="1" ht="15.75" r="10" s="84" spans="1:16">
       <c r="A10" s="85" t="s">
         <v>28</v>
       </c>
@@ -13644,7 +13783,7 @@
       <c r="O10" s="87"/>
       <c r="P10" s="87"/>
     </row>
-    <row r="11" spans="1:16" s="84" customFormat="1">
+    <row customFormat="1" r="11" s="84" spans="1:16">
       <c r="A11" s="85" t="s">
         <v>13</v>
       </c>
@@ -13689,7 +13828,7 @@
       </c>
       <c r="P11" s="87"/>
     </row>
-    <row r="12" spans="1:16" s="84" customFormat="1" ht="23.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="23.25" r="12" s="84" spans="1:16">
       <c r="A12" s="85" t="s">
         <v>21</v>
       </c>
@@ -13734,7 +13873,7 @@
       </c>
       <c r="P12" s="87"/>
     </row>
-    <row r="13" spans="1:16" s="84" customFormat="1" ht="30" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="30" r="13" s="84" spans="1:16">
       <c r="A13" s="85" t="s">
         <v>22</v>
       </c>
@@ -13777,7 +13916,7 @@
       </c>
       <c r="P13" s="87"/>
     </row>
-    <row r="14" spans="1:16" s="84" customFormat="1">
+    <row customFormat="1" r="14" s="84" spans="1:16">
       <c r="A14" s="86"/>
       <c r="B14" s="86"/>
       <c r="C14" s="86"/>
@@ -13791,7 +13930,7 @@
       <c r="K14" s="86"/>
       <c r="P14" s="87"/>
     </row>
-    <row r="15" spans="1:16" s="84" customFormat="1">
+    <row customFormat="1" r="15" s="84" spans="1:16">
       <c r="A15" s="86"/>
       <c r="B15" s="86"/>
       <c r="C15" s="86"/>
@@ -13809,7 +13948,7 @@
       <c r="O15" s="87"/>
       <c r="P15" s="87"/>
     </row>
-    <row r="16" spans="1:16" s="84" customFormat="1">
+    <row customFormat="1" r="16" s="84" spans="1:16">
       <c r="A16" s="86"/>
       <c r="B16" s="86"/>
       <c r="C16" s="86"/>
@@ -13825,7 +13964,7 @@
       <c r="O16" s="87"/>
       <c r="P16" s="87"/>
     </row>
-    <row r="17" spans="1:16" s="84" customFormat="1">
+    <row customFormat="1" r="17" s="84" spans="1:16">
       <c r="A17" s="86"/>
       <c r="B17" s="86"/>
       <c r="C17" s="86"/>
@@ -13843,7 +13982,7 @@
       <c r="O17" s="87"/>
       <c r="P17" s="87"/>
     </row>
-    <row r="18" spans="1:16" s="84" customFormat="1">
+    <row customFormat="1" r="18" s="84" spans="1:16">
       <c r="A18" s="34" t="s">
         <v>37</v>
       </c>
@@ -13867,7 +14006,7 @@
       <c r="O18" s="115"/>
       <c r="P18" s="87"/>
     </row>
-    <row r="19" spans="1:16" s="84" customFormat="1" ht="15.75">
+    <row customFormat="1" ht="15.75" r="19" s="84" spans="1:16">
       <c r="A19" s="111" t="s">
         <v>28</v>
       </c>
@@ -13912,7 +14051,7 @@
       </c>
       <c r="P19" s="87"/>
     </row>
-    <row r="20" spans="1:16" s="84" customFormat="1" ht="22.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="22.5" r="20" s="84" spans="1:16">
       <c r="A20" s="111" t="s">
         <v>13</v>
       </c>
@@ -13958,7 +14097,7 @@
       <c r="O20" s="115"/>
       <c r="P20" s="87"/>
     </row>
-    <row r="21" spans="1:16" s="84" customFormat="1" ht="23.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="23.25" r="21" s="84" spans="1:16">
       <c r="A21" s="111" t="s">
         <v>21</v>
       </c>
@@ -14004,7 +14143,7 @@
       <c r="O21" s="115"/>
       <c r="P21" s="87"/>
     </row>
-    <row r="22" spans="1:16" s="84" customFormat="1" ht="24" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="24" r="22" s="84" spans="1:16">
       <c r="A22" s="111" t="s">
         <v>22</v>
       </c>
@@ -14048,7 +14187,7 @@
       <c r="O22" s="115"/>
       <c r="P22" s="87"/>
     </row>
-    <row r="23" spans="1:16" s="84" customFormat="1" ht="26.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="26.25" r="23" s="84" spans="1:16">
       <c r="A23" s="111"/>
       <c r="B23" s="111"/>
       <c r="C23" s="111"/>
@@ -14066,7 +14205,7 @@
       <c r="O23" s="87"/>
       <c r="P23" s="87"/>
     </row>
-    <row r="24" spans="1:16" s="84" customFormat="1">
+    <row customFormat="1" r="24" s="84" spans="1:16">
       <c r="A24" s="86"/>
       <c r="B24" s="86"/>
       <c r="C24" s="86"/>
@@ -14083,7 +14222,7 @@
       <c r="O24" s="87"/>
       <c r="P24" s="87"/>
     </row>
-    <row r="25" spans="1:16" s="84" customFormat="1">
+    <row customFormat="1" r="25" s="84" spans="1:16">
       <c r="A25" s="86"/>
       <c r="B25" s="86"/>
       <c r="C25" s="86"/>
@@ -14100,7 +14239,7 @@
       <c r="O25" s="86"/>
       <c r="P25" s="87"/>
     </row>
-    <row r="26" spans="1:16" s="84" customFormat="1">
+    <row customFormat="1" r="26" s="84" spans="1:16">
       <c r="A26" s="86"/>
       <c r="B26" s="86"/>
       <c r="C26" s="86"/>
@@ -14118,7 +14257,7 @@
       <c r="O26" s="86"/>
       <c r="P26" s="87"/>
     </row>
-    <row r="27" spans="1:16" s="84" customFormat="1">
+    <row customFormat="1" r="27" s="84" spans="1:16">
       <c r="A27" s="34" t="s">
         <v>73</v>
       </c>
@@ -14144,7 +14283,7 @@
       <c r="O27" s="86"/>
       <c r="P27" s="87"/>
     </row>
-    <row r="28" spans="1:16" s="84" customFormat="1" ht="15.75">
+    <row customFormat="1" ht="15.75" r="28" s="84" spans="1:16">
       <c r="A28" s="85" t="s">
         <v>28</v>
       </c>
@@ -14190,7 +14329,7 @@
       <c r="O28" s="86"/>
       <c r="P28" s="87"/>
     </row>
-    <row r="29" spans="1:16" s="84" customFormat="1" ht="27" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="27" r="29" s="84" spans="1:16">
       <c r="A29" s="85" t="s">
         <v>13</v>
       </c>
@@ -14236,7 +14375,7 @@
       <c r="O29" s="86"/>
       <c r="P29" s="87"/>
     </row>
-    <row r="30" spans="1:16" s="84" customFormat="1" ht="27.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="27.75" r="30" s="84" spans="1:16">
       <c r="A30" s="85" t="s">
         <v>21</v>
       </c>
@@ -14282,7 +14421,7 @@
       <c r="O30" s="86"/>
       <c r="P30" s="87"/>
     </row>
-    <row r="31" spans="1:16" s="84" customFormat="1" ht="26.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="26.25" r="31" s="84" spans="1:16">
       <c r="A31" s="85" t="s">
         <v>22</v>
       </c>
@@ -14326,7 +14465,7 @@
       <c r="O31" s="86"/>
       <c r="P31" s="87"/>
     </row>
-    <row r="32" spans="1:16" s="84" customFormat="1">
+    <row customFormat="1" r="32" s="84" spans="1:16">
       <c r="A32" s="83"/>
       <c r="B32" s="83"/>
       <c r="C32" s="83"/>
@@ -14343,7 +14482,7 @@
       <c r="N32" s="83"/>
       <c r="O32" s="83"/>
     </row>
-    <row r="33" spans="1:15" s="84" customFormat="1">
+    <row customFormat="1" r="33" s="84" spans="1:15">
       <c r="A33" s="83"/>
       <c r="B33" s="83"/>
       <c r="C33" s="83"/>
@@ -14360,7 +14499,7 @@
       <c r="N33" s="83"/>
       <c r="O33" s="83"/>
     </row>
-    <row r="34" spans="1:15" s="84" customFormat="1">
+    <row customFormat="1" r="34" s="84" spans="1:15">
       <c r="A34" s="83"/>
       <c r="B34" s="83"/>
       <c r="C34" s="83"/>
@@ -14372,7 +14511,7 @@
       <c r="N34" s="83"/>
       <c r="O34" s="83"/>
     </row>
-    <row r="35" spans="1:15" s="84" customFormat="1">
+    <row customFormat="1" r="35" s="84" spans="1:15">
       <c r="A35" s="83"/>
       <c r="B35" s="83"/>
       <c r="C35" s="83"/>
@@ -14395,13 +14534,13 @@
     <mergeCell ref="C27:E27"/>
     <mergeCell ref="F27:I27"/>
   </mergeCells>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -14413,23 +14552,23 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="43" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="27.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="31.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="33.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="33.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="27.28515625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="31.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="43.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="31.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="33.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="26.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="26" width="33.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="26" width="27.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="26" width="31.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="123" customFormat="1" ht="40.15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="40.15" r="1" s="123" spans="1:21">
       <c r="A1" s="118" t="s">
         <v>31</v>
       </c>
@@ -14471,7 +14610,7 @@
       <c r="Q1" s="122"/>
       <c r="R1" s="122"/>
     </row>
-    <row r="2" spans="1:21" s="123" customFormat="1" ht="30" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="30" r="2" s="123" spans="1:21">
       <c r="A2" s="124" t="s">
         <v>13</v>
       </c>
@@ -14513,7 +14652,7 @@
       <c r="Q2" s="122"/>
       <c r="R2" s="122"/>
     </row>
-    <row r="3" spans="1:21" s="123" customFormat="1" ht="27.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="27.75" r="3" s="123" spans="1:21">
       <c r="A3" s="129" t="s">
         <v>21</v>
       </c>
@@ -14555,7 +14694,7 @@
       <c r="Q3" s="122"/>
       <c r="R3" s="122"/>
     </row>
-    <row r="4" spans="1:21" s="123" customFormat="1" ht="27" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="27" r="4" s="123" spans="1:21">
       <c r="A4" s="129" t="s">
         <v>22</v>
       </c>
@@ -14595,7 +14734,7 @@
       <c r="Q4" s="122"/>
       <c r="R4" s="122"/>
     </row>
-    <row r="5" spans="1:21" s="121" customFormat="1" ht="24.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="24.75" r="5" s="121" spans="1:21">
       <c r="A5" s="131"/>
       <c r="B5" s="131"/>
       <c r="C5" s="131"/>
@@ -14615,7 +14754,7 @@
       <c r="Q5" s="131"/>
       <c r="R5" s="131"/>
     </row>
-    <row r="6" spans="1:21" s="121" customFormat="1">
+    <row customFormat="1" r="6" s="121" spans="1:21">
       <c r="A6" s="131"/>
       <c r="B6" s="131"/>
       <c r="C6" s="131"/>
@@ -14635,7 +14774,7 @@
       <c r="Q6" s="131"/>
       <c r="R6" s="131"/>
     </row>
-    <row r="7" spans="1:21" s="121" customFormat="1">
+    <row customFormat="1" r="7" s="121" spans="1:21">
       <c r="A7" s="131"/>
       <c r="B7" s="131"/>
       <c r="C7" s="131"/>
@@ -14655,7 +14794,7 @@
       <c r="Q7" s="131"/>
       <c r="R7" s="131"/>
     </row>
-    <row r="8" spans="1:21" s="121" customFormat="1">
+    <row customFormat="1" r="8" s="121" spans="1:21">
       <c r="A8" s="132"/>
       <c r="B8" s="132"/>
       <c r="C8" s="132"/>
@@ -14675,7 +14814,7 @@
       <c r="Q8" s="131"/>
       <c r="R8" s="131"/>
     </row>
-    <row r="9" spans="1:21" s="134" customFormat="1" ht="30" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="30" r="9" s="134" spans="1:21">
       <c r="A9" s="133" t="s">
         <v>23</v>
       </c>
@@ -14702,7 +14841,7 @@
       <c r="T9" s="123"/>
       <c r="U9" s="123"/>
     </row>
-    <row r="10" spans="1:21" s="134" customFormat="1" ht="27" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="27" r="10" s="134" spans="1:21">
       <c r="A10" s="129" t="s">
         <v>28</v>
       </c>
@@ -14747,7 +14886,7 @@
       <c r="T10" s="123"/>
       <c r="U10" s="123"/>
     </row>
-    <row r="11" spans="1:21" s="134" customFormat="1" ht="28.15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="28.15" r="11" s="134" spans="1:21">
       <c r="A11" s="129" t="s">
         <v>13</v>
       </c>
@@ -14792,7 +14931,7 @@
       <c r="T11" s="123"/>
       <c r="U11" s="123"/>
     </row>
-    <row r="12" spans="1:21" s="134" customFormat="1" ht="27.6" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="27.6" r="12" s="134" spans="1:21">
       <c r="A12" s="129" t="s">
         <v>21</v>
       </c>
@@ -14837,7 +14976,7 @@
       <c r="T12" s="123"/>
       <c r="U12" s="123"/>
     </row>
-    <row r="13" spans="1:21" s="134" customFormat="1" ht="21.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="21.75" r="13" s="134" spans="1:21">
       <c r="A13" s="129" t="s">
         <v>22</v>
       </c>
@@ -14880,7 +15019,7 @@
       <c r="T13" s="123"/>
       <c r="U13" s="123"/>
     </row>
-    <row r="14" spans="1:21" s="121" customFormat="1">
+    <row customFormat="1" r="14" s="121" spans="1:21">
       <c r="A14" s="136"/>
       <c r="B14" s="136"/>
       <c r="C14" s="136"/>
@@ -14903,7 +15042,7 @@
       <c r="T14" s="138"/>
       <c r="U14" s="138"/>
     </row>
-    <row r="15" spans="1:21" s="121" customFormat="1">
+    <row customFormat="1" r="15" s="121" spans="1:21">
       <c r="A15" s="136"/>
       <c r="B15" s="136"/>
       <c r="C15" s="136"/>
@@ -14926,7 +15065,7 @@
       <c r="T15" s="138"/>
       <c r="U15" s="138"/>
     </row>
-    <row r="16" spans="1:21" s="121" customFormat="1">
+    <row customFormat="1" r="16" s="121" spans="1:21">
       <c r="A16" s="137"/>
       <c r="B16" s="137"/>
       <c r="C16" s="137"/>
@@ -14949,7 +15088,7 @@
       <c r="T16" s="138"/>
       <c r="U16" s="138"/>
     </row>
-    <row r="17" spans="1:21" s="121" customFormat="1">
+    <row customFormat="1" r="17" s="121" spans="1:21">
       <c r="A17" s="137"/>
       <c r="B17" s="137"/>
       <c r="C17" s="137"/>
@@ -14972,7 +15111,7 @@
       <c r="T17" s="138"/>
       <c r="U17" s="138"/>
     </row>
-    <row r="18" spans="1:21" s="121" customFormat="1">
+    <row customFormat="1" r="18" s="121" spans="1:21">
       <c r="A18" s="133" t="s">
         <v>37</v>
       </c>
@@ -14998,7 +15137,7 @@
       <c r="T18" s="138"/>
       <c r="U18" s="138"/>
     </row>
-    <row r="19" spans="1:21" s="121" customFormat="1" ht="30" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="30" r="19" s="121" spans="1:21">
       <c r="A19" s="129" t="s">
         <v>28</v>
       </c>
@@ -15042,7 +15181,7 @@
       <c r="T19" s="138"/>
       <c r="U19" s="138"/>
     </row>
-    <row r="20" spans="1:21" s="121" customFormat="1" ht="29.45" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="29.45" r="20" s="121" spans="1:21">
       <c r="A20" s="129" t="s">
         <v>13</v>
       </c>
@@ -15087,7 +15226,7 @@
       <c r="T20" s="138"/>
       <c r="U20" s="138"/>
     </row>
-    <row r="21" spans="1:21" s="121" customFormat="1" ht="23.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="23.25" r="21" s="121" spans="1:21">
       <c r="A21" s="129" t="s">
         <v>21</v>
       </c>
@@ -15132,7 +15271,7 @@
       <c r="T21" s="138"/>
       <c r="U21" s="138"/>
     </row>
-    <row r="22" spans="1:21" s="121" customFormat="1" ht="21" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="21" r="22" s="121" spans="1:21">
       <c r="A22" s="129" t="s">
         <v>22</v>
       </c>
@@ -15175,7 +15314,7 @@
       <c r="T22" s="138"/>
       <c r="U22" s="138"/>
     </row>
-    <row r="23" spans="1:21" s="121" customFormat="1">
+    <row customFormat="1" r="23" s="121" spans="1:21">
       <c r="A23" s="128"/>
       <c r="B23" s="128"/>
       <c r="C23" s="136"/>
@@ -15198,7 +15337,7 @@
       <c r="T23" s="138"/>
       <c r="U23" s="138"/>
     </row>
-    <row r="24" spans="1:21" s="121" customFormat="1">
+    <row customFormat="1" r="24" s="121" spans="1:21">
       <c r="A24" s="128"/>
       <c r="B24" s="128"/>
       <c r="C24" s="136"/>
@@ -15221,7 +15360,7 @@
       <c r="T24" s="138"/>
       <c r="U24" s="138"/>
     </row>
-    <row r="25" spans="1:21" s="121" customFormat="1">
+    <row customFormat="1" r="25" s="121" spans="1:21">
       <c r="A25" s="136"/>
       <c r="B25" s="136"/>
       <c r="C25" s="136"/>
@@ -15244,7 +15383,7 @@
       <c r="T25" s="138"/>
       <c r="U25" s="138"/>
     </row>
-    <row r="26" spans="1:21" s="121" customFormat="1">
+    <row customFormat="1" r="26" s="121" spans="1:21">
       <c r="A26" s="137"/>
       <c r="B26" s="137"/>
       <c r="C26" s="137"/>
@@ -15267,7 +15406,7 @@
       <c r="T26" s="138"/>
       <c r="U26" s="138"/>
     </row>
-    <row r="27" spans="1:21" s="134" customFormat="1">
+    <row customFormat="1" r="27" s="134" spans="1:21">
       <c r="A27" s="133" t="s">
         <v>49</v>
       </c>
@@ -15294,7 +15433,7 @@
       <c r="T27" s="123"/>
       <c r="U27" s="123"/>
     </row>
-    <row r="28" spans="1:21" s="134" customFormat="1" ht="40.9" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="40.9" r="28" s="134" spans="1:21">
       <c r="A28" s="129" t="s">
         <v>28</v>
       </c>
@@ -15339,7 +15478,7 @@
       <c r="T28" s="123"/>
       <c r="U28" s="123"/>
     </row>
-    <row r="29" spans="1:21" s="134" customFormat="1" ht="29.45" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="29.45" r="29" s="134" spans="1:21">
       <c r="A29" s="129" t="s">
         <v>13</v>
       </c>
@@ -15384,7 +15523,7 @@
       <c r="T29" s="123"/>
       <c r="U29" s="123"/>
     </row>
-    <row r="30" spans="1:21" s="134" customFormat="1" ht="22.15" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="22.15" r="30" s="134" spans="1:21">
       <c r="A30" s="129" t="s">
         <v>21</v>
       </c>
@@ -15429,7 +15568,7 @@
       <c r="T30" s="123"/>
       <c r="U30" s="123"/>
     </row>
-    <row r="31" spans="1:21" s="134" customFormat="1" ht="25.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="25.5" r="31" s="134" spans="1:21">
       <c r="A31" s="129" t="s">
         <v>22</v>
       </c>
@@ -15472,7 +15611,7 @@
       <c r="T31" s="123"/>
       <c r="U31" s="123"/>
     </row>
-    <row r="32" spans="1:21" s="121" customFormat="1">
+    <row customFormat="1" r="32" s="121" spans="1:21">
       <c r="A32" s="137"/>
       <c r="B32" s="137"/>
       <c r="C32" s="137"/>
@@ -15492,7 +15631,7 @@
       <c r="Q32" s="131"/>
       <c r="R32" s="131"/>
     </row>
-    <row r="33" spans="1:16" s="121" customFormat="1">
+    <row customFormat="1" r="33" s="121" spans="1:16">
       <c r="A33" s="141"/>
       <c r="B33" s="141"/>
       <c r="C33" s="141"/>
@@ -15510,12 +15649,12 @@
       <c r="O33" s="141"/>
       <c r="P33" s="142"/>
     </row>
-    <row r="34" spans="1:16" s="121" customFormat="1">
+    <row customFormat="1" r="34" s="121" spans="1:16">
       <c r="L34" s="142"/>
       <c r="M34" s="142"/>
       <c r="N34" s="142"/>
     </row>
-    <row r="35" spans="1:16" s="121" customFormat="1">
+    <row customFormat="1" r="35" s="121" spans="1:16">
       <c r="L35" s="142"/>
       <c r="M35" s="142"/>
       <c r="N35" s="142"/>
@@ -15529,7 +15668,7 @@
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="C18:D18"/>
   </mergeCells>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PayrollProject/OutPutTestResult/Court order Scenarios Test result.xlsx
+++ b/PayrollProject/OutPutTestResult/Court order Scenarios Test result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\git\24-7PeopleXCDPayroll\PayrollProject\OutPutTestResult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{2AF4F9D1-B04A-4D94-9462-80C439374E96}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37"/>
+  <xr:revisionPtr documentId="13_ncr:1_{04C0F250-3A1E-4CB7-B393-DEA9EFDFBB58}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37"/>
   <bookViews>
-    <workbookView activeTab="3" firstSheet="3" windowHeight="7275" windowWidth="19095" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="86235"/>
+    <workbookView activeTab="1" windowHeight="7275" windowWidth="19095" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="86865"/>
   </bookViews>
   <sheets>
     <sheet name="AEO1971civildebt" r:id="rId1" sheetId="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2611" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2599" uniqueCount="181">
   <si>
     <t>ColumnHeading</t>
   </si>
@@ -587,7 +587,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="73">
+  <fonts count="105">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1065,6 +1065,198 @@
       <color indexed="10"/>
       <b val="true"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1104,7 +1296,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1254,12 +1446,60 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="39" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="316">
+  <cellXfs count="348">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2030,8 +2270,40 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="16" fillId="0" fontId="68" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="69" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="17" fillId="0" fontId="70" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="72" fillId="0" borderId="18" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="71" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="18" fillId="0" fontId="72" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="73" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="19" fillId="0" fontId="74" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="75" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="20" fillId="0" fontId="76" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="77" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="21" fillId="0" fontId="78" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="79" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="22" fillId="0" fontId="80" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="81" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="23" fillId="0" fontId="82" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="83" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="24" fillId="0" fontId="84" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="85" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="25" fillId="0" fontId="86" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="87" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="26" fillId="0" fontId="88" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="89" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="27" fillId="0" fontId="90" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="91" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="28" fillId="0" fontId="92" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="93" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="29" fillId="0" fontId="94" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="95" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="96" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="97" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="31" fillId="0" fontId="98" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="99" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="32" fillId="0" fontId="100" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="101" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="33" fillId="0" fontId="102" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="104" fillId="0" borderId="34" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -2318,24 +2590,26 @@
   </sheetPr>
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="35.140625" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="10" max="11" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.8046875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="35.21484375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.91015625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.90625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.015625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.359375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.3828125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="21.58203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="22.13671875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="17.46875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="17.49609375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="27.578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="30.359375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="24.359375" collapsed="true"/>
     <col min="15" max="15" bestFit="true" customWidth="true" style="26" width="21.7109375" collapsed="true"/>
   </cols>
   <sheetData>
@@ -9087,25 +9361,26 @@
   </sheetPr>
   <dimension ref="A1:T16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="10" max="11" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.87109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="37.07421875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.3828125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.84765625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.12890625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.33984375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.3828125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5390625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="22.14453125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="17.45703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="17.49609375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="27.93359375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="30.4140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="24.47265625" collapsed="true"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
   </cols>
   <sheetData>
@@ -9530,42 +9805,18 @@
       <c r="B12" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="268" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="268" t="s">
-        <v>164</v>
-      </c>
-      <c r="E12" s="268" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="268" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="268" t="s">
-        <v>167</v>
-      </c>
-      <c r="H12" s="268" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="268" t="s">
-        <v>166</v>
-      </c>
-      <c r="J12" s="269" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="269" t="s">
-        <v>168</v>
-      </c>
-      <c r="L12" s="269" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" s="269" t="s">
-        <v>29</v>
-      </c>
-      <c r="N12" s="269" t="s">
-        <v>29</v>
-      </c>
+      <c r="C12" s="268"/>
+      <c r="D12" s="268"/>
+      <c r="E12" s="268"/>
+      <c r="F12" s="268"/>
+      <c r="G12" s="268"/>
+      <c r="H12" s="268"/>
+      <c r="I12" s="268"/>
+      <c r="J12" s="269"/>
+      <c r="K12" s="269"/>
+      <c r="L12" s="269"/>
+      <c r="M12" s="269"/>
+      <c r="N12" s="269"/>
       <c r="O12" s="13"/>
       <c r="P12" s="13"/>
       <c r="Q12" s="13"/>
@@ -9576,42 +9827,18 @@
     <row customHeight="1" ht="24.75" r="13" spans="1:20">
       <c r="A13" s="99"/>
       <c r="B13" s="99"/>
-      <c r="C13" s="97" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" s="97" t="s">
-        <v>118</v>
-      </c>
-      <c r="E13" s="97" t="s">
-        <v>118</v>
-      </c>
-      <c r="F13" s="97" t="s">
-        <v>118</v>
-      </c>
-      <c r="G13" s="97" t="s">
-        <v>118</v>
-      </c>
-      <c r="H13" s="97" t="s">
-        <v>118</v>
-      </c>
-      <c r="I13" s="97" t="s">
-        <v>118</v>
-      </c>
-      <c r="J13" s="97" t="s">
-        <v>118</v>
-      </c>
-      <c r="K13" s="97" t="s">
-        <v>118</v>
-      </c>
-      <c r="L13" s="97" t="s">
-        <v>118</v>
-      </c>
-      <c r="M13" s="97" t="s">
-        <v>118</v>
-      </c>
-      <c r="N13" s="97" t="s">
-        <v>118</v>
-      </c>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="97"/>
+      <c r="M13" s="97"/>
+      <c r="N13" s="97"/>
       <c r="O13" s="13"/>
       <c r="P13" s="13"/>
       <c r="Q13" s="13"/>
@@ -10160,23 +10387,23 @@
   </sheetPr>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="22.8046875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="35.21484375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.015625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.359375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="20.35546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="21.58203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="22.13671875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="17.46875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="27.578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="30.359375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="24.359375" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
